--- a/backend/python/templates/UNIRRIG_Template.xlsx
+++ b/backend/python/templates/UNIRRIG_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Videos\FAAS SYSTEM\backend\python\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84BB7A6-6EA5-4AC5-BA2C-A1A56D26704E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AE2FD1-8C87-4637-AAD4-4CE41B1E138A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{09F85F88-7F48-4E0A-B303-28052CF036CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09F85F88-7F48-4E0A-B303-28052CF036CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>RPA Form No. 1</t>
   </si>
@@ -400,11 +400,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="[$₱-3409]#,##0"/>
-    <numFmt numFmtId="166" formatCode="[$₱-464]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="[$₱-3409]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0"/>
+    <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$₱-3409]#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1005,7 +1006,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1147,9 +1148,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1229,16 +1227,13 @@
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1252,120 +1247,104 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1393,149 +1372,135 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1543,94 +1508,139 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1953,8 +1963,8 @@
   </sheetPr>
   <dimension ref="A3:K66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36:K36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29:K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1973,32 +1983,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="150" t="s">
+      <c r="H3" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="118"/>
+      <c r="I3" s="148"/>
       <c r="J3" s="149"/>
-      <c r="K3" s="129"/>
+      <c r="K3" s="114"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="154" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
+      <c r="B4" s="148"/>
+      <c r="C4" s="148"/>
+      <c r="D4" s="148"/>
+      <c r="E4" s="148"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="118"/>
+      <c r="B5" s="148"/>
       <c r="C5" s="152"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -2009,145 +2019,145 @@
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="C7" s="146" t="s">
+      <c r="C7" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="148"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="118"/>
-      <c r="C8" s="118"/>
-      <c r="D8" s="118"/>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="118"/>
-      <c r="K8" s="118"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="148"/>
+      <c r="H8" s="148"/>
+      <c r="I8" s="148"/>
+      <c r="J8" s="148"/>
+      <c r="K8" s="148"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
       <c r="B11" s="149"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
       <c r="H11" s="149"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="166" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="118"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="118"/>
-      <c r="J12" s="118"/>
-      <c r="K12" s="118"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="148"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="148"/>
+      <c r="G12" s="148"/>
+      <c r="H12" s="148"/>
+      <c r="I12" s="148"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="148"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="149"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
       <c r="H13" s="149"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="148" t="s">
+      <c r="A14" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="118"/>
-      <c r="J14" s="118"/>
-      <c r="K14" s="118"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="148"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+      <c r="K14" s="148"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="155" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="118"/>
-      <c r="J16" s="118"/>
-      <c r="K16" s="118"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="148"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="148"/>
+      <c r="I16" s="148"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="148"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="123" t="s">
+      <c r="A17" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="114"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="114"/>
+      <c r="K17" s="114"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="117" t="s">
+      <c r="C18" s="150" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="148"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="117" t="s">
+      <c r="G18" s="150" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="118"/>
-      <c r="I18" s="117" t="s">
+      <c r="H18" s="148"/>
+      <c r="I18" s="150" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="118"/>
-      <c r="K18" s="118"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="148"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="123" t="s">
+      <c r="A19" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="118"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="158"/>
       <c r="D19" s="159"/>
       <c r="E19" s="159"/>
@@ -2160,7 +2170,7 @@
       <c r="J19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="93"/>
+      <c r="K19" s="92"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
@@ -2174,104 +2184,104 @@
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
-      <c r="J20" s="94" t="s">
+      <c r="J20" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="95"/>
+      <c r="K20" s="94"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="156"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="114"/>
       <c r="H21" s="27" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="156"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
+      <c r="J21" s="114"/>
+      <c r="K21" s="114"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B22" s="157"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="119"/>
       <c r="H22" s="28" t="s">
         <v>34</v>
       </c>
       <c r="I22" s="157"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
+      <c r="J22" s="119"/>
+      <c r="K22" s="119"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="144" t="s">
+      <c r="A23" s="173" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="118"/>
-      <c r="C23" s="118"/>
-      <c r="D23" s="118"/>
-      <c r="E23" s="118"/>
-      <c r="F23" s="118"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="118"/>
-      <c r="K23" s="118"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="148"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="148"/>
+      <c r="F23" s="148"/>
+      <c r="G23" s="148"/>
+      <c r="H23" s="148"/>
+      <c r="I23" s="148"/>
+      <c r="J23" s="148"/>
+      <c r="K23" s="148"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="151"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="129"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="114"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="168" t="s">
+      <c r="A25" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="169"/>
-      <c r="K25" s="169"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="117"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="119" t="s">
+      <c r="A26" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="120"/>
-      <c r="C26" s="121"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="143" t="s">
+      <c r="E26" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
+      <c r="F26" s="119"/>
+      <c r="G26" s="119"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="119"/>
+      <c r="J26" s="119"/>
+      <c r="K26" s="119"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -2284,10 +2294,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="57"/>
-      <c r="E27" s="173" t="s">
+      <c r="E27" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="121"/>
+      <c r="F27" s="120"/>
       <c r="G27" s="58" t="s">
         <v>7</v>
       </c>
@@ -2297,21 +2307,21 @@
       <c r="I27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="141" t="s">
+      <c r="J27" s="170" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="121"/>
+      <c r="K27" s="120"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="174"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="61"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="251"/>
       <c r="H28" s="59"/>
-      <c r="I28" s="96" t="str">
+      <c r="I28" s="95" t="str">
         <f t="array" ref="I28">_xlfn.IFS(
     E28="COMMERCIAL", _xlfn.IFS(H28="C-1",1400, H28="C-2",1030, H28="C-3",850, H28="C-4",720, TRUE, ""),
     E28="RESIDENTIAL", _xlfn.IFS(H28="R-1",760, H28="R-2",610, H28="R-3",470, H28="R-4",280, H28="R-5",200, TRUE, ""),
@@ -2328,22 +2338,22 @@
 )</f>
         <v/>
       </c>
-      <c r="J28" s="163" t="str">
-        <f t="shared" ref="J28:J34" si="0">IFERROR(MROUND(G28*I28,10),"")</f>
+      <c r="J28" s="123" t="str">
+        <f>IFERROR(IF(MROUND(G28*I28,10)=0, "", MROUND(G28*I28,10)), "")</f>
         <v/>
       </c>
-      <c r="K28" s="164"/>
+      <c r="K28" s="124"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="60"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="252"/>
       <c r="H29" s="60"/>
-      <c r="I29" s="96" t="str">
+      <c r="I29" s="95" t="str">
         <f t="array" ref="I29">_xlfn.IFS(
     E29="COMMERCIAL", _xlfn.IFS(H29="C-1",1400, H29="C-2",1030, H29="C-3",850, H29="C-4",720, TRUE, ""),
     E29="RESIDENTIAL", _xlfn.IFS(H29="R-1",760, H29="R-2",610, H29="R-3",470, H29="R-4",280, H29="R-5",200, TRUE, ""),
@@ -2360,22 +2370,22 @@
 )</f>
         <v/>
       </c>
-      <c r="J29" s="163" t="str">
-        <f t="shared" si="0"/>
+      <c r="J29" s="123" t="str">
+        <f t="shared" ref="J29:J31" si="0">IFERROR(IF(MROUND(G29*I29,10)=0, "", MROUND(G29*I29,10)), "")</f>
         <v/>
       </c>
-      <c r="K29" s="164"/>
+      <c r="K29" s="124"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="98"/>
-      <c r="I30" s="96" t="str">
+      <c r="E30" s="130"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="253"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="95" t="str">
         <f t="array" ref="I30">_xlfn.IFS(
     E30="COMMERCIAL", _xlfn.IFS(H30="C-1",1400, H30="C-2",1030, H30="C-3",850, H30="C-4",720, TRUE, ""),
     E30="RESIDENTIAL", _xlfn.IFS(H30="R-1",760, H30="R-2",610, H30="R-3",470, H30="R-4",280, H30="R-5",200, TRUE, ""),
@@ -2392,58 +2402,40 @@
 )</f>
         <v/>
       </c>
-      <c r="J30" s="163" t="str">
+      <c r="J30" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K30" s="164"/>
+      <c r="K30" s="124"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="96" t="str">
-        <f t="array" ref="I31">_xlfn.IFS(
-    E31="COMMERCIAL", _xlfn.IFS(H31="C-1",1400, H31="C-2",1030, H31="C-3",850, H31="C-4",720, TRUE, ""),
-    E31="RESIDENTIAL", _xlfn.IFS(H31="R-1",760, H31="R-2",610, H31="R-3",470, H31="R-4",280, H31="R-5",200, TRUE, ""),
-    E31="COCONUT LAND", _xlfn.IFS(OR(H31=1,H31="1"),93830, OR(H31=2,H31="2"),84500, OR(H31=3,H31="3"),76130, TRUE, ""),
-    E31="RICE LAND W/ IRRIGATION", _xlfn.IFS(OR(H31=1,H31="1"),188760, OR(H31=2,H31="2"),174390, OR(H31=3,H31="3"),126950, TRUE, ""),
-    E31="RICE LAND W/O IRRIGATION", _xlfn.IFS(OR(H31=1,H31="1"),82450, OR(H31=2,H31="2"),75070, OR(H31=3,H31="3"),52590, TRUE, ""),
-    E31="UPLAND RICE", 28540,
-    E31="ORCHARD", 44100,
-    E31="COGON LAND", 46460,
-    E31="NIPA LAND", 55070,
-    E31="FOREST LAND", 59660,
-    E31="FISHPOND", 218240,
-    TRUE, ""
-)</f>
-        <v/>
-      </c>
-      <c r="J31" s="163" t="str">
+      <c r="E31" s="132"/>
+      <c r="F31" s="120"/>
+      <c r="G31" s="254"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="95"/>
+      <c r="J31" s="123" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K31" s="164"/>
+      <c r="K31" s="124"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="121"/>
-      <c r="G32" s="32"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="254"/>
       <c r="H32" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="96" t="str">
+      <c r="I32" s="95" t="str">
         <f t="array" ref="I32">_xlfn.IFS(
     E32="COMMERCIAL", _xlfn.IFS(H32="C-1",1400, H32="C-2",1030, H32="C-3",850, H32="C-4",720, TRUE, ""),
     E32="RESIDENTIAL", _xlfn.IFS(H32="R-1",760, H32="R-2",610, H32="R-3",470, H32="R-4",280, H32="R-5",200, TRUE, ""),
@@ -2460,24 +2452,24 @@
 )</f>
         <v/>
       </c>
-      <c r="J32" s="145" t="str">
-        <f t="shared" si="0"/>
+      <c r="J32" s="142" t="str">
+        <f t="shared" ref="J28:J34" si="1">IFERROR(MROUND(G32*I32,10),"")</f>
         <v/>
       </c>
-      <c r="K32" s="121"/>
+      <c r="K32" s="120"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="121"/>
-      <c r="G33" s="32"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="254"/>
       <c r="H33" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="96" t="str">
+      <c r="I33" s="95" t="str">
         <f t="array" ref="I33">_xlfn.IFS(
     E33="COMMERCIAL", _xlfn.IFS(H33="C-1",1400, H33="C-2",1030, H33="C-3",850, H33="C-4",720, TRUE, ""),
     E33="RESIDENTIAL", _xlfn.IFS(H33="R-1",760, H33="R-2",610, H33="R-3",470, H33="R-4",280, H33="R-5",200, TRUE, ""),
@@ -2494,24 +2486,24 @@
 )</f>
         <v/>
       </c>
-      <c r="J33" s="145" t="str">
-        <f t="shared" si="0"/>
+      <c r="J33" s="142" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K33" s="121"/>
+      <c r="K33" s="120"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="121"/>
-      <c r="G34" s="32"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="120"/>
+      <c r="G34" s="250"/>
       <c r="H34" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="96" t="str">
+      <c r="I34" s="95" t="str">
         <f t="array" ref="I34">_xlfn.IFS(
     E34="COMMERCIAL", _xlfn.IFS(H34="C-1",1400, H34="C-2",1030, H34="C-3",850, H34="C-4",720, TRUE, ""),
     E34="RESIDENTIAL", _xlfn.IFS(H34="R-1",760, H34="R-2",610, H34="R-3",470, H34="R-4",280, H34="R-5",200, TRUE, ""),
@@ -2528,29 +2520,29 @@
 )</f>
         <v/>
       </c>
-      <c r="J34" s="145" t="str">
-        <f t="shared" si="0"/>
+      <c r="J34" s="142" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K34" s="121"/>
+      <c r="K34" s="120"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="139" t="s">
+      <c r="E35" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="121"/>
+      <c r="F35" s="120"/>
       <c r="G35" s="32"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="137" t="str">
+      <c r="J35" s="167" t="str">
         <f>IF(SUM(J28:K34)=0, "", MROUND(SUM(J28:K34), 10))</f>
         <v/>
       </c>
-      <c r="K35" s="138"/>
+      <c r="K35" s="168"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
@@ -2561,73 +2553,73 @@
         <v>13</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="E36" s="139" t="s">
+      <c r="E36" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="120"/>
-      <c r="G36" s="120"/>
-      <c r="H36" s="120"/>
-      <c r="I36" s="121"/>
-      <c r="J36" s="165"/>
-      <c r="K36" s="166"/>
+      <c r="F36" s="119"/>
+      <c r="G36" s="119"/>
+      <c r="H36" s="119"/>
+      <c r="I36" s="120"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="144"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="123" t="s">
+      <c r="A37" s="165" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="118"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="118"/>
-      <c r="E37" s="118"/>
-      <c r="F37" s="118"/>
-      <c r="G37" s="118"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="118"/>
-      <c r="K37" s="118"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="148"/>
+      <c r="D37" s="148"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="124" t="s">
+      <c r="A38" s="184" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="118"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="118"/>
-      <c r="E38" s="118"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="118"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="118"/>
-      <c r="J38" s="118"/>
-      <c r="K38" s="118"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="172" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="120"/>
-      <c r="C39" s="121"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="120"/>
       <c r="D39" s="39"/>
       <c r="E39" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="62"/>
-      <c r="G39" s="63"/>
-      <c r="H39" s="170" t="s">
+      <c r="F39" s="61"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="120"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="121"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="120"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="161" t="s">
+      <c r="A40" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="161" t="s">
+      <c r="B40" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="184" t="s">
+      <c r="C40" s="137" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="29"/>
@@ -2636,33 +2628,33 @@
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="42"/>
-      <c r="H40" s="134" t="s">
+      <c r="H40" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="134" t="s">
+      <c r="I40" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="134" t="s">
+      <c r="J40" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="K40" s="134" t="s">
+      <c r="K40" s="164" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="135"/>
-      <c r="B41" s="135"/>
-      <c r="C41" s="135"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
       <c r="D41" s="29"/>
       <c r="E41" s="41" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="41"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="135"/>
-      <c r="I41" s="135"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="135"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="186"/>
+      <c r="K41" s="138"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
@@ -2674,9 +2666,9 @@
       </c>
       <c r="F42" s="41"/>
       <c r="G42" s="42"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="65" t="str" cm="1">
+      <c r="H42" s="64"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="64" t="str" cm="1">
         <f t="array" ref="J42">_xlfn.IFS(
     H42="COCO BRG.-1", 480,
     H42="COCO BRG.-2", 420,
@@ -2705,7 +2697,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K42" s="102" t="str" cm="1">
+      <c r="K42" s="100" t="str" cm="1">
         <f t="array" ref="K42">IF(ISNUMBER(I42), _xlfn.IFS(
     H42="COCO BRG.-1", 480,
     H42="COCO BRG.-2", 420,
@@ -2747,7 +2739,7 @@
       <c r="G43" s="42"/>
       <c r="H43" s="45"/>
       <c r="I43" s="46"/>
-      <c r="J43" s="65" t="str" cm="1">
+      <c r="J43" s="64" t="str" cm="1">
         <f t="array" ref="J43">_xlfn.IFS(
     H43="COCO BRG.-1", 480,
     H43="COCO BRG.-2", 420,
@@ -2776,7 +2768,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K43" s="102" t="str" cm="1">
+      <c r="K43" s="100" t="str" cm="1">
         <f t="array" ref="K43">IF(ISNUMBER(I43), _xlfn.IFS(
     H43="COCO BRG.-1", 480,
     H43="COCO BRG.-2", 420,
@@ -2815,10 +2807,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="48"/>
-      <c r="G44" s="99"/>
+      <c r="G44" s="97"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
-      <c r="J44" s="65" t="str" cm="1">
+      <c r="J44" s="64" t="str" cm="1">
         <f t="array" ref="J44">_xlfn.IFS(
     H44="COCO BRG.-1", 480,
     H44="COCO BRG.-2", 420,
@@ -2847,7 +2839,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K44" s="102" t="str" cm="1">
+      <c r="K44" s="100" t="str" cm="1">
         <f t="array" ref="K44">IF(ISNUMBER(I44), _xlfn.IFS(
     H44="COCO BRG.-1", 480,
     H44="COCO BRG.-2", 420,
@@ -2882,14 +2874,14 @@
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="131" t="s">
+      <c r="E45" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="118"/>
-      <c r="G45" s="132"/>
+      <c r="F45" s="148"/>
+      <c r="G45" s="189"/>
       <c r="H45" s="51"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="65" t="str" cm="1">
+      <c r="J45" s="64" t="str" cm="1">
         <f t="array" ref="J45">_xlfn.IFS(
     H45="COCO BRG.-1", 480,
     H45="COCO BRG.-2", 420,
@@ -2918,7 +2910,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K45" s="102" t="str" cm="1">
+      <c r="K45" s="100" t="str" cm="1">
         <f t="array" ref="K45">IF(ISNUMBER(I45), _xlfn.IFS(
     H45="COCO BRG.-1", 480,
     H45="COCO BRG.-2", 420,
@@ -2963,7 +2955,7 @@
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="49"/>
-      <c r="K46" s="105"/>
+      <c r="K46" s="103"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="52"/>
@@ -2974,16 +2966,16 @@
         <v>43</v>
       </c>
       <c r="F47" s="48"/>
-      <c r="G47" s="99"/>
+      <c r="G47" s="97"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="49"/>
-      <c r="K47" s="105"/>
+      <c r="K47" s="103"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
-      <c r="B48" s="72"/>
-      <c r="C48" s="72"/>
+      <c r="B48" s="71"/>
+      <c r="C48" s="71"/>
       <c r="D48" s="29"/>
       <c r="E48" s="41" t="s">
         <v>45</v>
@@ -2995,7 +2987,7 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="49"/>
-      <c r="K48" s="105"/>
+      <c r="K48" s="103"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
@@ -3006,11 +2998,11 @@
         <v>46</v>
       </c>
       <c r="F49" s="53"/>
-      <c r="G49" s="99"/>
+      <c r="G49" s="97"/>
       <c r="H49" s="54"/>
       <c r="I49" s="31"/>
       <c r="J49" s="49"/>
-      <c r="K49" s="105"/>
+      <c r="K49" s="103"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
@@ -3021,24 +3013,24 @@
         <v>47</v>
       </c>
       <c r="F50" s="53"/>
-      <c r="G50" s="99"/>
+      <c r="G50" s="97"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="49"/>
-      <c r="K50" s="105"/>
+      <c r="K50" s="103"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="128"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="127"/>
+      <c r="E51" s="113"/>
+      <c r="F51" s="114"/>
+      <c r="G51" s="115"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="106"/>
+      <c r="K51" s="104"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
@@ -3051,11 +3043,11 @@
         <v>15</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="107"/>
-      <c r="H52" s="103"/>
-      <c r="I52" s="103"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="100" t="str">
+      <c r="K52" s="98" t="str">
         <f>IF(SUM(K42:K51)=0, "", MROUND(SUM(K42:K51), 10))</f>
         <v/>
       </c>
@@ -3074,58 +3066,58 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="120"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="100" t="str">
+      <c r="H53" s="140"/>
+      <c r="I53" s="119"/>
+      <c r="J53" s="120"/>
+      <c r="K53" s="98" t="str">
         <f>IF(SUM(K42:K51)=0, "", MROUND(SUM(K42:K51), 10))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="181"/>
-      <c r="B54" s="120"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="120"/>
-      <c r="I54" s="120"/>
-      <c r="J54" s="120"/>
-      <c r="K54" s="120"/>
+      <c r="A54" s="134"/>
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="119"/>
+      <c r="G54" s="119"/>
+      <c r="H54" s="119"/>
+      <c r="I54" s="119"/>
+      <c r="J54" s="119"/>
+      <c r="K54" s="119"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="167" t="s">
+      <c r="A55" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="129"/>
-      <c r="C55" s="129"/>
-      <c r="D55" s="129"/>
-      <c r="E55" s="129"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="129"/>
-      <c r="H55" s="129"/>
-      <c r="I55" s="129"/>
-      <c r="J55" s="129"/>
-      <c r="K55" s="129"/>
+      <c r="B55" s="114"/>
+      <c r="C55" s="114"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
+      <c r="F55" s="114"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="114"/>
+      <c r="I55" s="114"/>
+      <c r="J55" s="114"/>
+      <c r="K55" s="114"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="171" t="s">
+      <c r="A56" s="121" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="120"/>
-      <c r="C56" s="121"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="172" t="s">
+      <c r="B56" s="119"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="120"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="119"/>
+      <c r="H56" s="119"/>
+      <c r="I56" s="119"/>
+      <c r="J56" s="119"/>
+      <c r="K56" s="119"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3151,31 +3143,31 @@
       <c r="I57" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="182" t="s">
+      <c r="J57" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="183"/>
+      <c r="K57" s="136"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="19"/>
       <c r="C58" s="13"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="180"/>
-      <c r="F58" s="121"/>
-      <c r="G58" s="70"/>
-      <c r="H58" s="71"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="121"/>
+      <c r="E58" s="133"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="185"/>
+      <c r="K58" s="120"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="20"/>
-      <c r="E59" s="133"/>
-      <c r="F59" s="121"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="120"/>
       <c r="G59" s="21" t="s">
         <v>18</v>
       </c>
@@ -3185,18 +3177,18 @@
       <c r="I59" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="126"/>
-      <c r="K59" s="127"/>
+      <c r="J59" s="186"/>
+      <c r="K59" s="115"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="20"/>
-      <c r="E60" s="130" t="s">
+      <c r="E60" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="121"/>
+      <c r="F60" s="120"/>
       <c r="G60" s="21" t="s">
         <v>18</v>
       </c>
@@ -3206,8 +3198,8 @@
       <c r="I60" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="162"/>
-      <c r="K60" s="121"/>
+      <c r="J60" s="141"/>
+      <c r="K60" s="120"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3218,38 +3210,38 @@
         <v>13</v>
       </c>
       <c r="D61" s="20"/>
-      <c r="E61" s="130" t="s">
+      <c r="E61" s="187" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="121"/>
-      <c r="G61" s="69"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="68"/>
       <c r="H61" s="21" t="s">
         <v>18</v>
       </c>
       <c r="I61" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="122">
+      <c r="J61" s="183">
         <f>SUM(J58:K60)</f>
         <v>0</v>
       </c>
-      <c r="K61" s="121"/>
+      <c r="K61" s="120"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="128"/>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
-      <c r="I62" s="129"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="127"/>
+      <c r="A62" s="113"/>
+      <c r="B62" s="114"/>
+      <c r="C62" s="114"/>
+      <c r="D62" s="114"/>
+      <c r="E62" s="114"/>
+      <c r="F62" s="114"/>
+      <c r="G62" s="114"/>
+      <c r="H62" s="114"/>
+      <c r="I62" s="114"/>
+      <c r="J62" s="114"/>
+      <c r="K62" s="115"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -3259,28 +3251,94 @@
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G64" s="101" t="s">
+      <c r="G64" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="H64" s="108"/>
-      <c r="I64" s="109"/>
-      <c r="J64" s="109"/>
-      <c r="K64" s="110"/>
+      <c r="H64" s="174"/>
+      <c r="I64" s="175"/>
+      <c r="J64" s="175"/>
+      <c r="K64" s="176"/>
     </row>
     <row r="65" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H65" s="111"/>
-      <c r="I65" s="112"/>
-      <c r="J65" s="112"/>
-      <c r="K65" s="113"/>
+      <c r="H65" s="177"/>
+      <c r="I65" s="178"/>
+      <c r="J65" s="178"/>
+      <c r="K65" s="179"/>
     </row>
     <row r="66" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H66" s="114"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="116"/>
+      <c r="H66" s="180"/>
+      <c r="I66" s="181"/>
+      <c r="J66" s="181"/>
+      <c r="K66" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="H64:K66"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H40:H41"/>
     <mergeCell ref="A62:K62"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="H39:K39"/>
@@ -3297,72 +3355,6 @@
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="C40:C41"/>
     <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="H64:K66"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3377,7 +3369,7 @@
   </sheetPr>
   <dimension ref="A1:Y69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
@@ -3397,247 +3389,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="240" t="s">
+      <c r="A1" s="203" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="240"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="203"/>
+      <c r="E1" s="203"/>
+      <c r="F1" s="203"/>
+      <c r="G1" s="203"/>
+      <c r="H1" s="203"/>
+      <c r="I1" s="203"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="204" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
-      <c r="H2" s="221"/>
-      <c r="I2" s="221"/>
-      <c r="J2" s="221"/>
-      <c r="K2" s="221"/>
+      <c r="B2" s="204"/>
+      <c r="C2" s="204"/>
+      <c r="D2" s="204"/>
+      <c r="E2" s="204"/>
+      <c r="F2" s="204"/>
+      <c r="G2" s="204"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
+      <c r="K2" s="204"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="223" t="s">
+      <c r="A3" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="224"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="231" t="s">
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="196" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="75"/>
-      <c r="G3" s="237" t="s">
+      <c r="F3" s="74"/>
+      <c r="G3" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="238"/>
-      <c r="I3" s="238"/>
-      <c r="J3" s="239"/>
-      <c r="K3" s="233" t="s">
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="200"/>
+      <c r="K3" s="201" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="226"/>
-      <c r="B4" s="227"/>
-      <c r="C4" s="227"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77" t="s">
+      <c r="A4" s="193"/>
+      <c r="B4" s="194"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="77" t="s">
+      <c r="I4" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="77" t="s">
+      <c r="J4" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="234"/>
+      <c r="K4" s="202"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="215"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="217"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="89" t="s">
+      <c r="A5" s="205"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="207"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="88" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="74"/>
+      <c r="A6" s="205"/>
+      <c r="B6" s="206"/>
+      <c r="C6" s="206"/>
+      <c r="D6" s="207"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="215"/>
-      <c r="B7" s="216"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="74"/>
+      <c r="A7" s="205"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="75"/>
+      <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="218" t="s">
+      <c r="A8" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="218"/>
-      <c r="C8" s="218"/>
-      <c r="D8" s="218"/>
-      <c r="E8" s="218"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="218"/>
-      <c r="J8" s="218"/>
-      <c r="K8" s="79" t="s">
+      <c r="B8" s="208"/>
+      <c r="C8" s="208"/>
+      <c r="D8" s="208"/>
+      <c r="E8" s="208"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="78" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="241" t="s">
+      <c r="A9" s="209" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="241"/>
-      <c r="C9" s="241"/>
-      <c r="D9" s="241"/>
-      <c r="E9" s="241"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="241"/>
-      <c r="H9" s="241"/>
-      <c r="I9" s="241"/>
-      <c r="J9" s="241"/>
-      <c r="K9" s="241"/>
+      <c r="B9" s="209"/>
+      <c r="C9" s="209"/>
+      <c r="D9" s="209"/>
+      <c r="E9" s="209"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="209"/>
+      <c r="I9" s="209"/>
+      <c r="J9" s="209"/>
+      <c r="K9" s="209"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="223" t="s">
+      <c r="A10" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="224"/>
-      <c r="C10" s="224"/>
-      <c r="D10" s="225"/>
-      <c r="E10" s="231" t="s">
+      <c r="B10" s="191"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="196" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="237" t="s">
+      <c r="F10" s="74"/>
+      <c r="G10" s="198" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="238"/>
-      <c r="I10" s="238"/>
-      <c r="J10" s="239"/>
-      <c r="K10" s="233" t="s">
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="201" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="226"/>
-      <c r="B11" s="227"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77" t="s">
+      <c r="A11" s="193"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="76" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="77" t="s">
+      <c r="I11" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="77" t="s">
+      <c r="J11" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="234"/>
+      <c r="K11" s="202"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="215"/>
-      <c r="B12" s="216"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="89" t="s">
+      <c r="A12" s="205"/>
+      <c r="B12" s="206"/>
+      <c r="C12" s="206"/>
+      <c r="D12" s="207"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="88" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="215"/>
-      <c r="B13" s="216"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="74"/>
+      <c r="A13" s="205"/>
+      <c r="B13" s="206"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="207"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="73"/>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="215"/>
-      <c r="B14" s="216"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="74"/>
+      <c r="A14" s="205"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="207"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="73"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="218" t="s">
+      <c r="A15" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="218"/>
-      <c r="C15" s="218"/>
-      <c r="D15" s="218"/>
-      <c r="E15" s="218"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="218"/>
-      <c r="J15" s="218"/>
-      <c r="K15" s="90" t="s">
+      <c r="B15" s="208"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="208"/>
+      <c r="F15" s="208"/>
+      <c r="G15" s="208"/>
+      <c r="H15" s="208"/>
+      <c r="I15" s="208"/>
+      <c r="J15" s="208"/>
+      <c r="K15" s="89" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3655,235 +3647,235 @@
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="227" t="s">
+      <c r="A17" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="227"/>
-      <c r="C17" s="227"/>
-      <c r="D17" s="227"/>
-      <c r="E17" s="227"/>
-      <c r="F17" s="227"/>
-      <c r="G17" s="227"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="227"/>
-      <c r="J17" s="227"/>
-      <c r="K17" s="227"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="194"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="221" t="s">
+      <c r="A18" s="204" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="221"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="221"/>
+      <c r="B18" s="204"/>
+      <c r="C18" s="204"/>
+      <c r="D18" s="204"/>
+      <c r="E18" s="204"/>
+      <c r="F18" s="204"/>
+      <c r="G18" s="204"/>
+      <c r="H18" s="204"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="204"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="223" t="s">
+      <c r="A19" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="224"/>
-      <c r="C19" s="224"/>
-      <c r="D19" s="225"/>
-      <c r="E19" s="229" t="s">
+      <c r="B19" s="191"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="224"/>
-      <c r="G19" s="225"/>
-      <c r="H19" s="231" t="s">
+      <c r="F19" s="191"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="229" t="s">
+      <c r="I19" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="225"/>
-      <c r="K19" s="233" t="s">
+      <c r="J19" s="192"/>
+      <c r="K19" s="201" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="226"/>
-      <c r="B20" s="227"/>
-      <c r="C20" s="227"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="227"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="232"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="228"/>
-      <c r="K20" s="234"/>
+      <c r="A20" s="193"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="194"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="212"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="202"/>
     </row>
     <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="215"/>
-      <c r="B21" s="216"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="143"/>
-      <c r="F21" s="194"/>
-      <c r="G21" s="142"/>
+      <c r="A21" s="205"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="206"/>
+      <c r="D21" s="207"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="132"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="143"/>
-      <c r="J21" s="142"/>
-      <c r="K21" s="89" t="s">
+      <c r="I21" s="171"/>
+      <c r="J21" s="132"/>
+      <c r="K21" s="88" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="215"/>
-      <c r="B22" s="216"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="194"/>
-      <c r="G22" s="142"/>
+      <c r="A22" s="205"/>
+      <c r="B22" s="206"/>
+      <c r="C22" s="206"/>
+      <c r="D22" s="207"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="132"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="143"/>
-      <c r="J22" s="142"/>
-      <c r="K22" s="74"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="132"/>
+      <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="236"/>
+      <c r="A23" s="205"/>
+      <c r="B23" s="206"/>
+      <c r="C23" s="206"/>
+      <c r="D23" s="207"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="215"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="74"/>
+      <c r="I23" s="213"/>
+      <c r="J23" s="215"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="218" t="s">
+      <c r="A24" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="218"/>
-      <c r="C24" s="218"/>
-      <c r="D24" s="218"/>
-      <c r="E24" s="218"/>
-      <c r="F24" s="218"/>
-      <c r="G24" s="218"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="218"/>
-      <c r="J24" s="218"/>
-      <c r="K24" s="90" t="s">
+      <c r="B24" s="208"/>
+      <c r="C24" s="208"/>
+      <c r="D24" s="208"/>
+      <c r="E24" s="208"/>
+      <c r="F24" s="208"/>
+      <c r="G24" s="208"/>
+      <c r="H24" s="208"/>
+      <c r="I24" s="208"/>
+      <c r="J24" s="208"/>
+      <c r="K24" s="89" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="221" t="s">
+      <c r="A25" s="204" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="221"/>
-      <c r="C25" s="221"/>
-      <c r="D25" s="221"/>
-      <c r="E25" s="221"/>
-      <c r="F25" s="221"/>
-      <c r="G25" s="221"/>
-      <c r="H25" s="221"/>
-      <c r="I25" s="221"/>
-      <c r="J25" s="221"/>
-      <c r="K25" s="222"/>
+      <c r="B25" s="204"/>
+      <c r="C25" s="204"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="204"/>
+      <c r="H25" s="204"/>
+      <c r="I25" s="204"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="216"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="223" t="s">
+      <c r="A26" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="224"/>
-      <c r="C26" s="224"/>
-      <c r="D26" s="225"/>
-      <c r="E26" s="229" t="s">
+      <c r="B26" s="191"/>
+      <c r="C26" s="191"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="211" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="224"/>
-      <c r="G26" s="225"/>
-      <c r="H26" s="231" t="s">
+      <c r="F26" s="191"/>
+      <c r="G26" s="192"/>
+      <c r="H26" s="196" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="229" t="s">
+      <c r="I26" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="225"/>
-      <c r="K26" s="233" t="s">
+      <c r="J26" s="192"/>
+      <c r="K26" s="201" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="226"/>
-      <c r="B27" s="227"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="228"/>
-      <c r="E27" s="230"/>
-      <c r="F27" s="227"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="232"/>
-      <c r="I27" s="230"/>
-      <c r="J27" s="228"/>
-      <c r="K27" s="234"/>
+      <c r="A27" s="193"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="194"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="212"/>
+      <c r="F27" s="194"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="212"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="202"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="215"/>
-      <c r="B28" s="216"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="143"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="143"/>
-      <c r="J28" s="142"/>
-      <c r="K28" s="89" t="s">
+      <c r="A28" s="205"/>
+      <c r="B28" s="206"/>
+      <c r="C28" s="206"/>
+      <c r="D28" s="207"/>
+      <c r="E28" s="171"/>
+      <c r="F28" s="210"/>
+      <c r="G28" s="132"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="88" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="215"/>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="143"/>
-      <c r="F29" s="194"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="143"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="74"/>
+      <c r="A29" s="205"/>
+      <c r="B29" s="206"/>
+      <c r="C29" s="206"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="132"/>
+      <c r="H29" s="78"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="215"/>
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="194"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="78"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="142"/>
-      <c r="K30" s="74"/>
+      <c r="A30" s="205"/>
+      <c r="B30" s="206"/>
+      <c r="C30" s="206"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="171"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="132"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="73"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="218" t="s">
+      <c r="A31" s="208" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="218"/>
-      <c r="C31" s="218"/>
-      <c r="D31" s="218"/>
-      <c r="E31" s="218"/>
-      <c r="F31" s="218"/>
-      <c r="G31" s="218"/>
-      <c r="H31" s="218"/>
-      <c r="I31" s="218"/>
-      <c r="J31" s="218"/>
-      <c r="K31" s="90" t="s">
+      <c r="B31" s="208"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="208"/>
+      <c r="E31" s="208"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="208"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="89" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3901,97 +3893,97 @@
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="219" t="s">
+      <c r="A33" s="218" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="220"/>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="220"/>
+      <c r="B33" s="219"/>
+      <c r="C33" s="219"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="219"/>
+      <c r="F33" s="219"/>
+      <c r="G33" s="219"/>
+      <c r="H33" s="219"/>
+      <c r="I33" s="219"/>
+      <c r="J33" s="219"/>
+      <c r="K33" s="219"/>
     </row>
     <row r="34" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="209" t="s">
+      <c r="A34" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="209"/>
-      <c r="C34" s="209"/>
-      <c r="D34" s="209"/>
-      <c r="E34" s="209"/>
-      <c r="F34" s="209"/>
-      <c r="G34" s="209"/>
-      <c r="H34" s="209"/>
-      <c r="I34" s="209"/>
-      <c r="J34" s="209"/>
-      <c r="K34" s="209"/>
+      <c r="B34" s="217"/>
+      <c r="C34" s="217"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="217"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="217"/>
+      <c r="K34" s="217"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="209" t="s">
+      <c r="A35" s="217" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="209"/>
-      <c r="C35" s="209"/>
-      <c r="D35" s="209"/>
-      <c r="E35" s="209"/>
-      <c r="F35" s="209"/>
-      <c r="G35" s="209"/>
-      <c r="H35" s="209"/>
-      <c r="I35" s="209"/>
-      <c r="J35" s="209"/>
-      <c r="K35" s="210"/>
+      <c r="B35" s="217"/>
+      <c r="C35" s="217"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="217"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="217"/>
+      <c r="I35" s="217"/>
+      <c r="J35" s="217"/>
+      <c r="K35" s="221"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="83" t="s">
+      <c r="C36" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
-      <c r="G36" s="211"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="251"/>
-      <c r="K36" s="251"/>
+      <c r="D36" s="222"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="222"/>
+      <c r="G36" s="222"/>
+      <c r="H36" s="222"/>
+      <c r="I36" s="91"/>
+      <c r="J36" s="226"/>
+      <c r="K36" s="226"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="81" t="s">
+      <c r="C37" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="24"/>
-      <c r="E37" s="194"/>
-      <c r="F37" s="194"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="194"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="250"/>
-      <c r="K37" s="250"/>
+      <c r="E37" s="210"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="227"/>
+      <c r="K37" s="227"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
-      <c r="C38" s="212" t="s">
+      <c r="C38" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="212"/>
-      <c r="E38" s="212"/>
+      <c r="D38" s="223"/>
+      <c r="E38" s="223"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="194"/>
-      <c r="H38" s="194"/>
-      <c r="I38" s="92"/>
-      <c r="J38" s="250" t="str">
+      <c r="G38" s="210"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="227" t="str">
         <f>IF(SUM(J36:K37)=0, "", MROUND(SUM(J36:K37), 10))</f>
         <v/>
       </c>
-      <c r="K38" s="250"/>
+      <c r="K38" s="227"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
@@ -4002,8 +3994,8 @@
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="78"/>
-      <c r="J39" s="78"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4015,10 +4007,10 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="213" t="s">
+      <c r="I40" s="224" t="s">
         <v>80</v>
       </c>
-      <c r="J40" s="202"/>
+      <c r="J40" s="225"/>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4028,59 +4020,59 @@
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="82" t="s">
+      <c r="G41" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="200"/>
-      <c r="I41" s="200"/>
-      <c r="J41" s="200"/>
+      <c r="H41" s="214"/>
+      <c r="I41" s="214"/>
+      <c r="J41" s="214"/>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="214" t="s">
+      <c r="A42" s="228" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="214"/>
-      <c r="C42" s="214"/>
-      <c r="D42" s="214"/>
-      <c r="E42" s="214"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
-      <c r="H42" s="214"/>
-      <c r="I42" s="214"/>
-      <c r="J42" s="214"/>
-      <c r="K42" s="214"/>
+      <c r="B42" s="228"/>
+      <c r="C42" s="228"/>
+      <c r="D42" s="228"/>
+      <c r="E42" s="228"/>
+      <c r="F42" s="228"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="228"/>
+      <c r="J42" s="228"/>
+      <c r="K42" s="228"/>
       <c r="L42" s="24"/>
     </row>
     <row r="43" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="123" t="s">
+      <c r="A43" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="123"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="123"/>
-      <c r="E43" s="123"/>
-      <c r="F43" s="123"/>
-      <c r="G43" s="123"/>
-      <c r="H43" s="123"/>
-      <c r="I43" s="123"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="123"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="165"/>
+      <c r="F43" s="165"/>
+      <c r="G43" s="165"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="165"/>
+      <c r="K43" s="165"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="123" t="s">
+      <c r="A44" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="123"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
-      <c r="F44" s="123"/>
-      <c r="G44" s="123"/>
-      <c r="H44" s="123"/>
-      <c r="I44" s="123"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="123"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="165"/>
+      <c r="F44" s="165"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="165"/>
+      <c r="K44" s="165"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
@@ -4091,10 +4083,10 @@
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="196" t="s">
+      <c r="I45" s="229" t="s">
         <v>86</v>
       </c>
-      <c r="J45" s="196"/>
+      <c r="J45" s="229"/>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4105,45 +4097,45 @@
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="208" t="s">
+      <c r="H46" s="220" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="208"/>
-      <c r="J46" s="208"/>
-      <c r="K46" s="208"/>
+      <c r="I46" s="220"/>
+      <c r="J46" s="220"/>
+      <c r="K46" s="220"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="201" t="s">
+      <c r="A47" s="231" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="201"/>
-      <c r="C47" s="201"/>
-      <c r="D47" s="201"/>
-      <c r="E47" s="201"/>
+      <c r="B47" s="231"/>
+      <c r="C47" s="231"/>
+      <c r="D47" s="231"/>
+      <c r="E47" s="231"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
+      <c r="I47" s="72"/>
+      <c r="J47" s="72"/>
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="201" t="s">
+      <c r="A48" s="231" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="201"/>
-      <c r="C48" s="201"/>
-      <c r="D48" s="201"/>
-      <c r="E48" s="201"/>
+      <c r="B48" s="231"/>
+      <c r="C48" s="231"/>
+      <c r="D48" s="231"/>
+      <c r="E48" s="231"/>
       <c r="F48" s="24" t="s">
         <v>88</v>
       </c>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="202" t="s">
+      <c r="I48" s="225" t="s">
         <v>90</v>
       </c>
-      <c r="J48" s="202"/>
+      <c r="J48" s="225"/>
       <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4153,64 +4145,64 @@
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="82" t="s">
+      <c r="G49" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="H49" s="196"/>
-      <c r="I49" s="196"/>
-      <c r="J49" s="196"/>
+      <c r="H49" s="229"/>
+      <c r="I49" s="229"/>
+      <c r="J49" s="229"/>
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="203" t="s">
+      <c r="A50" s="232" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="204"/>
-      <c r="C50" s="204"/>
-      <c r="D50" s="204"/>
-      <c r="E50" s="204"/>
-      <c r="F50" s="204"/>
-      <c r="G50" s="204"/>
-      <c r="H50" s="204"/>
-      <c r="I50" s="204"/>
-      <c r="J50" s="204"/>
-      <c r="K50" s="205"/>
+      <c r="B50" s="233"/>
+      <c r="C50" s="233"/>
+      <c r="D50" s="233"/>
+      <c r="E50" s="233"/>
+      <c r="F50" s="233"/>
+      <c r="G50" s="233"/>
+      <c r="H50" s="233"/>
+      <c r="I50" s="233"/>
+      <c r="J50" s="233"/>
+      <c r="K50" s="234"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="206" t="s">
+      <c r="A51" s="235" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="123"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="123"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="123"/>
-      <c r="G51" s="123"/>
-      <c r="H51" s="123"/>
-      <c r="I51" s="123"/>
-      <c r="J51" s="123"/>
-      <c r="K51" s="207"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="165"/>
+      <c r="F51" s="165"/>
+      <c r="G51" s="165"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="165"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="236"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="195" t="s">
+      <c r="A52" s="238" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="196"/>
-      <c r="C52" s="196"/>
-      <c r="D52" s="196"/>
-      <c r="E52" s="196"/>
-      <c r="F52" s="196"/>
-      <c r="G52" s="196"/>
-      <c r="H52" s="196"/>
-      <c r="I52" s="196"/>
-      <c r="J52" s="196"/>
-      <c r="K52" s="197"/>
+      <c r="B52" s="229"/>
+      <c r="C52" s="229"/>
+      <c r="D52" s="229"/>
+      <c r="E52" s="229"/>
+      <c r="F52" s="229"/>
+      <c r="G52" s="229"/>
+      <c r="H52" s="229"/>
+      <c r="I52" s="229"/>
+      <c r="J52" s="229"/>
+      <c r="K52" s="239"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="198" t="s">
+      <c r="A53" s="240" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="198"/>
+      <c r="B53" s="240"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27" t="s">
         <v>94</v>
@@ -4221,170 +4213,170 @@
         <v>19</v>
       </c>
       <c r="H53" s="27"/>
-      <c r="I53" s="78" t="s">
+      <c r="I53" s="77" t="s">
         <v>96</v>
       </c>
       <c r="J53" s="24"/>
-      <c r="K53" s="86" t="s">
+      <c r="K53" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="M53" s="199"/>
-      <c r="N53" s="199"/>
+      <c r="M53" s="230"/>
+      <c r="N53" s="230"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
-      <c r="R53" s="199"/>
-      <c r="S53" s="199"/>
+      <c r="R53" s="230"/>
+      <c r="S53" s="230"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
       <c r="V53" s="24"/>
       <c r="W53" s="24"/>
       <c r="X53" s="24"/>
-      <c r="Y53" s="85"/>
+      <c r="Y53" s="84"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="140"/>
-      <c r="B54" s="140"/>
+      <c r="A54" s="169"/>
+      <c r="B54" s="169"/>
       <c r="C54" s="24"/>
-      <c r="D54" s="104"/>
+      <c r="D54" s="102"/>
       <c r="E54" s="28"/>
       <c r="F54" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="244"/>
+      <c r="G54" s="107"/>
       <c r="H54" s="27"/>
-      <c r="I54" s="246"/>
+      <c r="I54" s="109"/>
       <c r="J54" s="24"/>
-      <c r="K54" s="244"/>
+      <c r="K54" s="107"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="242"/>
-      <c r="B55" s="242"/>
+      <c r="A55" s="237"/>
+      <c r="B55" s="237"/>
       <c r="C55" s="24"/>
-      <c r="D55" s="243"/>
+      <c r="D55" s="106"/>
       <c r="E55" s="28"/>
       <c r="F55" s="24"/>
-      <c r="G55" s="244"/>
+      <c r="G55" s="107"/>
       <c r="H55" s="27"/>
-      <c r="I55" s="245"/>
+      <c r="I55" s="108"/>
       <c r="J55" s="24"/>
-      <c r="K55" s="244"/>
+      <c r="K55" s="107"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="242"/>
-      <c r="B56" s="242"/>
+      <c r="A56" s="237"/>
+      <c r="B56" s="237"/>
       <c r="C56" s="24"/>
-      <c r="D56" s="91"/>
+      <c r="D56" s="90"/>
       <c r="E56" s="28"/>
       <c r="F56" s="24"/>
-      <c r="G56" s="244"/>
+      <c r="G56" s="107"/>
       <c r="H56" s="27"/>
-      <c r="I56" s="246"/>
+      <c r="I56" s="109"/>
       <c r="J56" s="24"/>
-      <c r="K56" s="244"/>
+      <c r="K56" s="107"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="242"/>
-      <c r="B57" s="242"/>
+      <c r="A57" s="237"/>
+      <c r="B57" s="237"/>
       <c r="C57" s="24"/>
-      <c r="D57" s="91"/>
+      <c r="D57" s="90"/>
       <c r="E57" s="28"/>
       <c r="F57" s="24"/>
-      <c r="G57" s="244"/>
+      <c r="G57" s="107"/>
       <c r="H57" s="27"/>
-      <c r="I57" s="245"/>
+      <c r="I57" s="108"/>
       <c r="J57" s="24"/>
-      <c r="K57" s="244"/>
+      <c r="K57" s="107"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E58" s="249" t="s">
+      <c r="E58" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="247" t="str">
+      <c r="G58" s="110" t="str">
         <f>IF(SUM(G54:G57)=0, "", MROUND(SUM(G54:G57), 10))</f>
         <v/>
       </c>
-      <c r="H58" s="123"/>
-      <c r="I58" s="123"/>
-      <c r="J58" s="248" t="s">
+      <c r="H58" s="165"/>
+      <c r="I58" s="165"/>
+      <c r="J58" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="247" t="str">
+      <c r="K58" s="110" t="str">
         <f>IF(SUM(K54:K57)=0, "", MROUND(SUM(K54:K57), 10))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="190" t="s">
+      <c r="A59" s="241" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="190"/>
-      <c r="C59" s="190"/>
-      <c r="D59" s="188"/>
-      <c r="E59" s="188"/>
-      <c r="F59" s="188"/>
-      <c r="G59" s="188"/>
-      <c r="H59" s="188"/>
-      <c r="I59" s="188"/>
-      <c r="J59" s="188"/>
-      <c r="K59" s="188"/>
+      <c r="B59" s="241"/>
+      <c r="C59" s="241"/>
+      <c r="D59" s="242"/>
+      <c r="E59" s="242"/>
+      <c r="F59" s="242"/>
+      <c r="G59" s="242"/>
+      <c r="H59" s="242"/>
+      <c r="I59" s="242"/>
+      <c r="J59" s="242"/>
+      <c r="K59" s="242"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>100</v>
       </c>
-      <c r="H60" s="117" t="s">
+      <c r="H60" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="I60" s="191"/>
+      <c r="I60" s="243"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="192"/>
-      <c r="B61" s="193"/>
-      <c r="C61" s="193"/>
+      <c r="A61" s="244"/>
+      <c r="B61" s="245"/>
+      <c r="C61" s="245"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
-      <c r="I61" s="193"/>
-      <c r="J61" s="193"/>
-      <c r="K61" s="85"/>
+      <c r="I61" s="245"/>
+      <c r="J61" s="245"/>
+      <c r="K61" s="84"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="185" t="s">
+      <c r="A62" s="246" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="186"/>
-      <c r="C62" s="186"/>
+      <c r="B62" s="247"/>
+      <c r="C62" s="247"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
-      <c r="I62" s="187" t="s">
+      <c r="I62" s="248" t="s">
         <v>101</v>
       </c>
-      <c r="J62" s="186"/>
-      <c r="K62" s="85"/>
+      <c r="J62" s="247"/>
+      <c r="K62" s="84"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="84"/>
+      <c r="A63" s="83"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
-      <c r="H63" s="87" t="s">
+      <c r="H63" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="I63" s="188"/>
-      <c r="J63" s="188"/>
-      <c r="K63" s="85"/>
+      <c r="I63" s="242"/>
+      <c r="J63" s="242"/>
+      <c r="K63" s="84"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
+      <c r="A64" s="83"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
@@ -4392,11 +4384,11 @@
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
-      <c r="I64" s="187" t="s">
+      <c r="I64" s="248" t="s">
         <v>103</v>
       </c>
-      <c r="J64" s="187"/>
-      <c r="K64" s="85"/>
+      <c r="J64" s="248"/>
+      <c r="K64" s="84"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
@@ -4406,25 +4398,25 @@
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
-      <c r="H65" s="87" t="s">
+      <c r="H65" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="189"/>
-      <c r="J65" s="189"/>
+      <c r="I65" s="249"/>
+      <c r="J65" s="249"/>
       <c r="K65" s="24"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="88"/>
-      <c r="B66" s="88"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="88"/>
-      <c r="E66" s="88"/>
-      <c r="F66" s="88"/>
-      <c r="G66" s="88"/>
-      <c r="H66" s="88"/>
-      <c r="I66" s="88"/>
-      <c r="J66" s="88"/>
-      <c r="K66" s="88"/>
+      <c r="A66" s="87"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="87"/>
     </row>
     <row r="67" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A67" s="24"/>
@@ -4467,6 +4459,85 @@
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:K59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:K20"/>
     <mergeCell ref="A10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:J10"/>
@@ -4482,85 +4553,6 @@
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A8:J8"/>
     <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:K59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/python/templates/UNIRRIG_Template.xlsx
+++ b/backend/python/templates/UNIRRIG_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Videos\FAAS SYSTEM\backend\python\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3AE2FD1-8C87-4637-AAD4-4CE41B1E138A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254A8FD-DD42-48F9-A665-D268C05EB6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09F85F88-7F48-4E0A-B303-28052CF036CC}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$K$66</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$K$66</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$K$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
   <si>
     <t>RPA Form No. 1</t>
   </si>
@@ -394,6 +394,33 @@
   </si>
   <si>
     <t>Note:</t>
+  </si>
+  <si>
+    <t>THIS DECLARATION CANCELS TAX NOS.</t>
+  </si>
+  <si>
+    <t>: IS CANCELLED BY</t>
+  </si>
+  <si>
+    <t>TAX UNDER THIS DECLARATION BEGINS WITH THE</t>
+  </si>
+  <si>
+    <t>TAX NOS.___________________________________________________________________________</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>PREVIOUS OWNER</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>PREVIOUS ASSESSED VALUE:   LAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     IMPROVEMENT</t>
   </si>
 </sst>
 </file>
@@ -407,7 +434,7 @@
     <numFmt numFmtId="166" formatCode="[$₱-3409]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +562,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -544,7 +578,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="41">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -765,26 +799,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -938,28 +952,8 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color theme="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -992,21 +986,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="255">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1183,11 +1179,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1200,18 +1192,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="14"/>
     </xf>
@@ -1247,16 +1234,53 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1336,6 +1360,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1381,9 +1408,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1411,33 +1435,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1457,83 +1454,101 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1573,74 +1588,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1659,6 +1626,215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>505558</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>181415</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>783983</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>36634</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3F6F120-A1DE-2AFA-CF33-D535F4C2217D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1846385" y="12776396"/>
+          <a:ext cx="791310" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>166761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398319</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5113A575-354D-8252-D392-69F57623B927}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="13155397"/>
+          <a:ext cx="398318" cy="45719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>481445</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>158968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>714374</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>30307</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8238500-ECE6-444A-BFF0-DA6FA197B6A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1823604" y="13147604"/>
+          <a:ext cx="748145" cy="61839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1963,8 +2139,8 @@
   </sheetPr>
   <dimension ref="A3:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29:K29"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64:K66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1983,32 +2159,32 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="147" t="s">
+      <c r="H3" s="158" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="148"/>
-      <c r="J3" s="149"/>
-      <c r="K3" s="114"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="124"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="148"/>
-      <c r="C4" s="148"/>
-      <c r="D4" s="148"/>
-      <c r="E4" s="148"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="153" t="s">
+      <c r="A5" s="164" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="114"/>
-      <c r="E5" s="114"/>
-      <c r="F5" s="114"/>
-      <c r="G5" s="114"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -2019,158 +2195,158 @@
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="172" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="148"/>
-      <c r="H7" s="148"/>
-      <c r="I7" s="148"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
-      <c r="H8" s="148"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="148"/>
-      <c r="K8" s="148"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="159"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
+      <c r="K8" s="159"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="149"/>
-      <c r="C11" s="114"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="114"/>
-      <c r="H11" s="149"/>
-      <c r="I11" s="114"/>
-      <c r="J11" s="114"/>
-      <c r="K11" s="114"/>
+      <c r="B11" s="160"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="148"/>
-      <c r="C12" s="148"/>
-      <c r="D12" s="148"/>
-      <c r="E12" s="148"/>
-      <c r="F12" s="148"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="148"/>
-      <c r="I12" s="148"/>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="159"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="149"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="149"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
+      <c r="B13" s="160"/>
+      <c r="C13" s="124"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
+      <c r="H13" s="160"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="124"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="163" t="s">
+      <c r="A14" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="148"/>
-      <c r="C14" s="148"/>
-      <c r="D14" s="148"/>
-      <c r="E14" s="148"/>
-      <c r="F14" s="148"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="148"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="148"/>
-      <c r="K14" s="148"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="148"/>
-      <c r="K16" s="148"/>
+      <c r="B16" s="159"/>
+      <c r="C16" s="159"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="159"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="159"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="165" t="s">
+      <c r="A17" s="175" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="148"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="124"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="114"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
+      <c r="G17" s="179"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="179"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="124"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="150" t="s">
+      <c r="C18" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="148"/>
-      <c r="E18" s="148"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="150" t="s">
+      <c r="G18" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="148"/>
-      <c r="I18" s="150" t="s">
+      <c r="H18" s="159"/>
+      <c r="I18" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="148"/>
-      <c r="K18" s="148"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="165" t="s">
+      <c r="A19" s="175" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="148"/>
-      <c r="C19" s="158"/>
-      <c r="D19" s="159"/>
-      <c r="E19" s="159"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="170"/>
+      <c r="E19" s="170"/>
       <c r="F19" s="22"/>
       <c r="G19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
       <c r="J19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="92"/>
+      <c r="K19" s="87"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="56" t="s">
@@ -2184,104 +2360,104 @@
       <c r="G20" s="56"/>
       <c r="H20" s="56"/>
       <c r="I20" s="56"/>
-      <c r="J20" s="93" t="s">
+      <c r="J20" s="88" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="94"/>
+      <c r="K20" s="89"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="156"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="114"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="124"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="124"/>
       <c r="H21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="156"/>
-      <c r="J21" s="114"/>
-      <c r="K21" s="114"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="124"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
-      <c r="G22" s="119"/>
+      <c r="B22" s="168"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="129"/>
+      <c r="E22" s="129"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="129"/>
       <c r="H22" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="157"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="129"/>
+      <c r="K22" s="129"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="173" t="s">
+      <c r="A23" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="148"/>
-      <c r="C23" s="148"/>
-      <c r="D23" s="148"/>
-      <c r="E23" s="148"/>
-      <c r="F23" s="148"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="148"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="148"/>
-      <c r="K23" s="148"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="159"/>
+      <c r="D23" s="159"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="159"/>
+      <c r="G23" s="159"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="159"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="151"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
-      <c r="J24" s="114"/>
-      <c r="K24" s="114"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="116" t="s">
+      <c r="A25" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="117"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="171" t="s">
+      <c r="E26" s="181" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -2294,10 +2470,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="57"/>
-      <c r="E27" s="125" t="s">
+      <c r="E27" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="120"/>
+      <c r="F27" s="130"/>
       <c r="G27" s="58" t="s">
         <v>7</v>
       </c>
@@ -2307,21 +2483,21 @@
       <c r="I27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="170" t="s">
+      <c r="J27" s="180" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="120"/>
+      <c r="K27" s="130"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="251"/>
+      <c r="E28" s="136"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="107"/>
       <c r="H28" s="59"/>
-      <c r="I28" s="95" t="str">
+      <c r="I28" s="90" t="str">
         <f t="array" ref="I28">_xlfn.IFS(
     E28="COMMERCIAL", _xlfn.IFS(H28="C-1",1400, H28="C-2",1030, H28="C-3",850, H28="C-4",720, TRUE, ""),
     E28="RESIDENTIAL", _xlfn.IFS(H28="R-1",760, H28="R-2",610, H28="R-3",470, H28="R-4",280, H28="R-5",200, TRUE, ""),
@@ -2338,22 +2514,22 @@
 )</f>
         <v/>
       </c>
-      <c r="J28" s="123" t="str">
+      <c r="J28" s="133" t="str">
         <f>IFERROR(IF(MROUND(G28*I28,10)=0, "", MROUND(G28*I28,10)), "")</f>
         <v/>
       </c>
-      <c r="K28" s="124"/>
+      <c r="K28" s="134"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="252"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="108"/>
       <c r="H29" s="60"/>
-      <c r="I29" s="95" t="str">
+      <c r="I29" s="90" t="str">
         <f t="array" ref="I29">_xlfn.IFS(
     E29="COMMERCIAL", _xlfn.IFS(H29="C-1",1400, H29="C-2",1030, H29="C-3",850, H29="C-4",720, TRUE, ""),
     E29="RESIDENTIAL", _xlfn.IFS(H29="R-1",760, H29="R-2",610, H29="R-3",470, H29="R-4",280, H29="R-5",200, TRUE, ""),
@@ -2370,22 +2546,22 @@
 )</f>
         <v/>
       </c>
-      <c r="J29" s="123" t="str">
+      <c r="J29" s="133" t="str">
         <f t="shared" ref="J29:J31" si="0">IFERROR(IF(MROUND(G29*I29,10)=0, "", MROUND(G29*I29,10)), "")</f>
         <v/>
       </c>
-      <c r="K29" s="124"/>
+      <c r="K29" s="134"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="130"/>
-      <c r="F30" s="131"/>
-      <c r="G30" s="253"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="95" t="str">
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="109"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="90" t="str">
         <f t="array" ref="I30">_xlfn.IFS(
     E30="COMMERCIAL", _xlfn.IFS(H30="C-1",1400, H30="C-2",1030, H30="C-3",850, H30="C-4",720, TRUE, ""),
     E30="RESIDENTIAL", _xlfn.IFS(H30="R-1",760, H30="R-2",610, H30="R-3",470, H30="R-4",280, H30="R-5",200, TRUE, ""),
@@ -2402,40 +2578,40 @@
 )</f>
         <v/>
       </c>
-      <c r="J30" s="123" t="str">
+      <c r="J30" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K30" s="124"/>
+      <c r="K30" s="134"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="254"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="110"/>
       <c r="H31" s="33"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="123" t="str">
+      <c r="I31" s="90"/>
+      <c r="J31" s="133" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K31" s="124"/>
+      <c r="K31" s="134"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="254"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="110"/>
       <c r="H32" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="95" t="str">
+      <c r="I32" s="90" t="str">
         <f t="array" ref="I32">_xlfn.IFS(
     E32="COMMERCIAL", _xlfn.IFS(H32="C-1",1400, H32="C-2",1030, H32="C-3",850, H32="C-4",720, TRUE, ""),
     E32="RESIDENTIAL", _xlfn.IFS(H32="R-1",760, H32="R-2",610, H32="R-3",470, H32="R-4",280, H32="R-5",200, TRUE, ""),
@@ -2452,24 +2628,24 @@
 )</f>
         <v/>
       </c>
-      <c r="J32" s="142" t="str">
-        <f t="shared" ref="J28:J34" si="1">IFERROR(MROUND(G32*I32,10),"")</f>
+      <c r="J32" s="152" t="str">
+        <f t="shared" ref="J32:J34" si="1">IFERROR(MROUND(G32*I32,10),"")</f>
         <v/>
       </c>
-      <c r="K32" s="120"/>
+      <c r="K32" s="130"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="120"/>
-      <c r="G33" s="254"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="110"/>
       <c r="H33" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="95" t="str">
+      <c r="I33" s="90" t="str">
         <f t="array" ref="I33">_xlfn.IFS(
     E33="COMMERCIAL", _xlfn.IFS(H33="C-1",1400, H33="C-2",1030, H33="C-3",850, H33="C-4",720, TRUE, ""),
     E33="RESIDENTIAL", _xlfn.IFS(H33="R-1",760, H33="R-2",610, H33="R-3",470, H33="R-4",280, H33="R-5",200, TRUE, ""),
@@ -2486,24 +2662,24 @@
 )</f>
         <v/>
       </c>
-      <c r="J33" s="142" t="str">
+      <c r="J33" s="152" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K33" s="120"/>
+      <c r="K33" s="130"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="132"/>
-      <c r="F34" s="120"/>
-      <c r="G34" s="250"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="130"/>
+      <c r="G34" s="106"/>
       <c r="H34" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="95" t="str">
+      <c r="I34" s="90" t="str">
         <f t="array" ref="I34">_xlfn.IFS(
     E34="COMMERCIAL", _xlfn.IFS(H34="C-1",1400, H34="C-2",1030, H34="C-3",850, H34="C-4",720, TRUE, ""),
     E34="RESIDENTIAL", _xlfn.IFS(H34="R-1",760, H34="R-2",610, H34="R-3",470, H34="R-4",280, H34="R-5",200, TRUE, ""),
@@ -2520,29 +2696,29 @@
 )</f>
         <v/>
       </c>
-      <c r="J34" s="142" t="str">
+      <c r="J34" s="152" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K34" s="120"/>
+      <c r="K34" s="130"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="145" t="s">
+      <c r="E35" s="155" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="120"/>
+      <c r="F35" s="130"/>
       <c r="G35" s="32"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="167" t="str">
+      <c r="J35" s="177" t="str">
         <f>IF(SUM(J28:K34)=0, "", MROUND(SUM(J28:K34), 10))</f>
         <v/>
       </c>
-      <c r="K35" s="168"/>
+      <c r="K35" s="178"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
@@ -2553,73 +2729,73 @@
         <v>13</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="E36" s="145" t="s">
+      <c r="E36" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="119"/>
-      <c r="G36" s="119"/>
-      <c r="H36" s="119"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="144"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="153"/>
+      <c r="K36" s="154"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="165" t="s">
+      <c r="A37" s="175" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
-      <c r="D37" s="148"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="148"/>
-      <c r="K37" s="148"/>
+      <c r="B37" s="159"/>
+      <c r="C37" s="159"/>
+      <c r="D37" s="159"/>
+      <c r="E37" s="159"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="159"/>
+      <c r="K37" s="159"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="184" t="s">
+      <c r="A38" s="185" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="148"/>
-      <c r="E38" s="148"/>
-      <c r="F38" s="148"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="148"/>
-      <c r="K38" s="148"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="172" t="s">
+      <c r="A39" s="182" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="119"/>
-      <c r="C39" s="120"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="39"/>
       <c r="E39" s="34" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="61"/>
       <c r="G39" s="62"/>
-      <c r="H39" s="118" t="s">
+      <c r="H39" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="119"/>
-      <c r="J39" s="119"/>
-      <c r="K39" s="120"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="130"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="139" t="s">
+      <c r="A40" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="139" t="s">
+      <c r="B40" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="137" t="s">
+      <c r="C40" s="147" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="29"/>
@@ -2628,33 +2804,33 @@
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="42"/>
-      <c r="H40" s="164" t="s">
+      <c r="H40" s="157" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="164" t="s">
+      <c r="I40" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="164" t="s">
+      <c r="J40" s="157" t="s">
         <v>109</v>
       </c>
-      <c r="K40" s="164" t="s">
+      <c r="K40" s="157" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="138"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
+      <c r="A41" s="148"/>
+      <c r="B41" s="148"/>
+      <c r="C41" s="148"/>
       <c r="D41" s="29"/>
       <c r="E41" s="41" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="63"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="138"/>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="187"/>
+      <c r="K41" s="148"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
@@ -2697,7 +2873,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K42" s="100" t="str" cm="1">
+      <c r="K42" s="95" t="str" cm="1">
         <f t="array" ref="K42">IF(ISNUMBER(I42), _xlfn.IFS(
     H42="COCO BRG.-1", 480,
     H42="COCO BRG.-2", 420,
@@ -2768,7 +2944,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K43" s="100" t="str" cm="1">
+      <c r="K43" s="95" t="str" cm="1">
         <f t="array" ref="K43">IF(ISNUMBER(I43), _xlfn.IFS(
     H43="COCO BRG.-1", 480,
     H43="COCO BRG.-2", 420,
@@ -2807,7 +2983,7 @@
         <v>39</v>
       </c>
       <c r="F44" s="48"/>
-      <c r="G44" s="97"/>
+      <c r="G44" s="92"/>
       <c r="H44" s="31"/>
       <c r="I44" s="31"/>
       <c r="J44" s="64" t="str" cm="1">
@@ -2839,7 +3015,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K44" s="100" t="str" cm="1">
+      <c r="K44" s="95" t="str" cm="1">
         <f t="array" ref="K44">IF(ISNUMBER(I44), _xlfn.IFS(
     H44="COCO BRG.-1", 480,
     H44="COCO BRG.-2", 420,
@@ -2874,11 +3050,11 @@
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="188" t="s">
+      <c r="E45" s="189" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="148"/>
-      <c r="G45" s="189"/>
+      <c r="F45" s="159"/>
+      <c r="G45" s="190"/>
       <c r="H45" s="51"/>
       <c r="I45" s="35"/>
       <c r="J45" s="64" t="str" cm="1">
@@ -2910,7 +3086,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K45" s="100" t="str" cm="1">
+      <c r="K45" s="95" t="str" cm="1">
         <f t="array" ref="K45">IF(ISNUMBER(I45), _xlfn.IFS(
     H45="COCO BRG.-1", 480,
     H45="COCO BRG.-2", 420,
@@ -2955,7 +3131,7 @@
       <c r="H46" s="31"/>
       <c r="I46" s="31"/>
       <c r="J46" s="49"/>
-      <c r="K46" s="103"/>
+      <c r="K46" s="98"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="52"/>
@@ -2966,11 +3142,11 @@
         <v>43</v>
       </c>
       <c r="F47" s="48"/>
-      <c r="G47" s="97"/>
+      <c r="G47" s="92"/>
       <c r="H47" s="31"/>
       <c r="I47" s="31"/>
       <c r="J47" s="49"/>
-      <c r="K47" s="103"/>
+      <c r="K47" s="98"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="47"/>
@@ -2987,7 +3163,7 @@
       <c r="H48" s="31"/>
       <c r="I48" s="31"/>
       <c r="J48" s="49"/>
-      <c r="K48" s="103"/>
+      <c r="K48" s="98"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="47"/>
@@ -2998,11 +3174,11 @@
         <v>46</v>
       </c>
       <c r="F49" s="53"/>
-      <c r="G49" s="97"/>
+      <c r="G49" s="92"/>
       <c r="H49" s="54"/>
       <c r="I49" s="31"/>
       <c r="J49" s="49"/>
-      <c r="K49" s="103"/>
+      <c r="K49" s="98"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="52"/>
@@ -3013,24 +3189,24 @@
         <v>47</v>
       </c>
       <c r="F50" s="53"/>
-      <c r="G50" s="97"/>
+      <c r="G50" s="92"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31"/>
       <c r="J50" s="49"/>
-      <c r="K50" s="103"/>
+      <c r="K50" s="98"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="16"/>
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="113"/>
-      <c r="F51" s="114"/>
-      <c r="G51" s="115"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="125"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="18"/>
-      <c r="K51" s="104"/>
+      <c r="K51" s="99"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
@@ -3043,11 +3219,11 @@
         <v>15</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="105"/>
-      <c r="H52" s="101"/>
-      <c r="I52" s="101"/>
+      <c r="G52" s="100"/>
+      <c r="H52" s="96"/>
+      <c r="I52" s="96"/>
       <c r="J52" s="17"/>
-      <c r="K52" s="98" t="str">
+      <c r="K52" s="93" t="str">
         <f>IF(SUM(K42:K51)=0, "", MROUND(SUM(K42:K51), 10))</f>
         <v/>
       </c>
@@ -3066,58 +3242,58 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="119"/>
-      <c r="J53" s="120"/>
-      <c r="K53" s="98" t="str">
+      <c r="H53" s="150"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="93" t="str">
         <f>IF(SUM(K42:K51)=0, "", MROUND(SUM(K42:K51), 10))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="134"/>
-      <c r="B54" s="119"/>
-      <c r="C54" s="119"/>
-      <c r="D54" s="119"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
+      <c r="A54" s="144"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="146" t="s">
+      <c r="A55" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="114"/>
-      <c r="C55" s="114"/>
-      <c r="D55" s="114"/>
-      <c r="E55" s="114"/>
-      <c r="F55" s="114"/>
-      <c r="G55" s="114"/>
-      <c r="H55" s="114"/>
-      <c r="I55" s="114"/>
-      <c r="J55" s="114"/>
-      <c r="K55" s="114"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="124"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="121" t="s">
+      <c r="A56" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="119"/>
-      <c r="C56" s="120"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="130"/>
       <c r="D56" s="66"/>
-      <c r="E56" s="122" t="s">
+      <c r="E56" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="119"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="119"/>
-      <c r="I56" s="119"/>
-      <c r="J56" s="119"/>
-      <c r="K56" s="119"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="129"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3143,31 +3319,31 @@
       <c r="I57" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="135" t="s">
+      <c r="J57" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="136"/>
+      <c r="K57" s="146"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="19"/>
       <c r="C58" s="13"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="133"/>
-      <c r="F58" s="120"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="130"/>
       <c r="G58" s="69"/>
       <c r="H58" s="70"/>
       <c r="I58" s="70"/>
-      <c r="J58" s="185"/>
-      <c r="K58" s="120"/>
+      <c r="J58" s="186"/>
+      <c r="K58" s="130"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="20"/>
-      <c r="E59" s="140"/>
-      <c r="F59" s="120"/>
+      <c r="E59" s="150"/>
+      <c r="F59" s="130"/>
       <c r="G59" s="21" t="s">
         <v>18</v>
       </c>
@@ -3177,18 +3353,18 @@
       <c r="I59" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="186"/>
-      <c r="K59" s="115"/>
+      <c r="J59" s="187"/>
+      <c r="K59" s="125"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="20"/>
-      <c r="E60" s="187" t="s">
+      <c r="E60" s="188" t="s">
         <v>18</v>
       </c>
-      <c r="F60" s="120"/>
+      <c r="F60" s="130"/>
       <c r="G60" s="21" t="s">
         <v>18</v>
       </c>
@@ -3198,8 +3374,8 @@
       <c r="I60" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="141"/>
-      <c r="K60" s="120"/>
+      <c r="J60" s="151"/>
+      <c r="K60" s="130"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3210,10 +3386,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="20"/>
-      <c r="E61" s="187" t="s">
+      <c r="E61" s="188" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="120"/>
+      <c r="F61" s="130"/>
       <c r="G61" s="68"/>
       <c r="H61" s="21" t="s">
         <v>18</v>
@@ -3221,24 +3397,24 @@
       <c r="I61" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="183">
+      <c r="J61" s="184">
         <f>SUM(J58:K60)</f>
         <v>0</v>
       </c>
-      <c r="K61" s="120"/>
+      <c r="K61" s="130"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="113"/>
-      <c r="B62" s="114"/>
-      <c r="C62" s="114"/>
-      <c r="D62" s="114"/>
-      <c r="E62" s="114"/>
-      <c r="F62" s="114"/>
-      <c r="G62" s="114"/>
-      <c r="H62" s="114"/>
-      <c r="I62" s="114"/>
-      <c r="J62" s="114"/>
-      <c r="K62" s="115"/>
+      <c r="A62" s="123"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="125"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="67"/>
@@ -3251,31 +3427,46 @@
       <c r="K63" s="11"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G64" s="99" t="s">
+      <c r="A64" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="H64" s="174"/>
-      <c r="I64" s="175"/>
-      <c r="J64" s="175"/>
-      <c r="K64" s="176"/>
-    </row>
-    <row r="65" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H65" s="177"/>
-      <c r="I65" s="178"/>
-      <c r="J65" s="178"/>
-      <c r="K65" s="179"/>
-    </row>
-    <row r="66" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H66" s="180"/>
-      <c r="I66" s="181"/>
-      <c r="J66" s="181"/>
-      <c r="K66" s="182"/>
+      <c r="B64" s="247"/>
+      <c r="C64" s="247"/>
+      <c r="D64" s="247"/>
+      <c r="E64" s="247"/>
+      <c r="F64" s="247"/>
+      <c r="G64" s="247"/>
+      <c r="H64" s="247"/>
+      <c r="I64" s="247"/>
+      <c r="J64" s="247"/>
+      <c r="K64" s="247"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="247"/>
+      <c r="C65" s="247"/>
+      <c r="D65" s="247"/>
+      <c r="E65" s="247"/>
+      <c r="F65" s="247"/>
+      <c r="G65" s="247"/>
+      <c r="H65" s="247"/>
+      <c r="I65" s="247"/>
+      <c r="J65" s="247"/>
+      <c r="K65" s="247"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" s="247"/>
+      <c r="C66" s="247"/>
+      <c r="D66" s="247"/>
+      <c r="E66" s="247"/>
+      <c r="F66" s="247"/>
+      <c r="G66" s="247"/>
+      <c r="H66" s="247"/>
+      <c r="I66" s="247"/>
+      <c r="J66" s="247"/>
+      <c r="K66" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="H64:K66"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="A39:C39"/>
     <mergeCell ref="J61:K61"/>
     <mergeCell ref="A37:K37"/>
     <mergeCell ref="A38:K38"/>
@@ -3304,6 +3495,7 @@
     <mergeCell ref="C18:E18"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="A8:K8"/>
     <mergeCell ref="A14:K14"/>
@@ -3325,6 +3517,7 @@
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="C19:E19"/>
     <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B40:B41"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="H53:J53"/>
     <mergeCell ref="J60:K60"/>
@@ -3339,6 +3532,8 @@
     <mergeCell ref="A55:K55"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="H40:H41"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="B64:K66"/>
     <mergeCell ref="A62:K62"/>
     <mergeCell ref="A25:K25"/>
     <mergeCell ref="H39:K39"/>
@@ -3354,7 +3549,6 @@
     <mergeCell ref="A54:K54"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B40:B41"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3367,269 +3561,269 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="2.28515625" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="13.140625" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="213" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="203"/>
-      <c r="E1" s="203"/>
-      <c r="F1" s="203"/>
-      <c r="G1" s="203"/>
-      <c r="H1" s="203"/>
-      <c r="I1" s="203"/>
-      <c r="J1" s="203"/>
-      <c r="K1" s="203"/>
+      <c r="B1" s="213"/>
+      <c r="C1" s="213"/>
+      <c r="D1" s="213"/>
+      <c r="E1" s="213"/>
+      <c r="F1" s="213"/>
+      <c r="G1" s="213"/>
+      <c r="H1" s="213"/>
+      <c r="I1" s="213"/>
+      <c r="J1" s="213"/>
+      <c r="K1" s="213"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="204"/>
-      <c r="C2" s="204"/>
-      <c r="D2" s="204"/>
-      <c r="E2" s="204"/>
-      <c r="F2" s="204"/>
-      <c r="G2" s="204"/>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
-      <c r="K2" s="204"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="191"/>
-      <c r="C3" s="191"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="196" t="s">
+      <c r="B3" s="195"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="198" t="s">
+      <c r="F3" s="116"/>
+      <c r="G3" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="200"/>
-      <c r="K3" s="201" t="s">
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
+      <c r="J3" s="204"/>
+      <c r="K3" s="205" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="193"/>
-      <c r="B4" s="194"/>
-      <c r="C4" s="194"/>
-      <c r="D4" s="195"/>
-      <c r="E4" s="197"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76" t="s">
+      <c r="A4" s="197"/>
+      <c r="B4" s="198"/>
+      <c r="C4" s="198"/>
+      <c r="D4" s="199"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="202"/>
+      <c r="K4" s="206"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="205"/>
-      <c r="B5" s="206"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="207"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="88" t="s">
+      <c r="A5" s="215"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="83" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="205"/>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="207"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
+      <c r="A6" s="207"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
       <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="205"/>
-      <c r="B7" s="206"/>
-      <c r="C7" s="206"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
       <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="208" t="s">
+      <c r="A8" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="208"/>
-      <c r="C8" s="208"/>
-      <c r="D8" s="208"/>
-      <c r="E8" s="208"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="78" t="s">
+      <c r="B8" s="211"/>
+      <c r="C8" s="211"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="209" t="s">
+      <c r="A9" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="209"/>
-      <c r="C9" s="209"/>
-      <c r="D9" s="209"/>
-      <c r="E9" s="209"/>
-      <c r="F9" s="209"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="209"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209"/>
+      <c r="B9" s="218"/>
+      <c r="C9" s="218"/>
+      <c r="D9" s="218"/>
+      <c r="E9" s="218"/>
+      <c r="F9" s="218"/>
+      <c r="G9" s="218"/>
+      <c r="H9" s="218"/>
+      <c r="I9" s="218"/>
+      <c r="J9" s="218"/>
+      <c r="K9" s="218"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="190" t="s">
+      <c r="A10" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="191"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="196" t="s">
+      <c r="B10" s="195"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="200" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="74"/>
-      <c r="G10" s="198" t="s">
+      <c r="F10" s="116"/>
+      <c r="G10" s="202" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="199"/>
-      <c r="I10" s="199"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="201" t="s">
+      <c r="H10" s="203"/>
+      <c r="I10" s="203"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="205" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
-      <c r="B11" s="194"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="76" t="s">
+      <c r="A11" s="197"/>
+      <c r="B11" s="198"/>
+      <c r="C11" s="198"/>
+      <c r="D11" s="199"/>
+      <c r="E11" s="201"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="76" t="s">
+      <c r="H11" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="76" t="s">
+      <c r="I11" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="202"/>
+      <c r="K11" s="206"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="205"/>
-      <c r="B12" s="206"/>
-      <c r="C12" s="206"/>
-      <c r="D12" s="207"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="88" t="s">
+      <c r="A12" s="207"/>
+      <c r="B12" s="208"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="74"/>
+      <c r="H12" s="74"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="74"/>
+      <c r="K12" s="83" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="205"/>
-      <c r="B13" s="206"/>
-      <c r="C13" s="206"/>
-      <c r="D13" s="207"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
+      <c r="A13" s="207"/>
+      <c r="B13" s="208"/>
+      <c r="C13" s="208"/>
+      <c r="D13" s="209"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
       <c r="K13" s="73"/>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="205"/>
-      <c r="B14" s="206"/>
-      <c r="C14" s="206"/>
-      <c r="D14" s="207"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
+      <c r="A14" s="207"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="208"/>
+      <c r="D14" s="209"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
       <c r="K14" s="73"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="208" t="s">
+      <c r="A15" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="208"/>
-      <c r="C15" s="208"/>
-      <c r="D15" s="208"/>
-      <c r="E15" s="208"/>
-      <c r="F15" s="208"/>
-      <c r="G15" s="208"/>
-      <c r="H15" s="208"/>
-      <c r="I15" s="208"/>
-      <c r="J15" s="208"/>
-      <c r="K15" s="89" t="s">
+      <c r="B15" s="211"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="211"/>
+      <c r="E15" s="211"/>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="211"/>
+      <c r="K15" s="84" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3647,235 +3841,235 @@
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="194" t="s">
+      <c r="A17" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="194"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="194"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="194"/>
-      <c r="K17" s="194"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
+      <c r="J17" s="212"/>
+      <c r="K17" s="212"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="204" t="s">
+      <c r="A18" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="204"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="204"/>
-      <c r="F18" s="204"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="204"/>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="191"/>
-      <c r="C19" s="191"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="211" t="s">
+      <c r="B19" s="195"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="191"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="196" t="s">
+      <c r="F19" s="195"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="211" t="s">
+      <c r="I19" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="192"/>
-      <c r="K19" s="201" t="s">
+      <c r="J19" s="196"/>
+      <c r="K19" s="205" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="193"/>
-      <c r="B20" s="194"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="194"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="197"/>
-      <c r="I20" s="212"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="202"/>
+      <c r="A20" s="197"/>
+      <c r="B20" s="198"/>
+      <c r="C20" s="198"/>
+      <c r="D20" s="199"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="199"/>
+      <c r="H20" s="201"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="199"/>
+      <c r="K20" s="206"/>
     </row>
     <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="205"/>
-      <c r="B21" s="206"/>
-      <c r="C21" s="206"/>
-      <c r="D21" s="207"/>
-      <c r="E21" s="171"/>
+      <c r="A21" s="207"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="209"/>
+      <c r="E21" s="181"/>
       <c r="F21" s="210"/>
-      <c r="G21" s="132"/>
+      <c r="G21" s="142"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="88" t="s">
+      <c r="I21" s="181"/>
+      <c r="J21" s="142"/>
+      <c r="K21" s="83" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="205"/>
-      <c r="B22" s="206"/>
-      <c r="C22" s="206"/>
-      <c r="D22" s="207"/>
-      <c r="E22" s="171"/>
+      <c r="A22" s="207"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="209"/>
+      <c r="E22" s="181"/>
       <c r="F22" s="210"/>
-      <c r="G22" s="132"/>
+      <c r="G22" s="142"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="132"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="142"/>
       <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="205"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="206"/>
-      <c r="D23" s="207"/>
-      <c r="E23" s="213"/>
-      <c r="F23" s="214"/>
-      <c r="G23" s="215"/>
+      <c r="A23" s="207"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="208"/>
+      <c r="D23" s="209"/>
+      <c r="E23" s="221"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="222"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="213"/>
-      <c r="J23" s="215"/>
+      <c r="I23" s="221"/>
+      <c r="J23" s="222"/>
       <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="208" t="s">
+      <c r="A24" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="208"/>
-      <c r="C24" s="208"/>
-      <c r="D24" s="208"/>
-      <c r="E24" s="208"/>
-      <c r="F24" s="208"/>
-      <c r="G24" s="208"/>
-      <c r="H24" s="208"/>
-      <c r="I24" s="208"/>
-      <c r="J24" s="208"/>
-      <c r="K24" s="89" t="s">
+      <c r="B24" s="211"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="211"/>
+      <c r="E24" s="211"/>
+      <c r="F24" s="211"/>
+      <c r="G24" s="211"/>
+      <c r="H24" s="211"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="211"/>
+      <c r="K24" s="84" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="204" t="s">
+      <c r="A25" s="214" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="204"/>
-      <c r="C25" s="204"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
-      <c r="H25" s="204"/>
-      <c r="I25" s="204"/>
-      <c r="J25" s="204"/>
-      <c r="K25" s="216"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="214"/>
+      <c r="D25" s="214"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="214"/>
+      <c r="J25" s="214"/>
+      <c r="K25" s="223"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="190" t="s">
+      <c r="A26" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="211" t="s">
+      <c r="B26" s="195"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="191"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="196" t="s">
+      <c r="F26" s="195"/>
+      <c r="G26" s="196"/>
+      <c r="H26" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="211" t="s">
+      <c r="I26" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="192"/>
-      <c r="K26" s="201" t="s">
+      <c r="J26" s="196"/>
+      <c r="K26" s="205" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="193"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="212"/>
-      <c r="F27" s="194"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="197"/>
-      <c r="I27" s="212"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="202"/>
+      <c r="A27" s="197"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="199"/>
+      <c r="E27" s="220"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="220"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="206"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="205"/>
-      <c r="B28" s="206"/>
-      <c r="C28" s="206"/>
-      <c r="D28" s="207"/>
-      <c r="E28" s="171"/>
+      <c r="A28" s="207"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="209"/>
+      <c r="E28" s="181"/>
       <c r="F28" s="210"/>
-      <c r="G28" s="132"/>
+      <c r="G28" s="142"/>
       <c r="H28" s="61"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="88" t="s">
+      <c r="I28" s="181"/>
+      <c r="J28" s="142"/>
+      <c r="K28" s="83" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="205"/>
-      <c r="B29" s="206"/>
-      <c r="C29" s="206"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="171"/>
+      <c r="A29" s="207"/>
+      <c r="B29" s="208"/>
+      <c r="C29" s="208"/>
+      <c r="D29" s="209"/>
+      <c r="E29" s="181"/>
       <c r="F29" s="210"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="78"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="132"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="142"/>
       <c r="K29" s="73"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="205"/>
-      <c r="B30" s="206"/>
-      <c r="C30" s="206"/>
-      <c r="D30" s="207"/>
-      <c r="E30" s="171"/>
+      <c r="A30" s="207"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="208"/>
+      <c r="D30" s="209"/>
+      <c r="E30" s="181"/>
       <c r="F30" s="210"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="132"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="181"/>
+      <c r="J30" s="142"/>
       <c r="K30" s="73"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="208" t="s">
+      <c r="A31" s="225" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="208"/>
-      <c r="C31" s="208"/>
-      <c r="D31" s="208"/>
-      <c r="E31" s="208"/>
-      <c r="F31" s="208"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="208"/>
-      <c r="J31" s="208"/>
-      <c r="K31" s="89" t="s">
+      <c r="B31" s="225"/>
+      <c r="C31" s="225"/>
+      <c r="D31" s="225"/>
+      <c r="E31" s="225"/>
+      <c r="F31" s="225"/>
+      <c r="G31" s="225"/>
+      <c r="H31" s="225"/>
+      <c r="I31" s="225"/>
+      <c r="J31" s="226"/>
+      <c r="K31" s="84" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3893,69 +4087,69 @@
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="218" t="s">
+      <c r="A33" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="219"/>
-      <c r="C33" s="219"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="219"/>
-      <c r="G33" s="219"/>
-      <c r="H33" s="219"/>
-      <c r="I33" s="219"/>
-      <c r="J33" s="219"/>
-      <c r="K33" s="219"/>
+      <c r="B33" s="228"/>
+      <c r="C33" s="228"/>
+      <c r="D33" s="228"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="228"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="228"/>
+      <c r="J33" s="228"/>
+      <c r="K33" s="228"/>
     </row>
     <row r="34" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="217" t="s">
+      <c r="A34" s="224" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="217"/>
-      <c r="C34" s="217"/>
-      <c r="D34" s="217"/>
-      <c r="E34" s="217"/>
-      <c r="F34" s="217"/>
-      <c r="G34" s="217"/>
-      <c r="H34" s="217"/>
-      <c r="I34" s="217"/>
-      <c r="J34" s="217"/>
-      <c r="K34" s="217"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="224"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="217" t="s">
+      <c r="A35" s="224" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="217"/>
-      <c r="C35" s="217"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
-      <c r="I35" s="217"/>
-      <c r="J35" s="217"/>
-      <c r="K35" s="221"/>
+      <c r="B35" s="224"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="224"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="224"/>
+      <c r="K35" s="230"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
       <c r="B36" s="24"/>
-      <c r="C36" s="82" t="s">
+      <c r="C36" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="222"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="222"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="226"/>
-      <c r="K36" s="226"/>
+      <c r="D36" s="231"/>
+      <c r="E36" s="231"/>
+      <c r="F36" s="231"/>
+      <c r="G36" s="231"/>
+      <c r="H36" s="231"/>
+      <c r="I36" s="86"/>
+      <c r="J36" s="235"/>
+      <c r="K36" s="235"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
       <c r="B37" s="24"/>
-      <c r="C37" s="80" t="s">
+      <c r="C37" s="78" t="s">
         <v>78</v>
       </c>
       <c r="D37" s="24"/>
@@ -3963,27 +4157,27 @@
       <c r="F37" s="210"/>
       <c r="G37" s="210"/>
       <c r="H37" s="210"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="227"/>
-      <c r="K37" s="227"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="236"/>
+      <c r="K37" s="236"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
-      <c r="C38" s="223" t="s">
+      <c r="C38" s="232" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="223"/>
-      <c r="E38" s="223"/>
+      <c r="D38" s="232"/>
+      <c r="E38" s="232"/>
       <c r="F38" s="24"/>
       <c r="G38" s="210"/>
       <c r="H38" s="210"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="227" t="str">
+      <c r="I38" s="86"/>
+      <c r="J38" s="236" t="str">
         <f>IF(SUM(J36:K37)=0, "", MROUND(SUM(J36:K37), 10))</f>
         <v/>
       </c>
-      <c r="K38" s="227"/>
+      <c r="K38" s="236"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
@@ -3994,8 +4188,8 @@
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
       <c r="H39" s="24"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
+      <c r="I39" s="75"/>
+      <c r="J39" s="75"/>
       <c r="K39" s="24"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -4007,10 +4201,10 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="224" t="s">
+      <c r="I40" s="233" t="s">
         <v>80</v>
       </c>
-      <c r="J40" s="225"/>
+      <c r="J40" s="234"/>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4020,59 +4214,59 @@
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
       <c r="F41" s="24"/>
-      <c r="G41" s="81" t="s">
+      <c r="G41" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="214"/>
-      <c r="I41" s="214"/>
-      <c r="J41" s="214"/>
+      <c r="H41" s="193"/>
+      <c r="I41" s="193"/>
+      <c r="J41" s="193"/>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="228" t="s">
+      <c r="A42" s="237" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="228"/>
-      <c r="C42" s="228"/>
-      <c r="D42" s="228"/>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
-      <c r="H42" s="228"/>
-      <c r="I42" s="228"/>
-      <c r="J42" s="228"/>
-      <c r="K42" s="228"/>
+      <c r="B42" s="237"/>
+      <c r="C42" s="237"/>
+      <c r="D42" s="237"/>
+      <c r="E42" s="237"/>
+      <c r="F42" s="237"/>
+      <c r="G42" s="237"/>
+      <c r="H42" s="237"/>
+      <c r="I42" s="237"/>
+      <c r="J42" s="237"/>
+      <c r="K42" s="237"/>
       <c r="L42" s="24"/>
     </row>
     <row r="43" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="165" t="s">
+      <c r="A43" s="175" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="165"/>
-      <c r="F43" s="165"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="165"/>
-      <c r="K43" s="165"/>
+      <c r="B43" s="175"/>
+      <c r="C43" s="175"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="175"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="165" t="s">
+      <c r="A44" s="175" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="165"/>
-      <c r="F44" s="165"/>
-      <c r="G44" s="165"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="165"/>
-      <c r="K44" s="165"/>
+      <c r="B44" s="175"/>
+      <c r="C44" s="175"/>
+      <c r="D44" s="175"/>
+      <c r="E44" s="175"/>
+      <c r="F44" s="175"/>
+      <c r="G44" s="175"/>
+      <c r="H44" s="175"/>
+      <c r="I44" s="175"/>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
@@ -4083,10 +4277,10 @@
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="229" t="s">
+      <c r="I45" s="238" t="s">
         <v>86</v>
       </c>
-      <c r="J45" s="229"/>
+      <c r="J45" s="238"/>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4097,21 +4291,21 @@
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="220" t="s">
+      <c r="H46" s="229" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="220"/>
-      <c r="J46" s="220"/>
-      <c r="K46" s="220"/>
+      <c r="I46" s="229"/>
+      <c r="J46" s="229"/>
+      <c r="K46" s="229"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="231" t="s">
+      <c r="A47" s="240" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="231"/>
-      <c r="C47" s="231"/>
-      <c r="D47" s="231"/>
-      <c r="E47" s="231"/>
+      <c r="B47" s="240"/>
+      <c r="C47" s="240"/>
+      <c r="D47" s="240"/>
+      <c r="E47" s="240"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="28"/>
@@ -4120,89 +4314,89 @@
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="231" t="s">
+      <c r="A48" s="240" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="231"/>
-      <c r="C48" s="231"/>
-      <c r="D48" s="231"/>
-      <c r="E48" s="231"/>
+      <c r="B48" s="240"/>
+      <c r="C48" s="240"/>
+      <c r="D48" s="240"/>
+      <c r="E48" s="240"/>
       <c r="F48" s="24" t="s">
         <v>88</v>
       </c>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="225" t="s">
+      <c r="I48" s="234" t="s">
         <v>90</v>
       </c>
-      <c r="J48" s="225"/>
+      <c r="J48" s="234"/>
       <c r="K48" s="24"/>
     </row>
-    <row r="49" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="24"/>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
       <c r="E49" s="24"/>
       <c r="F49" s="24"/>
-      <c r="G49" s="81" t="s">
+      <c r="G49" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H49" s="229"/>
-      <c r="I49" s="229"/>
-      <c r="J49" s="229"/>
+      <c r="H49" s="238"/>
+      <c r="I49" s="238"/>
+      <c r="J49" s="238"/>
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="232" t="s">
+      <c r="A50" s="175" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="233"/>
-      <c r="C50" s="233"/>
-      <c r="D50" s="233"/>
-      <c r="E50" s="233"/>
-      <c r="F50" s="233"/>
-      <c r="G50" s="233"/>
-      <c r="H50" s="233"/>
-      <c r="I50" s="233"/>
-      <c r="J50" s="233"/>
-      <c r="K50" s="234"/>
+      <c r="B50" s="175"/>
+      <c r="C50" s="175"/>
+      <c r="D50" s="175"/>
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="175"/>
+      <c r="I50" s="175"/>
+      <c r="J50" s="175"/>
+      <c r="K50" s="175"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="235" t="s">
+      <c r="A51" s="175" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="165"/>
-      <c r="F51" s="165"/>
-      <c r="G51" s="165"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="165"/>
-      <c r="J51" s="165"/>
-      <c r="K51" s="236"/>
+      <c r="B51" s="175"/>
+      <c r="C51" s="175"/>
+      <c r="D51" s="175"/>
+      <c r="E51" s="175"/>
+      <c r="F51" s="175"/>
+      <c r="G51" s="175"/>
+      <c r="H51" s="175"/>
+      <c r="I51" s="175"/>
+      <c r="J51" s="175"/>
+      <c r="K51" s="175"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="238" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="229"/>
-      <c r="C52" s="229"/>
-      <c r="D52" s="229"/>
-      <c r="E52" s="229"/>
-      <c r="F52" s="229"/>
-      <c r="G52" s="229"/>
-      <c r="H52" s="229"/>
-      <c r="I52" s="229"/>
-      <c r="J52" s="229"/>
-      <c r="K52" s="239"/>
+      <c r="B52" s="238"/>
+      <c r="C52" s="238"/>
+      <c r="D52" s="238"/>
+      <c r="E52" s="238"/>
+      <c r="F52" s="238"/>
+      <c r="G52" s="238"/>
+      <c r="H52" s="238"/>
+      <c r="I52" s="238"/>
+      <c r="J52" s="238"/>
+      <c r="K52" s="238"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="240" t="s">
+      <c r="A53" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="240"/>
+      <c r="B53" s="198"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27" t="s">
         <v>94</v>
@@ -4213,170 +4407,172 @@
         <v>19</v>
       </c>
       <c r="H53" s="27"/>
-      <c r="I53" s="77" t="s">
+      <c r="I53" s="75" t="s">
         <v>96</v>
       </c>
       <c r="J53" s="24"/>
-      <c r="K53" s="85" t="s">
+      <c r="K53" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="M53" s="230"/>
-      <c r="N53" s="230"/>
+      <c r="M53" s="239"/>
+      <c r="N53" s="239"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
-      <c r="R53" s="230"/>
-      <c r="S53" s="230"/>
+      <c r="R53" s="239"/>
+      <c r="S53" s="239"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
       <c r="V53" s="24"/>
       <c r="W53" s="24"/>
       <c r="X53" s="24"/>
-      <c r="Y53" s="84"/>
+      <c r="Y53" s="81"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="169"/>
-      <c r="B54" s="169"/>
+      <c r="A54" s="179"/>
+      <c r="B54" s="179"/>
       <c r="C54" s="24"/>
-      <c r="D54" s="102"/>
+      <c r="D54" s="97"/>
       <c r="E54" s="28"/>
       <c r="F54" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="107"/>
+      <c r="G54" s="102"/>
       <c r="H54" s="27"/>
-      <c r="I54" s="109"/>
+      <c r="I54" s="104"/>
       <c r="J54" s="24"/>
-      <c r="K54" s="107"/>
+      <c r="K54" s="102"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="237"/>
-      <c r="B55" s="237"/>
+      <c r="A55" s="241"/>
+      <c r="B55" s="241"/>
       <c r="C55" s="24"/>
-      <c r="D55" s="106"/>
+      <c r="D55" s="101"/>
       <c r="E55" s="28"/>
       <c r="F55" s="24"/>
-      <c r="G55" s="107"/>
+      <c r="G55" s="102"/>
       <c r="H55" s="27"/>
-      <c r="I55" s="108"/>
+      <c r="I55" s="103"/>
       <c r="J55" s="24"/>
-      <c r="K55" s="107"/>
+      <c r="K55" s="102"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="237"/>
-      <c r="B56" s="237"/>
+      <c r="A56" s="241"/>
+      <c r="B56" s="241"/>
       <c r="C56" s="24"/>
-      <c r="D56" s="90"/>
+      <c r="D56" s="85"/>
       <c r="E56" s="28"/>
       <c r="F56" s="24"/>
-      <c r="G56" s="107"/>
+      <c r="G56" s="102"/>
       <c r="H56" s="27"/>
-      <c r="I56" s="109"/>
+      <c r="I56" s="104"/>
       <c r="J56" s="24"/>
-      <c r="K56" s="107"/>
+      <c r="K56" s="102"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="237"/>
-      <c r="B57" s="237"/>
+      <c r="A57" s="241"/>
+      <c r="B57" s="241"/>
       <c r="C57" s="24"/>
-      <c r="D57" s="90"/>
+      <c r="D57" s="85"/>
       <c r="E57" s="28"/>
       <c r="F57" s="24"/>
-      <c r="G57" s="107"/>
+      <c r="G57" s="102"/>
       <c r="H57" s="27"/>
-      <c r="I57" s="108"/>
+      <c r="I57" s="103"/>
       <c r="J57" s="24"/>
-      <c r="K57" s="107"/>
+      <c r="K57" s="102"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E58" s="112" t="s">
+      <c r="E58" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="110" t="str">
+      <c r="G58" s="105" t="str">
         <f>IF(SUM(G54:G57)=0, "", MROUND(SUM(G54:G57), 10))</f>
         <v/>
       </c>
-      <c r="H58" s="165"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="111" t="s">
+      <c r="H58" s="175"/>
+      <c r="I58" s="175"/>
+      <c r="J58" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="110" t="str">
+      <c r="K58" s="105" t="str">
         <f>IF(SUM(K54:K57)=0, "", MROUND(SUM(K54:K57), 10))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="241" t="s">
+      <c r="A59" s="242" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="241"/>
-      <c r="C59" s="241"/>
-      <c r="D59" s="242"/>
-      <c r="E59" s="242"/>
-      <c r="F59" s="242"/>
-      <c r="G59" s="242"/>
-      <c r="H59" s="242"/>
-      <c r="I59" s="242"/>
-      <c r="J59" s="242"/>
-      <c r="K59" s="242"/>
+      <c r="B59" s="242"/>
+      <c r="C59" s="242"/>
+      <c r="D59" s="225"/>
+      <c r="E59" s="225"/>
+      <c r="F59" s="225"/>
+      <c r="G59" s="225"/>
+      <c r="H59" s="225"/>
+      <c r="I59" s="225"/>
+      <c r="J59" s="225"/>
+      <c r="K59" s="225"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="159" t="s">
         <v>100</v>
       </c>
-      <c r="H60" s="150" t="s">
+      <c r="B60" s="159"/>
+      <c r="C60" s="159"/>
+      <c r="H60" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="I60" s="243"/>
+      <c r="I60" s="122"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="244"/>
-      <c r="B61" s="245"/>
-      <c r="C61" s="245"/>
+      <c r="A61" s="243"/>
+      <c r="B61" s="243"/>
+      <c r="C61" s="243"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
-      <c r="I61" s="245"/>
-      <c r="J61" s="245"/>
-      <c r="K61" s="84"/>
+      <c r="I61" s="243"/>
+      <c r="J61" s="243"/>
+      <c r="K61" s="24"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="246" t="s">
+      <c r="A62" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="247"/>
-      <c r="C62" s="247"/>
+      <c r="B62" s="245"/>
+      <c r="C62" s="245"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
-      <c r="I62" s="248" t="s">
+      <c r="I62" s="244" t="s">
         <v>101</v>
       </c>
-      <c r="J62" s="247"/>
-      <c r="K62" s="84"/>
+      <c r="J62" s="245"/>
+      <c r="K62" s="24"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="83"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
       <c r="E63" s="24"/>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
-      <c r="H63" s="86" t="s">
+      <c r="H63" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="I63" s="242"/>
-      <c r="J63" s="242"/>
-      <c r="K63" s="84"/>
+      <c r="I63" s="225"/>
+      <c r="J63" s="225"/>
+      <c r="K63" s="24"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
@@ -4384,11 +4580,11 @@
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
-      <c r="I64" s="248" t="s">
+      <c r="I64" s="244" t="s">
         <v>103</v>
       </c>
-      <c r="J64" s="248"/>
-      <c r="K64" s="84"/>
+      <c r="J64" s="244"/>
+      <c r="K64" s="24"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="24"/>
@@ -4398,67 +4594,97 @@
       <c r="E65" s="24"/>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
-      <c r="H65" s="86" t="s">
+      <c r="H65" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="249"/>
-      <c r="J65" s="249"/>
+      <c r="I65" s="246"/>
+      <c r="J65" s="246"/>
       <c r="K65" s="24"/>
     </row>
-    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="87"/>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="87"/>
-      <c r="K66" s="87"/>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="24"/>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="24"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="114" t="s">
+        <v>111</v>
+      </c>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
-      <c r="D67" s="24"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="192"/>
+      <c r="F67" s="192"/>
+      <c r="G67" s="192"/>
+      <c r="H67" s="75"/>
+      <c r="I67" s="75"/>
+      <c r="J67" s="114" t="s">
+        <v>112</v>
+      </c>
       <c r="K67" s="24"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="24"/>
-      <c r="B68" s="24"/>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
+      <c r="A68" s="114" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="193"/>
+      <c r="C68" s="193"/>
+      <c r="D68" s="193"/>
+      <c r="E68" s="193"/>
+      <c r="F68" s="193"/>
+      <c r="G68" s="193"/>
+      <c r="H68" s="114" t="s">
+        <v>113</v>
+      </c>
+      <c r="I68" s="114"/>
+      <c r="J68" s="114"/>
+      <c r="K68" s="114"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="24"/>
-      <c r="B69" s="24"/>
-      <c r="C69" s="24"/>
-      <c r="D69" s="24"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
+      <c r="A69" s="120" t="s">
+        <v>115</v>
+      </c>
+      <c r="B69" s="118"/>
+      <c r="C69" s="119" t="s">
+        <v>116</v>
+      </c>
+      <c r="D69" s="118"/>
+      <c r="E69" s="192"/>
+      <c r="F69" s="192"/>
+      <c r="G69" s="192"/>
+      <c r="H69" s="192"/>
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
     </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B70" s="114"/>
+      <c r="C70" s="114"/>
+      <c r="D70" s="114"/>
+      <c r="E70" s="121"/>
+      <c r="G70" s="114" t="s">
+        <v>119</v>
+      </c>
+      <c r="H70" s="121"/>
+      <c r="I70" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="J70" s="191"/>
+      <c r="K70" s="191"/>
+    </row>
   </sheetData>
-  <mergeCells count="94">
+  <mergeCells count="99">
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="I63:J63"/>
@@ -4470,6 +4696,7 @@
     <mergeCell ref="H60:I60"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A60:C60"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A57:B57"/>
@@ -4524,6 +4751,31 @@
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="B68:G68"/>
+    <mergeCell ref="A10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:K11"/>
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="E21:G21"/>
     <mergeCell ref="I21:J21"/>
@@ -4532,30 +4784,10 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:K9"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="64" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/backend/python/templates/UNIRRIG_Template.xlsx
+++ b/backend/python/templates/UNIRRIG_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Videos\FAAS SYSTEM\backend\python\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C254A8FD-DD42-48F9-A665-D268C05EB6F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ABDBC5-395A-418A-BBA8-98A11FD57618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09F85F88-7F48-4E0A-B303-28052CF036CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{09F85F88-7F48-4E0A-B303-28052CF036CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
   <si>
     <t>RPA Form No. 1</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t xml:space="preserve">     IMPROVEMENT</t>
+  </si>
+  <si>
+    <t>rw</t>
   </si>
 </sst>
 </file>
@@ -1279,14 +1282,144 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1294,18 +1427,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1320,13 +1447,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1337,188 +1457,133 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1526,88 +1591,26 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2137,10 +2140,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:K66"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64:K66"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A45" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61:K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,33 +2161,35 @@
     <col min="11" max="11" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="158" t="s">
+      <c r="H3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="159"/>
-      <c r="J3" s="160"/>
-      <c r="K3" s="124"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="131"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
+      <c r="B4" s="125"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="125"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="164" t="s">
+      <c r="A5" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="159"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="124"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="124"/>
-      <c r="G5" s="124"/>
+      <c r="B5" s="125"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -2195,154 +2200,154 @@
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="10"/>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="153" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="159"/>
-      <c r="E7" s="159"/>
-      <c r="F7" s="159"/>
-      <c r="G7" s="159"/>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
+      <c r="D7" s="125"/>
+      <c r="E7" s="125"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="125"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="125"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="159"/>
-      <c r="C8" s="159"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="159"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
-      <c r="K8" s="159"/>
+      <c r="B8" s="125"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="125"/>
+      <c r="F8" s="125"/>
+      <c r="G8" s="125"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="125"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="160"/>
-      <c r="C11" s="124"/>
-      <c r="D11" s="124"/>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="124"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="156"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="131"/>
+      <c r="K11" s="131"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="176" t="s">
+      <c r="A12" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="159"/>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="159"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="125"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="125"/>
+      <c r="K12" s="125"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="160"/>
-      <c r="C13" s="124"/>
-      <c r="D13" s="124"/>
-      <c r="E13" s="124"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="124"/>
-      <c r="H13" s="160"/>
-      <c r="I13" s="124"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="124"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="131"/>
+      <c r="K13" s="131"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="174" t="s">
+      <c r="A14" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="159"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="125"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="125"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="125"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="125"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
+      <c r="J16" s="125"/>
+      <c r="K16" s="125"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="175" t="s">
+      <c r="A17" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="159"/>
-      <c r="C17" s="179"/>
-      <c r="D17" s="124"/>
-      <c r="E17" s="124"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="179"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="179"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="124"/>
+      <c r="G17" s="146"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="131"/>
+      <c r="K17" s="131"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="24"/>
-      <c r="C18" s="161" t="s">
+      <c r="C18" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="161" t="s">
+      <c r="G18" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="159"/>
-      <c r="I18" s="161" t="s">
+      <c r="H18" s="125"/>
+      <c r="I18" s="151" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="125"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="175" t="s">
+      <c r="A19" s="124" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="159"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="165"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
       <c r="F19" s="22"/>
       <c r="G19" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
       <c r="J19" s="24" t="s">
         <v>31</v>
       </c>
@@ -2369,95 +2374,95 @@
       <c r="A21" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="167"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="124"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="124"/>
+      <c r="B21" s="163"/>
+      <c r="C21" s="131"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
       <c r="H21" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="167"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="124"/>
+      <c r="I21" s="163"/>
+      <c r="J21" s="131"/>
+      <c r="K21" s="131"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="168"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
+      <c r="B22" s="164"/>
+      <c r="C22" s="141"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="168"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
+      <c r="I22" s="164"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="183" t="s">
+      <c r="A23" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="159"/>
-      <c r="C23" s="159"/>
-      <c r="D23" s="159"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="159"/>
-      <c r="G23" s="159"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="159"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="125"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="125"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="162"/>
-      <c r="B24" s="124"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="124"/>
-      <c r="E24" s="124"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="124"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="124"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="124"/>
+      <c r="A24" s="158"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
+      <c r="K24" s="131"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="127"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
+      <c r="B25" s="177"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="177"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="177"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="177"/>
+      <c r="J25" s="177"/>
+      <c r="K25" s="177"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="182" t="s">
+      <c r="A26" s="150" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="123"/>
       <c r="D26" s="29"/>
-      <c r="E26" s="181" t="s">
+      <c r="E26" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
@@ -2470,10 +2475,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="57"/>
-      <c r="E27" s="135" t="s">
+      <c r="E27" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="130"/>
+      <c r="F27" s="123"/>
       <c r="G27" s="58" t="s">
         <v>7</v>
       </c>
@@ -2483,18 +2488,18 @@
       <c r="I27" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="180" t="s">
+      <c r="J27" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="130"/>
+      <c r="K27" s="123"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
       <c r="D28" s="29"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="137"/>
+      <c r="E28" s="182"/>
+      <c r="F28" s="183"/>
       <c r="G28" s="107"/>
       <c r="H28" s="59"/>
       <c r="I28" s="90" t="str">
@@ -2514,19 +2519,19 @@
 )</f>
         <v/>
       </c>
-      <c r="J28" s="133" t="str">
+      <c r="J28" s="169" t="str">
         <f>IFERROR(IF(MROUND(G28*I28,10)=0, "", MROUND(G28*I28,10)), "")</f>
         <v/>
       </c>
-      <c r="K28" s="134"/>
+      <c r="K28" s="170"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="34"/>
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="29"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="139"/>
+      <c r="E29" s="184"/>
+      <c r="F29" s="185"/>
       <c r="G29" s="108"/>
       <c r="H29" s="60"/>
       <c r="I29" s="90" t="str">
@@ -2546,19 +2551,19 @@
 )</f>
         <v/>
       </c>
-      <c r="J29" s="133" t="str">
+      <c r="J29" s="169" t="str">
         <f t="shared" ref="J29:J31" si="0">IFERROR(IF(MROUND(G29*I29,10)=0, "", MROUND(G29*I29,10)), "")</f>
         <v/>
       </c>
-      <c r="K29" s="134"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="170"/>
+    </row>
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
       <c r="D30" s="29"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="141"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="136"/>
       <c r="G30" s="109"/>
       <c r="H30" s="91"/>
       <c r="I30" s="90" t="str">
@@ -2578,35 +2583,35 @@
 )</f>
         <v/>
       </c>
-      <c r="J30" s="133" t="str">
+      <c r="J30" s="169" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K30" s="134"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="170"/>
+    </row>
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="29"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="130"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="123"/>
       <c r="G31" s="110"/>
       <c r="H31" s="33"/>
       <c r="I31" s="90"/>
-      <c r="J31" s="133" t="str">
+      <c r="J31" s="169" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K31" s="134"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="170"/>
+    </row>
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
       <c r="D32" s="29"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="130"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="123"/>
       <c r="G32" s="110"/>
       <c r="H32" s="33" t="s">
         <v>18</v>
@@ -2628,19 +2633,19 @@
 )</f>
         <v/>
       </c>
-      <c r="J32" s="152" t="str">
+      <c r="J32" s="171" t="str">
         <f t="shared" ref="J32:J34" si="1">IFERROR(MROUND(G32*I32,10),"")</f>
         <v/>
       </c>
-      <c r="K32" s="130"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K32" s="123"/>
+    </row>
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
       <c r="D33" s="29"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="130"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="123"/>
       <c r="G33" s="110"/>
       <c r="H33" s="33" t="s">
         <v>18</v>
@@ -2662,19 +2667,19 @@
 )</f>
         <v/>
       </c>
-      <c r="J33" s="152" t="str">
+      <c r="J33" s="171" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K33" s="130"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K33" s="123"/>
+    </row>
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="29"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="130"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="123"/>
       <c r="G34" s="106"/>
       <c r="H34" s="33" t="s">
         <v>18</v>
@@ -2696,29 +2701,29 @@
 )</f>
         <v/>
       </c>
-      <c r="J34" s="152" t="str">
+      <c r="J34" s="171" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K34" s="130"/>
+      <c r="K34" s="123"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
       <c r="D35" s="29"/>
-      <c r="E35" s="155" t="s">
+      <c r="E35" s="145" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="130"/>
+      <c r="F35" s="123"/>
       <c r="G35" s="32"/>
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
-      <c r="J35" s="177" t="str">
+      <c r="J35" s="143" t="str">
         <f>IF(SUM(J28:K34)=0, "", MROUND(SUM(J28:K34), 10))</f>
         <v/>
       </c>
-      <c r="K35" s="178"/>
+      <c r="K35" s="144"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
@@ -2729,73 +2734,73 @@
         <v>13</v>
       </c>
       <c r="D36" s="29"/>
-      <c r="E36" s="155" t="s">
+      <c r="E36" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="129"/>
-      <c r="G36" s="129"/>
-      <c r="H36" s="129"/>
-      <c r="I36" s="130"/>
-      <c r="J36" s="153"/>
-      <c r="K36" s="154"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="141"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="172"/>
+      <c r="K36" s="173"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="175" t="s">
+      <c r="A37" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="159"/>
-      <c r="C37" s="159"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="159"/>
-      <c r="K37" s="159"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="185" t="s">
+      <c r="A38" s="126" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="159"/>
-      <c r="K38" s="159"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="125"/>
+      <c r="E38" s="125"/>
+      <c r="F38" s="125"/>
+      <c r="G38" s="125"/>
+      <c r="H38" s="125"/>
+      <c r="I38" s="125"/>
+      <c r="J38" s="125"/>
+      <c r="K38" s="125"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="182" t="s">
+      <c r="A39" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="129"/>
-      <c r="C39" s="130"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="123"/>
       <c r="D39" s="39"/>
       <c r="E39" s="34" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="61"/>
       <c r="G39" s="62"/>
-      <c r="H39" s="128" t="s">
+      <c r="H39" s="178" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="129"/>
-      <c r="J39" s="129"/>
-      <c r="K39" s="130"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="123"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="149" t="s">
+      <c r="A40" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="149" t="s">
+      <c r="B40" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="147" t="s">
+      <c r="C40" s="190" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="29"/>
@@ -2804,33 +2809,33 @@
       </c>
       <c r="F40" s="41"/>
       <c r="G40" s="42"/>
-      <c r="H40" s="157" t="s">
+      <c r="H40" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="157" t="s">
+      <c r="I40" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="157" t="s">
+      <c r="J40" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="K40" s="157" t="s">
+      <c r="K40" s="137" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="148"/>
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
+      <c r="A41" s="138"/>
+      <c r="B41" s="138"/>
+      <c r="C41" s="138"/>
       <c r="D41" s="29"/>
       <c r="E41" s="41" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="41"/>
       <c r="G41" s="63"/>
-      <c r="H41" s="148"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="148"/>
+      <c r="H41" s="138"/>
+      <c r="I41" s="138"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="138"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
@@ -3050,11 +3055,11 @@
       <c r="B45" s="50"/>
       <c r="C45" s="50"/>
       <c r="D45" s="29"/>
-      <c r="E45" s="189" t="s">
+      <c r="E45" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="159"/>
-      <c r="G45" s="190"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="134"/>
       <c r="H45" s="51"/>
       <c r="I45" s="35"/>
       <c r="J45" s="64" t="str" cm="1">
@@ -3200,9 +3205,9 @@
       <c r="B51" s="16"/>
       <c r="C51" s="16"/>
       <c r="D51" s="12"/>
-      <c r="E51" s="123"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="125"/>
+      <c r="E51" s="130"/>
+      <c r="F51" s="131"/>
+      <c r="G51" s="129"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
       <c r="J51" s="18"/>
@@ -3242,58 +3247,58 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="150"/>
-      <c r="I53" s="129"/>
-      <c r="J53" s="130"/>
+      <c r="H53" s="140"/>
+      <c r="I53" s="141"/>
+      <c r="J53" s="123"/>
       <c r="K53" s="93" t="str">
         <f>IF(SUM(K42:K51)=0, "", MROUND(SUM(K42:K51), 10))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="144"/>
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
-      <c r="I54" s="129"/>
-      <c r="J54" s="129"/>
-      <c r="K54" s="129"/>
+      <c r="A54" s="187"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="141"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="141"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="141"/>
+      <c r="K54" s="141"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="156" t="s">
+      <c r="A55" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="124"/>
-      <c r="C55" s="124"/>
-      <c r="D55" s="124"/>
-      <c r="E55" s="124"/>
-      <c r="F55" s="124"/>
-      <c r="G55" s="124"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="124"/>
-      <c r="J55" s="124"/>
-      <c r="K55" s="124"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
+      <c r="F55" s="131"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="131"/>
+      <c r="I55" s="131"/>
+      <c r="J55" s="131"/>
+      <c r="K55" s="131"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="131" t="s">
+      <c r="A56" s="179" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="129"/>
-      <c r="C56" s="130"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="66"/>
-      <c r="E56" s="132" t="s">
+      <c r="E56" s="180" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
-      <c r="K56" s="129"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="141"/>
+      <c r="K56" s="141"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3319,52 +3324,48 @@
       <c r="I57" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="145" t="s">
+      <c r="J57" s="188" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="146"/>
+      <c r="K57" s="189"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="19"/>
       <c r="C58" s="13"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="143"/>
-      <c r="F58" s="130"/>
+      <c r="E58" s="135"/>
+      <c r="F58" s="183"/>
       <c r="G58" s="69"/>
       <c r="H58" s="70"/>
       <c r="I58" s="70"/>
-      <c r="J58" s="186"/>
-      <c r="K58" s="130"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="123"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
       <c r="D59" s="20"/>
-      <c r="E59" s="150"/>
-      <c r="F59" s="130"/>
-      <c r="G59" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="E59" s="135"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="69" t="s">
+        <v>120</v>
+      </c>
+      <c r="H59" s="69"/>
       <c r="I59" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="187"/>
-      <c r="K59" s="125"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="128"/>
+      <c r="K59" s="129"/>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
       <c r="D60" s="20"/>
-      <c r="E60" s="188" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" s="130"/>
+      <c r="E60" s="135"/>
+      <c r="F60" s="135"/>
       <c r="G60" s="21" t="s">
         <v>18</v>
       </c>
@@ -3374,8 +3375,8 @@
       <c r="I60" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="151"/>
-      <c r="K60" s="130"/>
+      <c r="J60" s="168"/>
+      <c r="K60" s="123"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3386,10 +3387,10 @@
         <v>13</v>
       </c>
       <c r="D61" s="20"/>
-      <c r="E61" s="188" t="s">
+      <c r="E61" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="130"/>
+      <c r="F61" s="123"/>
       <c r="G61" s="68"/>
       <c r="H61" s="21" t="s">
         <v>18</v>
@@ -3397,26 +3398,26 @@
       <c r="I61" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="184">
+      <c r="J61" s="122">
         <f>SUM(J58:K60)</f>
         <v>0</v>
       </c>
-      <c r="K61" s="130"/>
+      <c r="K61" s="123"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="123"/>
-      <c r="B62" s="124"/>
-      <c r="C62" s="124"/>
-      <c r="D62" s="124"/>
-      <c r="E62" s="124"/>
-      <c r="F62" s="124"/>
-      <c r="G62" s="124"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="124"/>
-      <c r="J62" s="124"/>
-      <c r="K62" s="125"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="130"/>
+      <c r="B62" s="131"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="131"/>
+      <c r="F62" s="131"/>
+      <c r="G62" s="131"/>
+      <c r="H62" s="131"/>
+      <c r="I62" s="131"/>
+      <c r="J62" s="131"/>
+      <c r="K62" s="129"/>
+    </row>
+    <row r="63" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="67"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -3430,56 +3431,93 @@
       <c r="A64" s="94" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="247"/>
-      <c r="C64" s="247"/>
-      <c r="D64" s="247"/>
-      <c r="E64" s="247"/>
-      <c r="F64" s="247"/>
-      <c r="G64" s="247"/>
-      <c r="H64" s="247"/>
-      <c r="I64" s="247"/>
-      <c r="J64" s="247"/>
-      <c r="K64" s="247"/>
+      <c r="B64" s="175"/>
+      <c r="C64" s="175"/>
+      <c r="D64" s="175"/>
+      <c r="E64" s="175"/>
+      <c r="F64" s="175"/>
+      <c r="G64" s="175"/>
+      <c r="H64" s="175"/>
+      <c r="I64" s="175"/>
+      <c r="J64" s="175"/>
+      <c r="K64" s="175"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="247"/>
-      <c r="C65" s="247"/>
-      <c r="D65" s="247"/>
-      <c r="E65" s="247"/>
-      <c r="F65" s="247"/>
-      <c r="G65" s="247"/>
-      <c r="H65" s="247"/>
-      <c r="I65" s="247"/>
-      <c r="J65" s="247"/>
-      <c r="K65" s="247"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" s="247"/>
-      <c r="C66" s="247"/>
-      <c r="D66" s="247"/>
-      <c r="E66" s="247"/>
-      <c r="F66" s="247"/>
-      <c r="G66" s="247"/>
-      <c r="H66" s="247"/>
-      <c r="I66" s="247"/>
-      <c r="J66" s="247"/>
-      <c r="K66" s="247"/>
+      <c r="B65" s="175"/>
+      <c r="C65" s="175"/>
+      <c r="D65" s="175"/>
+      <c r="E65" s="175"/>
+      <c r="F65" s="175"/>
+      <c r="G65" s="175"/>
+      <c r="H65" s="175"/>
+      <c r="I65" s="175"/>
+      <c r="J65" s="175"/>
+      <c r="K65" s="175"/>
+    </row>
+    <row r="66" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="175"/>
+      <c r="C66" s="175"/>
+      <c r="D66" s="175"/>
+      <c r="E66" s="175"/>
+      <c r="F66" s="175"/>
+      <c r="G66" s="175"/>
+      <c r="H66" s="175"/>
+      <c r="I66" s="175"/>
+      <c r="J66" s="175"/>
+      <c r="K66" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="B64:K66"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="E56:K56"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A12:K12"/>
     <mergeCell ref="J35:K35"/>
@@ -3496,63 +3534,26 @@
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="H53:J53"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="B64:K66"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="E56:K56"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E58:F58"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="C40:C41"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="74" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup scale="82" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3563,8 +3564,8 @@
   </sheetPr>
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O69" sqref="O69"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70:K70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3583,62 +3584,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="213" t="s">
+      <c r="A1" s="241" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="213"/>
-      <c r="C1" s="213"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="213"/>
-      <c r="F1" s="213"/>
-      <c r="G1" s="213"/>
-      <c r="H1" s="213"/>
-      <c r="I1" s="213"/>
-      <c r="J1" s="213"/>
-      <c r="K1" s="213"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="241"/>
+      <c r="F1" s="241"/>
+      <c r="G1" s="241"/>
+      <c r="H1" s="241"/>
+      <c r="I1" s="241"/>
+      <c r="J1" s="241"/>
+      <c r="K1" s="241"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="194" t="s">
+      <c r="A3" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="196"/>
-      <c r="E3" s="200" t="s">
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="226"/>
+      <c r="E3" s="231" t="s">
         <v>107</v>
       </c>
       <c r="F3" s="116"/>
-      <c r="G3" s="202" t="s">
+      <c r="G3" s="242" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
-      <c r="J3" s="204"/>
-      <c r="K3" s="205" t="s">
+      <c r="H3" s="243"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="233" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="197"/>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="199"/>
-      <c r="E4" s="201"/>
+      <c r="A4" s="227"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="228"/>
+      <c r="E4" s="232"/>
       <c r="F4" s="31"/>
       <c r="G4" s="117" t="s">
         <v>65</v>
@@ -3652,13 +3653,13 @@
       <c r="J4" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="206"/>
+      <c r="K4" s="234"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="215"/>
-      <c r="B5" s="216"/>
-      <c r="C5" s="216"/>
-      <c r="D5" s="217"/>
+      <c r="A5" s="237"/>
+      <c r="B5" s="238"/>
+      <c r="C5" s="238"/>
+      <c r="D5" s="239"/>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
@@ -3670,10 +3671,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="207"/>
-      <c r="B6" s="208"/>
-      <c r="C6" s="208"/>
-      <c r="D6" s="209"/>
+      <c r="A6" s="215"/>
+      <c r="B6" s="216"/>
+      <c r="C6" s="216"/>
+      <c r="D6" s="217"/>
       <c r="E6" s="74"/>
       <c r="F6" s="74"/>
       <c r="G6" s="74"/>
@@ -3683,10 +3684,10 @@
       <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="207"/>
-      <c r="B7" s="208"/>
-      <c r="C7" s="208"/>
-      <c r="D7" s="209"/>
+      <c r="A7" s="215"/>
+      <c r="B7" s="216"/>
+      <c r="C7" s="216"/>
+      <c r="D7" s="217"/>
       <c r="E7" s="74"/>
       <c r="F7" s="74"/>
       <c r="G7" s="74"/>
@@ -3696,64 +3697,64 @@
       <c r="K7" s="73"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="211" t="s">
+      <c r="A8" s="221" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="211"/>
-      <c r="C8" s="211"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="211"/>
-      <c r="I8" s="211"/>
-      <c r="J8" s="211"/>
+      <c r="B8" s="221"/>
+      <c r="C8" s="221"/>
+      <c r="D8" s="221"/>
+      <c r="E8" s="221"/>
+      <c r="F8" s="221"/>
+      <c r="G8" s="221"/>
+      <c r="H8" s="221"/>
+      <c r="I8" s="221"/>
+      <c r="J8" s="221"/>
       <c r="K8" s="76" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="240" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="218"/>
-      <c r="C9" s="218"/>
-      <c r="D9" s="218"/>
-      <c r="E9" s="218"/>
-      <c r="F9" s="218"/>
-      <c r="G9" s="218"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="218"/>
-      <c r="J9" s="218"/>
-      <c r="K9" s="218"/>
+      <c r="B9" s="240"/>
+      <c r="C9" s="240"/>
+      <c r="D9" s="240"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="194" t="s">
+      <c r="A10" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="200" t="s">
+      <c r="B10" s="225"/>
+      <c r="C10" s="225"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="231" t="s">
         <v>107</v>
       </c>
       <c r="F10" s="116"/>
-      <c r="G10" s="202" t="s">
+      <c r="G10" s="242" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="205" t="s">
+      <c r="H10" s="243"/>
+      <c r="I10" s="243"/>
+      <c r="J10" s="244"/>
+      <c r="K10" s="233" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="197"/>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="199"/>
-      <c r="E11" s="201"/>
+      <c r="A11" s="227"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="232"/>
       <c r="F11" s="31"/>
       <c r="G11" s="117" t="s">
         <v>65</v>
@@ -3767,13 +3768,13 @@
       <c r="J11" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="206"/>
+      <c r="K11" s="234"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="207"/>
-      <c r="B12" s="208"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="209"/>
+      <c r="A12" s="215"/>
+      <c r="B12" s="216"/>
+      <c r="C12" s="216"/>
+      <c r="D12" s="217"/>
       <c r="E12" s="74"/>
       <c r="F12" s="74"/>
       <c r="G12" s="74"/>
@@ -3785,10 +3786,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="207"/>
-      <c r="B13" s="208"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="209"/>
+      <c r="A13" s="215"/>
+      <c r="B13" s="216"/>
+      <c r="C13" s="216"/>
+      <c r="D13" s="217"/>
       <c r="E13" s="74"/>
       <c r="F13" s="74"/>
       <c r="G13" s="74"/>
@@ -3798,10 +3799,10 @@
       <c r="K13" s="73"/>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="207"/>
-      <c r="B14" s="208"/>
-      <c r="C14" s="208"/>
-      <c r="D14" s="209"/>
+      <c r="A14" s="215"/>
+      <c r="B14" s="216"/>
+      <c r="C14" s="216"/>
+      <c r="D14" s="217"/>
       <c r="E14" s="74"/>
       <c r="F14" s="74"/>
       <c r="G14" s="74"/>
@@ -3811,18 +3812,18 @@
       <c r="K14" s="73"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="211" t="s">
+      <c r="A15" s="221" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="211"/>
-      <c r="C15" s="211"/>
-      <c r="D15" s="211"/>
-      <c r="E15" s="211"/>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="211"/>
-      <c r="J15" s="211"/>
+      <c r="B15" s="221"/>
+      <c r="C15" s="221"/>
+      <c r="D15" s="221"/>
+      <c r="E15" s="221"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="221"/>
+      <c r="J15" s="221"/>
       <c r="K15" s="84" t="s">
         <v>13</v>
       </c>
@@ -3841,234 +3842,234 @@
       <c r="K16" s="24"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="212" t="s">
+      <c r="A17" s="246" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="212"/>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
-      <c r="J17" s="212"/>
-      <c r="K17" s="212"/>
+      <c r="B17" s="246"/>
+      <c r="C17" s="246"/>
+      <c r="D17" s="246"/>
+      <c r="E17" s="246"/>
+      <c r="F17" s="246"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="246"/>
+      <c r="I17" s="246"/>
+      <c r="J17" s="246"/>
+      <c r="K17" s="246"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="214" t="s">
+      <c r="A18" s="222" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="214"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
+      <c r="B18" s="222"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="222"/>
+      <c r="E18" s="222"/>
+      <c r="F18" s="222"/>
+      <c r="G18" s="222"/>
+      <c r="H18" s="222"/>
+      <c r="I18" s="222"/>
+      <c r="J18" s="222"/>
+      <c r="K18" s="222"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="194" t="s">
+      <c r="A19" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="195"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="219" t="s">
+      <c r="B19" s="225"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="226"/>
+      <c r="E19" s="229" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="195"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="200" t="s">
+      <c r="F19" s="225"/>
+      <c r="G19" s="226"/>
+      <c r="H19" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="219" t="s">
+      <c r="I19" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="196"/>
-      <c r="K19" s="205" t="s">
+      <c r="J19" s="226"/>
+      <c r="K19" s="233" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="197"/>
-      <c r="B20" s="198"/>
-      <c r="C20" s="198"/>
-      <c r="D20" s="199"/>
-      <c r="E20" s="220"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="201"/>
-      <c r="I20" s="220"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="206"/>
+      <c r="A20" s="227"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="230"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="232"/>
+      <c r="I20" s="230"/>
+      <c r="J20" s="228"/>
+      <c r="K20" s="234"/>
     </row>
     <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="207"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="209"/>
-      <c r="E21" s="181"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="142"/>
+      <c r="A21" s="215"/>
+      <c r="B21" s="216"/>
+      <c r="C21" s="216"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="148"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="181"/>
-      <c r="J21" s="142"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="148"/>
       <c r="K21" s="83" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="207"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="209"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="142"/>
+      <c r="A22" s="215"/>
+      <c r="B22" s="216"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="217"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="148"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="181"/>
-      <c r="J22" s="142"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="148"/>
       <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="207"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="208"/>
-      <c r="D23" s="209"/>
-      <c r="E23" s="221"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="222"/>
+      <c r="A23" s="215"/>
+      <c r="B23" s="216"/>
+      <c r="C23" s="216"/>
+      <c r="D23" s="217"/>
+      <c r="E23" s="235"/>
+      <c r="F23" s="213"/>
+      <c r="G23" s="236"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="221"/>
-      <c r="J23" s="222"/>
+      <c r="I23" s="235"/>
+      <c r="J23" s="236"/>
       <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="211" t="s">
+      <c r="A24" s="221" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="211"/>
-      <c r="C24" s="211"/>
-      <c r="D24" s="211"/>
-      <c r="E24" s="211"/>
-      <c r="F24" s="211"/>
-      <c r="G24" s="211"/>
-      <c r="H24" s="211"/>
-      <c r="I24" s="211"/>
-      <c r="J24" s="211"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="221"/>
+      <c r="J24" s="221"/>
       <c r="K24" s="84" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="214" t="s">
+      <c r="A25" s="222" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="214"/>
-      <c r="C25" s="214"/>
-      <c r="D25" s="214"/>
-      <c r="E25" s="214"/>
-      <c r="F25" s="214"/>
-      <c r="G25" s="214"/>
-      <c r="H25" s="214"/>
-      <c r="I25" s="214"/>
-      <c r="J25" s="214"/>
+      <c r="B25" s="222"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="222"/>
+      <c r="E25" s="222"/>
+      <c r="F25" s="222"/>
+      <c r="G25" s="222"/>
+      <c r="H25" s="222"/>
+      <c r="I25" s="222"/>
+      <c r="J25" s="222"/>
       <c r="K25" s="223"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="194" t="s">
+      <c r="A26" s="224" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="195"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="219" t="s">
+      <c r="B26" s="225"/>
+      <c r="C26" s="225"/>
+      <c r="D26" s="226"/>
+      <c r="E26" s="229" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="195"/>
-      <c r="G26" s="196"/>
-      <c r="H26" s="200" t="s">
+      <c r="F26" s="225"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="219" t="s">
+      <c r="I26" s="229" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="196"/>
-      <c r="K26" s="205" t="s">
+      <c r="J26" s="226"/>
+      <c r="K26" s="233" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="197"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="198"/>
-      <c r="D27" s="199"/>
-      <c r="E27" s="220"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="220"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="206"/>
+      <c r="A27" s="227"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="228"/>
+      <c r="E27" s="230"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="232"/>
+      <c r="I27" s="230"/>
+      <c r="J27" s="228"/>
+      <c r="K27" s="234"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="207"/>
-      <c r="B28" s="208"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="181"/>
-      <c r="F28" s="210"/>
-      <c r="G28" s="142"/>
+      <c r="A28" s="215"/>
+      <c r="B28" s="216"/>
+      <c r="C28" s="216"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="148"/>
       <c r="H28" s="61"/>
-      <c r="I28" s="181"/>
-      <c r="J28" s="142"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="148"/>
       <c r="K28" s="83" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="207"/>
-      <c r="B29" s="208"/>
-      <c r="C29" s="208"/>
-      <c r="D29" s="209"/>
-      <c r="E29" s="181"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="142"/>
+      <c r="A29" s="215"/>
+      <c r="B29" s="216"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="208"/>
+      <c r="G29" s="148"/>
       <c r="H29" s="76"/>
-      <c r="I29" s="181"/>
-      <c r="J29" s="142"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="148"/>
       <c r="K29" s="73"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="207"/>
-      <c r="B30" s="208"/>
-      <c r="C30" s="208"/>
-      <c r="D30" s="209"/>
-      <c r="E30" s="181"/>
-      <c r="F30" s="210"/>
-      <c r="G30" s="142"/>
+      <c r="A30" s="215"/>
+      <c r="B30" s="216"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="217"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="148"/>
       <c r="H30" s="75"/>
-      <c r="I30" s="181"/>
-      <c r="J30" s="142"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="148"/>
       <c r="K30" s="73"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="225" t="s">
+      <c r="A31" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="225"/>
-      <c r="C31" s="225"/>
-      <c r="D31" s="225"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="225"/>
-      <c r="G31" s="225"/>
-      <c r="H31" s="225"/>
-      <c r="I31" s="225"/>
-      <c r="J31" s="226"/>
+      <c r="B31" s="193"/>
+      <c r="C31" s="193"/>
+      <c r="D31" s="193"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="193"/>
+      <c r="G31" s="193"/>
+      <c r="H31" s="193"/>
+      <c r="I31" s="193"/>
+      <c r="J31" s="218"/>
       <c r="K31" s="84" t="s">
         <v>13</v>
       </c>
@@ -4087,49 +4088,49 @@
       <c r="K32" s="24"/>
     </row>
     <row r="33" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="227" t="s">
+      <c r="A33" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="228"/>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="228"/>
-      <c r="J33" s="228"/>
-      <c r="K33" s="228"/>
+      <c r="B33" s="220"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="220"/>
+      <c r="K33" s="220"/>
     </row>
     <row r="34" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="224" t="s">
+      <c r="A34" s="205" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="224"/>
-      <c r="C34" s="224"/>
-      <c r="D34" s="224"/>
-      <c r="E34" s="224"/>
-      <c r="F34" s="224"/>
-      <c r="G34" s="224"/>
-      <c r="H34" s="224"/>
-      <c r="I34" s="224"/>
-      <c r="J34" s="224"/>
-      <c r="K34" s="224"/>
+      <c r="B34" s="205"/>
+      <c r="C34" s="205"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="205"/>
+      <c r="F34" s="205"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="205"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="224" t="s">
+      <c r="A35" s="205" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="224"/>
-      <c r="C35" s="224"/>
-      <c r="D35" s="224"/>
-      <c r="E35" s="224"/>
-      <c r="F35" s="224"/>
-      <c r="G35" s="224"/>
-      <c r="H35" s="224"/>
-      <c r="I35" s="224"/>
-      <c r="J35" s="224"/>
-      <c r="K35" s="230"/>
+      <c r="B35" s="205"/>
+      <c r="C35" s="205"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="205"/>
+      <c r="F35" s="205"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="205"/>
+      <c r="I35" s="205"/>
+      <c r="J35" s="205"/>
+      <c r="K35" s="206"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24"/>
@@ -4137,14 +4138,14 @@
       <c r="C36" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="231"/>
-      <c r="E36" s="231"/>
-      <c r="F36" s="231"/>
-      <c r="G36" s="231"/>
-      <c r="H36" s="231"/>
+      <c r="D36" s="207"/>
+      <c r="E36" s="207"/>
+      <c r="F36" s="207"/>
+      <c r="G36" s="207"/>
+      <c r="H36" s="207"/>
       <c r="I36" s="86"/>
-      <c r="J36" s="235"/>
-      <c r="K36" s="235"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="211"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="24"/>
@@ -4153,31 +4154,31 @@
         <v>78</v>
       </c>
       <c r="D37" s="24"/>
-      <c r="E37" s="210"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210"/>
+      <c r="E37" s="208"/>
+      <c r="F37" s="208"/>
+      <c r="G37" s="208"/>
+      <c r="H37" s="208"/>
       <c r="I37" s="77"/>
-      <c r="J37" s="236"/>
-      <c r="K37" s="236"/>
+      <c r="J37" s="212"/>
+      <c r="K37" s="212"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="24"/>
       <c r="B38" s="24"/>
-      <c r="C38" s="232" t="s">
+      <c r="C38" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="232"/>
-      <c r="E38" s="232"/>
+      <c r="D38" s="209"/>
+      <c r="E38" s="209"/>
       <c r="F38" s="24"/>
-      <c r="G38" s="210"/>
-      <c r="H38" s="210"/>
+      <c r="G38" s="208"/>
+      <c r="H38" s="208"/>
       <c r="I38" s="86"/>
-      <c r="J38" s="236" t="str">
+      <c r="J38" s="212" t="str">
         <f>IF(SUM(J36:K37)=0, "", MROUND(SUM(J36:K37), 10))</f>
         <v/>
       </c>
-      <c r="K38" s="236"/>
+      <c r="K38" s="212"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="24"/>
@@ -4201,10 +4202,10 @@
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
       <c r="H40" s="24"/>
-      <c r="I40" s="233" t="s">
+      <c r="I40" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="J40" s="234"/>
+      <c r="J40" s="203"/>
       <c r="K40" s="24"/>
     </row>
     <row r="41" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4217,56 +4218,56 @@
       <c r="G41" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="193"/>
+      <c r="H41" s="213"/>
+      <c r="I41" s="213"/>
+      <c r="J41" s="213"/>
       <c r="K41" s="24"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="237" t="s">
+      <c r="A42" s="214" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="237"/>
-      <c r="C42" s="237"/>
-      <c r="D42" s="237"/>
-      <c r="E42" s="237"/>
-      <c r="F42" s="237"/>
-      <c r="G42" s="237"/>
-      <c r="H42" s="237"/>
-      <c r="I42" s="237"/>
-      <c r="J42" s="237"/>
-      <c r="K42" s="237"/>
+      <c r="B42" s="214"/>
+      <c r="C42" s="214"/>
+      <c r="D42" s="214"/>
+      <c r="E42" s="214"/>
+      <c r="F42" s="214"/>
+      <c r="G42" s="214"/>
+      <c r="H42" s="214"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="214"/>
+      <c r="K42" s="214"/>
       <c r="L42" s="24"/>
     </row>
     <row r="43" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="175" t="s">
+      <c r="A43" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="175"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="175"/>
-      <c r="E43" s="175"/>
-      <c r="F43" s="175"/>
-      <c r="G43" s="175"/>
-      <c r="H43" s="175"/>
-      <c r="I43" s="175"/>
-      <c r="J43" s="175"/>
-      <c r="K43" s="175"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="175" t="s">
+      <c r="A44" s="124" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="175"/>
-      <c r="C44" s="175"/>
-      <c r="D44" s="175"/>
-      <c r="E44" s="175"/>
-      <c r="F44" s="175"/>
-      <c r="G44" s="175"/>
-      <c r="H44" s="175"/>
-      <c r="I44" s="175"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="175"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
@@ -4277,10 +4278,10 @@
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
       <c r="H45" s="24"/>
-      <c r="I45" s="238" t="s">
+      <c r="I45" s="199" t="s">
         <v>86</v>
       </c>
-      <c r="J45" s="238"/>
+      <c r="J45" s="199"/>
       <c r="K45" s="24"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4291,21 +4292,21 @@
       <c r="E46" s="24"/>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
-      <c r="H46" s="229" t="s">
+      <c r="H46" s="204" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="229"/>
-      <c r="J46" s="229"/>
-      <c r="K46" s="229"/>
+      <c r="I46" s="204"/>
+      <c r="J46" s="204"/>
+      <c r="K46" s="204"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="240" t="s">
+      <c r="A47" s="202" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="240"/>
-      <c r="C47" s="240"/>
-      <c r="D47" s="240"/>
-      <c r="E47" s="240"/>
+      <c r="B47" s="202"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="202"/>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
       <c r="H47" s="28"/>
@@ -4314,22 +4315,22 @@
       <c r="K47" s="24"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="240" t="s">
+      <c r="A48" s="202" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="240"/>
-      <c r="C48" s="240"/>
-      <c r="D48" s="240"/>
-      <c r="E48" s="240"/>
+      <c r="B48" s="202"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="202"/>
+      <c r="E48" s="202"/>
       <c r="F48" s="24" t="s">
         <v>88</v>
       </c>
       <c r="G48" s="24"/>
       <c r="H48" s="24"/>
-      <c r="I48" s="234" t="s">
+      <c r="I48" s="203" t="s">
         <v>90</v>
       </c>
-      <c r="J48" s="234"/>
+      <c r="J48" s="203"/>
       <c r="K48" s="24"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -4342,61 +4343,61 @@
       <c r="G49" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="H49" s="238"/>
-      <c r="I49" s="238"/>
-      <c r="J49" s="238"/>
+      <c r="H49" s="199"/>
+      <c r="I49" s="199"/>
+      <c r="J49" s="199"/>
       <c r="K49" s="24"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="175" t="s">
+      <c r="A50" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="175"/>
-      <c r="C50" s="175"/>
-      <c r="D50" s="175"/>
-      <c r="E50" s="175"/>
-      <c r="F50" s="175"/>
-      <c r="G50" s="175"/>
-      <c r="H50" s="175"/>
-      <c r="I50" s="175"/>
-      <c r="J50" s="175"/>
-      <c r="K50" s="175"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="175" t="s">
+      <c r="A51" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="175"/>
-      <c r="C51" s="175"/>
-      <c r="D51" s="175"/>
-      <c r="E51" s="175"/>
-      <c r="F51" s="175"/>
-      <c r="G51" s="175"/>
-      <c r="H51" s="175"/>
-      <c r="I51" s="175"/>
-      <c r="J51" s="175"/>
-      <c r="K51" s="175"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="238" t="s">
+      <c r="A52" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="238"/>
-      <c r="C52" s="238"/>
-      <c r="D52" s="238"/>
-      <c r="E52" s="238"/>
-      <c r="F52" s="238"/>
-      <c r="G52" s="238"/>
-      <c r="H52" s="238"/>
-      <c r="I52" s="238"/>
-      <c r="J52" s="238"/>
-      <c r="K52" s="238"/>
+      <c r="B52" s="199"/>
+      <c r="C52" s="199"/>
+      <c r="D52" s="199"/>
+      <c r="E52" s="199"/>
+      <c r="F52" s="199"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="199"/>
+      <c r="I52" s="199"/>
+      <c r="J52" s="199"/>
+      <c r="K52" s="199"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="198" t="s">
+      <c r="A53" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="198"/>
+      <c r="B53" s="200"/>
       <c r="C53" s="27"/>
       <c r="D53" s="27" t="s">
         <v>94</v>
@@ -4414,13 +4415,13 @@
       <c r="K53" s="82" t="s">
         <v>97</v>
       </c>
-      <c r="M53" s="239"/>
-      <c r="N53" s="239"/>
+      <c r="M53" s="201"/>
+      <c r="N53" s="201"/>
       <c r="O53" s="24"/>
       <c r="P53" s="24"/>
       <c r="Q53" s="24"/>
-      <c r="R53" s="239"/>
-      <c r="S53" s="239"/>
+      <c r="R53" s="201"/>
+      <c r="S53" s="201"/>
       <c r="T53" s="24"/>
       <c r="U53" s="24"/>
       <c r="V53" s="24"/>
@@ -4429,8 +4430,8 @@
       <c r="Y53" s="81"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="179"/>
-      <c r="B54" s="179"/>
+      <c r="A54" s="146"/>
+      <c r="B54" s="146"/>
       <c r="C54" s="24"/>
       <c r="D54" s="97"/>
       <c r="E54" s="28"/>
@@ -4444,8 +4445,8 @@
       <c r="K54" s="102"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="241"/>
-      <c r="B55" s="241"/>
+      <c r="A55" s="198"/>
+      <c r="B55" s="198"/>
       <c r="C55" s="24"/>
       <c r="D55" s="101"/>
       <c r="E55" s="28"/>
@@ -4457,8 +4458,8 @@
       <c r="K55" s="102"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="241"/>
-      <c r="B56" s="241"/>
+      <c r="A56" s="198"/>
+      <c r="B56" s="198"/>
       <c r="C56" s="24"/>
       <c r="D56" s="85"/>
       <c r="E56" s="28"/>
@@ -4470,8 +4471,8 @@
       <c r="K56" s="102"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="241"/>
-      <c r="B57" s="241"/>
+      <c r="A57" s="198"/>
+      <c r="B57" s="198"/>
       <c r="C57" s="24"/>
       <c r="D57" s="85"/>
       <c r="E57" s="28"/>
@@ -4490,8 +4491,8 @@
         <f>IF(SUM(G54:G57)=0, "", MROUND(SUM(G54:G57), 10))</f>
         <v/>
       </c>
-      <c r="H58" s="175"/>
-      <c r="I58" s="175"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="124"/>
       <c r="J58" s="112" t="s">
         <v>15</v>
       </c>
@@ -4501,59 +4502,59 @@
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="242" t="s">
+      <c r="A59" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="242"/>
-      <c r="C59" s="242"/>
-      <c r="D59" s="225"/>
-      <c r="E59" s="225"/>
-      <c r="F59" s="225"/>
-      <c r="G59" s="225"/>
-      <c r="H59" s="225"/>
-      <c r="I59" s="225"/>
-      <c r="J59" s="225"/>
-      <c r="K59" s="225"/>
+      <c r="B59" s="195"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="193"/>
+      <c r="E59" s="193"/>
+      <c r="F59" s="193"/>
+      <c r="G59" s="193"/>
+      <c r="H59" s="193"/>
+      <c r="I59" s="193"/>
+      <c r="J59" s="193"/>
+      <c r="K59" s="193"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="159" t="s">
+      <c r="A60" s="125" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="159"/>
-      <c r="C60" s="159"/>
-      <c r="H60" s="161" t="s">
+      <c r="B60" s="125"/>
+      <c r="C60" s="125"/>
+      <c r="H60" s="151" t="s">
         <v>99</v>
       </c>
-      <c r="I60" s="122"/>
+      <c r="I60" s="196"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="243"/>
-      <c r="B61" s="243"/>
-      <c r="C61" s="243"/>
+      <c r="A61" s="197"/>
+      <c r="B61" s="197"/>
+      <c r="C61" s="197"/>
       <c r="D61" s="24"/>
       <c r="E61" s="24"/>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
       <c r="H61" s="24"/>
-      <c r="I61" s="243"/>
-      <c r="J61" s="243"/>
+      <c r="I61" s="197"/>
+      <c r="J61" s="197"/>
       <c r="K61" s="24"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="244" t="s">
+      <c r="A62" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="245"/>
-      <c r="C62" s="245"/>
+      <c r="B62" s="192"/>
+      <c r="C62" s="192"/>
       <c r="D62" s="24"/>
       <c r="E62" s="24"/>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
       <c r="H62" s="24"/>
-      <c r="I62" s="244" t="s">
+      <c r="I62" s="191" t="s">
         <v>101</v>
       </c>
-      <c r="J62" s="245"/>
+      <c r="J62" s="192"/>
       <c r="K62" s="24"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4567,8 +4568,8 @@
       <c r="H63" s="113" t="s">
         <v>102</v>
       </c>
-      <c r="I63" s="225"/>
-      <c r="J63" s="225"/>
+      <c r="I63" s="193"/>
+      <c r="J63" s="193"/>
       <c r="K63" s="24"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
@@ -4580,10 +4581,10 @@
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
       <c r="H64" s="24"/>
-      <c r="I64" s="244" t="s">
+      <c r="I64" s="191" t="s">
         <v>103</v>
       </c>
-      <c r="J64" s="244"/>
+      <c r="J64" s="191"/>
       <c r="K64" s="24"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4597,8 +4598,8 @@
       <c r="H65" s="113" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="246"/>
-      <c r="J65" s="246"/>
+      <c r="I65" s="194"/>
+      <c r="J65" s="194"/>
       <c r="K65" s="24"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4621,9 +4622,9 @@
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
       <c r="D67" s="75"/>
-      <c r="E67" s="192"/>
-      <c r="F67" s="192"/>
-      <c r="G67" s="192"/>
+      <c r="E67" s="245"/>
+      <c r="F67" s="245"/>
+      <c r="G67" s="245"/>
       <c r="H67" s="75"/>
       <c r="I67" s="75"/>
       <c r="J67" s="114" t="s">
@@ -4635,12 +4636,12 @@
       <c r="A68" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="193"/>
-      <c r="C68" s="193"/>
-      <c r="D68" s="193"/>
-      <c r="E68" s="193"/>
-      <c r="F68" s="193"/>
-      <c r="G68" s="193"/>
+      <c r="B68" s="213"/>
+      <c r="C68" s="213"/>
+      <c r="D68" s="213"/>
+      <c r="E68" s="213"/>
+      <c r="F68" s="213"/>
+      <c r="G68" s="213"/>
       <c r="H68" s="114" t="s">
         <v>113</v>
       </c>
@@ -4657,10 +4658,10 @@
         <v>116</v>
       </c>
       <c r="D69" s="118"/>
-      <c r="E69" s="192"/>
-      <c r="F69" s="192"/>
-      <c r="G69" s="192"/>
-      <c r="H69" s="192"/>
+      <c r="E69" s="245"/>
+      <c r="F69" s="245"/>
+      <c r="G69" s="245"/>
+      <c r="H69" s="245"/>
       <c r="I69" s="24"/>
       <c r="J69" s="24"/>
       <c r="K69" s="24"/>
@@ -4680,94 +4681,14 @@
       <c r="I70" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="J70" s="191"/>
-      <c r="K70" s="191"/>
+      <c r="J70" s="247" t="str">
+        <f>IF(SUM(E70)=0, "", MROUND(SUM(H70), 10))</f>
+        <v/>
+      </c>
+      <c r="K70" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:K59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:K4"/>
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="E69:H69"/>
     <mergeCell ref="E67:G67"/>
@@ -4784,10 +4705,93 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:K59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="64" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup scale="65" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/backend/python/templates/UNIRRIG_Template.xlsx
+++ b/backend/python/templates/UNIRRIG_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Videos\FAAS SYSTEM\backend\python\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54ABDBC5-395A-418A-BBA8-98A11FD57618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4183806C-160D-471B-ACFB-3ABA17EB42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{09F85F88-7F48-4E0A-B303-28052CF036CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09F85F88-7F48-4E0A-B303-28052CF036CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
   <si>
     <t>RPA Form No. 1</t>
   </si>
@@ -421,9 +421,6 @@
   </si>
   <si>
     <t xml:space="preserve">     IMPROVEMENT</t>
-  </si>
-  <si>
-    <t>rw</t>
   </si>
 </sst>
 </file>
@@ -437,7 +434,7 @@
     <numFmt numFmtId="166" formatCode="[$₱-3409]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,23 +540,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -571,6 +553,39 @@
       <color theme="1"/>
       <name val="Times"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Bahnschrift Condensed"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1005,7 +1020,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="252">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1033,9 +1048,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1050,10 +1062,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1085,7 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1109,32 +1116,21 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1142,38 +1138,17 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1201,60 +1176,20 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="14"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1266,119 +1201,88 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1387,203 +1291,108 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="9"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1591,32 +1400,240 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="0" xr9:uid="{3C1D4313-1CBE-4F38-864D-5B432C8D7E84}"/>
   </tableStyles>
@@ -2142,8 +2159,8 @@
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A45" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61:K61"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,345 +2181,345 @@
     <row r="1" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="157" t="s">
+      <c r="H3" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="125"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="131"/>
+      <c r="I3" s="110"/>
+      <c r="J3" s="183"/>
+      <c r="K3" s="184"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="161" t="s">
+      <c r="A4" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="125"/>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="110"/>
+      <c r="E4" s="110"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="160" t="s">
+      <c r="A5" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="183"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="184"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="C7" s="153" t="s">
+      <c r="A7" s="232"/>
+      <c r="C7" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="125"/>
-      <c r="E7" s="125"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="125"/>
-      <c r="H7" s="125"/>
-      <c r="I7" s="125"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="110"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="154" t="s">
+      <c r="A8" s="117" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="125"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="125"/>
-      <c r="F8" s="125"/>
-      <c r="G8" s="125"/>
-      <c r="H8" s="125"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="125"/>
-      <c r="K8" s="125"/>
+      <c r="B8" s="110"/>
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="156"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
+      <c r="B11" s="183"/>
+      <c r="C11" s="184"/>
+      <c r="D11" s="184"/>
+      <c r="E11" s="184"/>
+      <c r="F11" s="184"/>
+      <c r="G11" s="184"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="184"/>
+      <c r="K11" s="184"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="120" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="125"/>
-      <c r="K12" s="125"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="110"/>
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="156"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
+      <c r="B13" s="183"/>
+      <c r="C13" s="184"/>
+      <c r="D13" s="184"/>
+      <c r="E13" s="184"/>
+      <c r="F13" s="184"/>
+      <c r="G13" s="184"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="184"/>
+      <c r="J13" s="184"/>
+      <c r="K13" s="184"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="155" t="s">
+      <c r="A14" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="125"/>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="125"/>
-      <c r="I14" s="125"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="125"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="110"/>
+      <c r="F14" s="110"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="110"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="162" t="s">
+      <c r="A16" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="125"/>
-      <c r="C16" s="125"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="125"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="125"/>
-      <c r="I16" s="125"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="125"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="110"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="110"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="119" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="146"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="131"/>
-      <c r="K17" s="131"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="185"/>
+      <c r="D17" s="184"/>
+      <c r="E17" s="184"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="185"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="185"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="184"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="151" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="125"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="151" t="s">
+      <c r="D18" s="110"/>
+      <c r="E18" s="110"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="125"/>
-      <c r="I18" s="151" t="s">
+      <c r="H18" s="110"/>
+      <c r="I18" s="111" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="125"/>
-      <c r="K18" s="125"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="110"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="124" t="s">
+      <c r="A19" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="125"/>
-      <c r="C19" s="165"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="25" t="s">
+      <c r="B19" s="110"/>
+      <c r="C19" s="183"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="24" t="s">
+      <c r="H19" s="185"/>
+      <c r="I19" s="185"/>
+      <c r="J19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="87"/>
+      <c r="K19" s="186"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="88" t="s">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="89"/>
+      <c r="K20" s="187"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="163"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="27" t="s">
+      <c r="B21" s="183"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="184"/>
+      <c r="F21" s="184"/>
+      <c r="G21" s="184"/>
+      <c r="H21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="163"/>
-      <c r="J21" s="131"/>
-      <c r="K21" s="131"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="184"/>
+      <c r="K21" s="184"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="164"/>
-      <c r="C22" s="141"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="141"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="28" t="s">
+      <c r="B22" s="189"/>
+      <c r="C22" s="188"/>
+      <c r="D22" s="188"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="164"/>
-      <c r="J22" s="141"/>
-      <c r="K22" s="141"/>
+      <c r="I22" s="189"/>
+      <c r="J22" s="188"/>
+      <c r="K22" s="188"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="152" t="s">
+      <c r="A23" s="123" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="125"/>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="110"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="110"/>
+      <c r="I23" s="110"/>
+      <c r="J23" s="110"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="158"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="131"/>
-      <c r="J24" s="131"/>
-      <c r="K24" s="131"/>
+      <c r="A24" s="112"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="176" t="s">
+      <c r="A25" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="177"/>
-      <c r="C25" s="177"/>
-      <c r="D25" s="177"/>
-      <c r="E25" s="177"/>
-      <c r="F25" s="177"/>
-      <c r="G25" s="177"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="177"/>
-      <c r="J25" s="177"/>
-      <c r="K25" s="177"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="150" t="s">
+      <c r="A26" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="149" t="s">
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="141"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="141"/>
-      <c r="I26" s="141"/>
-      <c r="J26" s="141"/>
-      <c r="K26" s="141"/>
+      <c r="F26" s="91"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="91"/>
+      <c r="K26" s="91"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="181" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="123"/>
-      <c r="G27" s="58" t="s">
+      <c r="F27" s="92"/>
+      <c r="G27" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="147" t="s">
+      <c r="J27" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="123"/>
+      <c r="K27" s="92"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="182"/>
-      <c r="F28" s="183"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="90" t="str">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="194"/>
+      <c r="G28" s="198"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="200" t="str">
         <f t="array" ref="I28">_xlfn.IFS(
     E28="COMMERCIAL", _xlfn.IFS(H28="C-1",1400, H28="C-2",1030, H28="C-3",850, H28="C-4",720, TRUE, ""),
     E28="RESIDENTIAL", _xlfn.IFS(H28="R-1",760, H28="R-2",610, H28="R-3",470, H28="R-4",280, H28="R-5",200, TRUE, ""),
@@ -2519,22 +2536,22 @@
 )</f>
         <v/>
       </c>
-      <c r="J28" s="169" t="str">
+      <c r="J28" s="201" t="str">
         <f>IFERROR(IF(MROUND(G28*I28,10)=0, "", MROUND(G28*I28,10)), "")</f>
         <v/>
       </c>
-      <c r="K28" s="170"/>
+      <c r="K28" s="191"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="184"/>
-      <c r="F29" s="185"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="90" t="str">
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="202"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="198"/>
+      <c r="H29" s="204"/>
+      <c r="I29" s="200" t="str">
         <f t="array" ref="I29">_xlfn.IFS(
     E29="COMMERCIAL", _xlfn.IFS(H29="C-1",1400, H29="C-2",1030, H29="C-3",850, H29="C-4",720, TRUE, ""),
     E29="RESIDENTIAL", _xlfn.IFS(H29="R-1",760, H29="R-2",610, H29="R-3",470, H29="R-4",280, H29="R-5",200, TRUE, ""),
@@ -2551,22 +2568,22 @@
 )</f>
         <v/>
       </c>
-      <c r="J29" s="169" t="str">
+      <c r="J29" s="201" t="str">
         <f t="shared" ref="J29:J31" si="0">IFERROR(IF(MROUND(G29*I29,10)=0, "", MROUND(G29*I29,10)), "")</f>
         <v/>
       </c>
-      <c r="K29" s="170"/>
+      <c r="K29" s="191"/>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="90" t="str">
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="205"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="198"/>
+      <c r="H30" s="207"/>
+      <c r="I30" s="200" t="str">
         <f t="array" ref="I30">_xlfn.IFS(
     E30="COMMERCIAL", _xlfn.IFS(H30="C-1",1400, H30="C-2",1030, H30="C-3",850, H30="C-4",720, TRUE, ""),
     E30="RESIDENTIAL", _xlfn.IFS(H30="R-1",760, H30="R-2",610, H30="R-3",470, H30="R-4",280, H30="R-5",200, TRUE, ""),
@@ -2583,40 +2600,40 @@
 )</f>
         <v/>
       </c>
-      <c r="J30" s="169" t="str">
+      <c r="J30" s="201" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K30" s="170"/>
+      <c r="K30" s="191"/>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="123"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="90"/>
-      <c r="J31" s="169" t="str">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="194"/>
+      <c r="G31" s="198"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="200"/>
+      <c r="J31" s="201" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K31" s="170"/>
+      <c r="K31" s="191"/>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="123"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="33" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="194"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="90" t="str">
+      <c r="I32" s="200" t="str">
         <f t="array" ref="I32">_xlfn.IFS(
     E32="COMMERCIAL", _xlfn.IFS(H32="C-1",1400, H32="C-2",1030, H32="C-3",850, H32="C-4",720, TRUE, ""),
     E32="RESIDENTIAL", _xlfn.IFS(H32="R-1",760, H32="R-2",610, H32="R-3",470, H32="R-4",280, H32="R-5",200, TRUE, ""),
@@ -2633,24 +2650,24 @@
 )</f>
         <v/>
       </c>
-      <c r="J32" s="171" t="str">
+      <c r="J32" s="209" t="str">
         <f t="shared" ref="J32:J34" si="1">IFERROR(MROUND(G32*I32,10),"")</f>
         <v/>
       </c>
-      <c r="K32" s="123"/>
+      <c r="K32" s="194"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="123"/>
-      <c r="G33" s="110"/>
-      <c r="H33" s="33" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="208" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="90" t="str">
+      <c r="I33" s="200" t="str">
         <f t="array" ref="I33">_xlfn.IFS(
     E33="COMMERCIAL", _xlfn.IFS(H33="C-1",1400, H33="C-2",1030, H33="C-3",850, H33="C-4",720, TRUE, ""),
     E33="RESIDENTIAL", _xlfn.IFS(H33="R-1",760, H33="R-2",610, H33="R-3",470, H33="R-4",280, H33="R-5",200, TRUE, ""),
@@ -2667,24 +2684,24 @@
 )</f>
         <v/>
       </c>
-      <c r="J33" s="171" t="str">
+      <c r="J33" s="209" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K33" s="123"/>
+      <c r="K33" s="194"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="33" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="74"/>
+      <c r="H34" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I34" s="90" t="str">
+      <c r="I34" s="71" t="str">
         <f t="array" ref="I34">_xlfn.IFS(
     E34="COMMERCIAL", _xlfn.IFS(H34="C-1",1400, H34="C-2",1030, H34="C-3",850, H34="C-4",720, TRUE, ""),
     E34="RESIDENTIAL", _xlfn.IFS(H34="R-1",760, H34="R-2",610, H34="R-3",470, H34="R-4",280, H34="R-5",200, TRUE, ""),
@@ -2701,155 +2718,155 @@
 )</f>
         <v/>
       </c>
-      <c r="J34" s="171" t="str">
+      <c r="J34" s="104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K34" s="123"/>
+      <c r="K34" s="92"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="145" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="123"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="33"/>
-      <c r="J35" s="143" t="str">
+      <c r="F35" s="92"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="234" t="str">
         <f>IF(SUM(J28:K34)=0, "", MROUND(SUM(J28:K34), 10))</f>
         <v/>
       </c>
-      <c r="K35" s="144"/>
+      <c r="K35" s="233"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="38" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="145" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="141"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="141"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="173"/>
+      <c r="F36" s="91"/>
+      <c r="G36" s="91"/>
+      <c r="H36" s="91"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="196"/>
+      <c r="K36" s="195"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="124" t="s">
+      <c r="A37" s="119" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="110"/>
+      <c r="I37" s="110"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="126" t="s">
+      <c r="A38" s="124" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="125"/>
-      <c r="C38" s="125"/>
-      <c r="D38" s="125"/>
-      <c r="E38" s="125"/>
-      <c r="F38" s="125"/>
-      <c r="G38" s="125"/>
-      <c r="H38" s="125"/>
-      <c r="I38" s="125"/>
-      <c r="J38" s="125"/>
-      <c r="K38" s="125"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="110"/>
+      <c r="E38" s="110"/>
+      <c r="F38" s="110"/>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="110"/>
+      <c r="J38" s="110"/>
+      <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="150" t="s">
+      <c r="A39" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="141"/>
-      <c r="C39" s="123"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="34" t="s">
+      <c r="B39" s="91"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="61"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="178" t="s">
+      <c r="F39" s="50"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="141"/>
-      <c r="J39" s="141"/>
-      <c r="K39" s="123"/>
+      <c r="I39" s="91"/>
+      <c r="J39" s="91"/>
+      <c r="K39" s="92"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="139" t="s">
+      <c r="A40" s="129" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="139" t="s">
+      <c r="B40" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="190" t="s">
+      <c r="C40" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="40" t="s">
+      <c r="D40" s="26"/>
+      <c r="E40" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="137" t="s">
+      <c r="F40" s="37"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="107" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="137" t="s">
+      <c r="I40" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="137" t="s">
+      <c r="J40" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="K40" s="137" t="s">
+      <c r="K40" s="107" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="138"/>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="41" t="s">
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="102"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="138"/>
-      <c r="I41" s="138"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="138"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="102"/>
+      <c r="I41" s="102"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="102"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="41" t="s">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="64"/>
-      <c r="I42" s="65"/>
-      <c r="J42" s="64" t="str" cm="1">
+      <c r="F42" s="37"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="217"/>
+      <c r="I42" s="218"/>
+      <c r="J42" s="217" t="str" cm="1">
         <f t="array" ref="J42">_xlfn.IFS(
     H42="COCO BRG.-1", 480,
     H42="COCO BRG.-2", 420,
@@ -2878,7 +2895,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K42" s="95" t="str" cm="1">
+      <c r="K42" s="219" t="str" cm="1">
         <f t="array" ref="K42">IF(ISNUMBER(I42), _xlfn.IFS(
     H42="COCO BRG.-1", 480,
     H42="COCO BRG.-2", 420,
@@ -2909,18 +2926,18 @@
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="41" t="s">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="45"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="64" t="str" cm="1">
+      <c r="F43" s="37"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="217" t="str" cm="1">
         <f t="array" ref="J43">_xlfn.IFS(
     H43="COCO BRG.-1", 480,
     H43="COCO BRG.-2", 420,
@@ -2949,7 +2966,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K43" s="95" t="str" cm="1">
+      <c r="K43" s="219" t="str" cm="1">
         <f t="array" ref="K43">IF(ISNUMBER(I43), _xlfn.IFS(
     H43="COCO BRG.-1", 480,
     H43="COCO BRG.-2", 420,
@@ -2980,18 +2997,18 @@
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="47"/>
-      <c r="B44" s="47"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="48" t="s">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="64" t="str" cm="1">
+      <c r="F44" s="42"/>
+      <c r="G44" s="222"/>
+      <c r="H44" s="208"/>
+      <c r="I44" s="208"/>
+      <c r="J44" s="217" t="str" cm="1">
         <f t="array" ref="J44">_xlfn.IFS(
     H44="COCO BRG.-1", 480,
     H44="COCO BRG.-2", 420,
@@ -3020,7 +3037,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K44" s="95" t="str" cm="1">
+      <c r="K44" s="219" t="str" cm="1">
         <f t="array" ref="K44">IF(ISNUMBER(I44), _xlfn.IFS(
     H44="COCO BRG.-1", 480,
     H44="COCO BRG.-2", 420,
@@ -3051,18 +3068,18 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="133" t="s">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="127" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="125"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="64" t="str" cm="1">
+      <c r="F45" s="110"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="210"/>
+      <c r="I45" s="211"/>
+      <c r="J45" s="217" t="str" cm="1">
         <f t="array" ref="J45">_xlfn.IFS(
     H45="COCO BRG.-1", 480,
     H45="COCO BRG.-2", 420,
@@ -3091,7 +3108,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K45" s="95" t="str" cm="1">
+      <c r="K45" s="219" t="str" cm="1">
         <f t="array" ref="K45">IF(ISNUMBER(I45), _xlfn.IFS(
     H45="COCO BRG.-1", 480,
     H45="COCO BRG.-2", 420,
@@ -3122,113 +3139,113 @@
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="47"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="41" t="s">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="42" t="s">
+      <c r="F46" s="42"/>
+      <c r="G46" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="98"/>
+      <c r="H46" s="208"/>
+      <c r="I46" s="208"/>
+      <c r="J46" s="212"/>
+      <c r="K46" s="213"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="48" t="s">
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="F47" s="48"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="98"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="222"/>
+      <c r="H47" s="208"/>
+      <c r="I47" s="208"/>
+      <c r="J47" s="212"/>
+      <c r="K47" s="213"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="47"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="41" t="s">
+      <c r="A48" s="41"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="48"/>
-      <c r="G48" s="42" t="s">
+      <c r="F48" s="42"/>
+      <c r="G48" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="98"/>
+      <c r="H48" s="208"/>
+      <c r="I48" s="208"/>
+      <c r="J48" s="212"/>
+      <c r="K48" s="213"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="53" t="s">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="98"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="222"/>
+      <c r="H49" s="214"/>
+      <c r="I49" s="208"/>
+      <c r="J49" s="212"/>
+      <c r="K49" s="213"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="55" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="98"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="222"/>
+      <c r="H50" s="208"/>
+      <c r="I50" s="208"/>
+      <c r="J50" s="212"/>
+      <c r="K50" s="213"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="130"/>
-      <c r="F51" s="131"/>
-      <c r="G51" s="129"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="99"/>
+      <c r="A51" s="15"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="86"/>
+      <c r="G51" s="87"/>
+      <c r="H51" s="210"/>
+      <c r="I51" s="210"/>
+      <c r="J51" s="215"/>
+      <c r="K51" s="216"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-      <c r="D52" s="12"/>
+      <c r="B52" s="15"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="100"/>
-      <c r="H52" s="96"/>
-      <c r="I52" s="96"/>
-      <c r="J52" s="17"/>
-      <c r="K52" s="93" t="str">
+      <c r="G52" s="222"/>
+      <c r="H52" s="73"/>
+      <c r="I52" s="73"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="235" t="str">
         <f>IF(SUM(K42:K51)=0, "", MROUND(SUM(K42:K51), 10))</f>
         <v/>
       </c>
@@ -3237,68 +3254,68 @@
       <c r="A53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B53" s="16"/>
+      <c r="B53" s="15"/>
       <c r="C53" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="14"/>
+      <c r="D53" s="13"/>
       <c r="E53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="140"/>
-      <c r="I53" s="141"/>
-      <c r="J53" s="123"/>
-      <c r="K53" s="93" t="str">
+      <c r="H53" s="130"/>
+      <c r="I53" s="91"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="235" t="str">
         <f>IF(SUM(K42:K51)=0, "", MROUND(SUM(K42:K51), 10))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="187"/>
-      <c r="B54" s="141"/>
-      <c r="C54" s="141"/>
-      <c r="D54" s="141"/>
-      <c r="E54" s="141"/>
-      <c r="F54" s="141"/>
-      <c r="G54" s="141"/>
-      <c r="H54" s="141"/>
-      <c r="I54" s="141"/>
-      <c r="J54" s="141"/>
-      <c r="K54" s="141"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="91"/>
+      <c r="C54" s="91"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="91"/>
+      <c r="F54" s="91"/>
+      <c r="G54" s="91"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
+      <c r="J54" s="91"/>
+      <c r="K54" s="91"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="174" t="s">
+      <c r="A55" s="106" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="131"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
-      <c r="F55" s="131"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="131"/>
-      <c r="I55" s="131"/>
-      <c r="J55" s="131"/>
-      <c r="K55" s="131"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="86"/>
+      <c r="J55" s="86"/>
+      <c r="K55" s="86"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="179" t="s">
+      <c r="A56" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="141"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="180" t="s">
+      <c r="B56" s="91"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="53"/>
+      <c r="E56" s="94" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="141"/>
-      <c r="G56" s="141"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="141"/>
-      <c r="J56" s="141"/>
-      <c r="K56" s="141"/>
+      <c r="F56" s="91"/>
+      <c r="G56" s="91"/>
+      <c r="H56" s="91"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="91"/>
+      <c r="K56" s="91"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3310,7 +3327,7 @@
       <c r="C57" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="14"/>
+      <c r="D57" s="13"/>
       <c r="E57" s="7" t="s">
         <v>6</v>
       </c>
@@ -3324,150 +3341,214 @@
       <c r="I57" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="188" t="s">
+      <c r="J57" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="189"/>
+      <c r="K57" s="100"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="135"/>
-      <c r="F58" s="183"/>
-      <c r="G58" s="69"/>
-      <c r="H58" s="70"/>
-      <c r="I58" s="70"/>
-      <c r="J58" s="127"/>
-      <c r="K58" s="123"/>
+      <c r="A58" s="208"/>
+      <c r="B58" s="214"/>
+      <c r="C58" s="208"/>
+      <c r="D58" s="223"/>
+      <c r="E58" s="224"/>
+      <c r="F58" s="190"/>
+      <c r="G58" s="225"/>
+      <c r="H58" s="207"/>
+      <c r="I58" s="207"/>
+      <c r="J58" s="205"/>
+      <c r="K58" s="194"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="135"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="H59" s="69"/>
-      <c r="I59" s="15" t="s">
+      <c r="A59" s="208"/>
+      <c r="B59" s="208"/>
+      <c r="C59" s="208"/>
+      <c r="D59" s="223"/>
+      <c r="E59" s="224"/>
+      <c r="F59" s="192"/>
+      <c r="G59" s="225"/>
+      <c r="H59" s="225"/>
+      <c r="I59" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="128"/>
-      <c r="K59" s="129"/>
+      <c r="J59" s="226"/>
+      <c r="K59" s="227"/>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="135"/>
-      <c r="F60" s="135"/>
-      <c r="G60" s="21" t="s">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H60" s="21" t="s">
+      <c r="H60" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="15" t="s">
+      <c r="I60" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="168"/>
-      <c r="K60" s="123"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="92"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="1" t="s">
+      <c r="B61" s="12"/>
+      <c r="C61" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="20"/>
-      <c r="E61" s="132" t="s">
+      <c r="D61" s="17"/>
+      <c r="E61" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="123"/>
-      <c r="G61" s="68"/>
-      <c r="H61" s="21" t="s">
+      <c r="F61" s="92"/>
+      <c r="G61" s="228"/>
+      <c r="H61" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="15" t="s">
+      <c r="I61" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="122">
-        <f>SUM(J58:K60)</f>
-        <v>0</v>
-      </c>
-      <c r="K61" s="123"/>
+      <c r="J61" s="230" t="str">
+        <f>IF(SUM(J58:K59)=0, "", MROUND(SUM(J58:K59), 10))</f>
+        <v/>
+      </c>
+      <c r="K61" s="194"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="130"/>
-      <c r="B62" s="131"/>
-      <c r="C62" s="131"/>
-      <c r="D62" s="131"/>
-      <c r="E62" s="131"/>
-      <c r="F62" s="131"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="131"/>
-      <c r="J62" s="131"/>
-      <c r="K62" s="129"/>
+      <c r="A62" s="85"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
+      <c r="E62" s="86"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="86"/>
+      <c r="I62" s="86"/>
+      <c r="J62" s="86"/>
+      <c r="K62" s="87"/>
     </row>
     <row r="63" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="67"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="94" t="s">
+      <c r="A64" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="B64" s="175"/>
-      <c r="C64" s="175"/>
-      <c r="D64" s="175"/>
-      <c r="E64" s="175"/>
-      <c r="F64" s="175"/>
-      <c r="G64" s="175"/>
-      <c r="H64" s="175"/>
-      <c r="I64" s="175"/>
-      <c r="J64" s="175"/>
-      <c r="K64" s="175"/>
+      <c r="B64" s="231"/>
+      <c r="C64" s="231"/>
+      <c r="D64" s="231"/>
+      <c r="E64" s="231"/>
+      <c r="F64" s="231"/>
+      <c r="G64" s="231"/>
+      <c r="H64" s="231"/>
+      <c r="I64" s="231"/>
+      <c r="J64" s="231"/>
+      <c r="K64" s="231"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="175"/>
-      <c r="C65" s="175"/>
-      <c r="D65" s="175"/>
-      <c r="E65" s="175"/>
-      <c r="F65" s="175"/>
-      <c r="G65" s="175"/>
-      <c r="H65" s="175"/>
-      <c r="I65" s="175"/>
-      <c r="J65" s="175"/>
-      <c r="K65" s="175"/>
+      <c r="B65" s="231"/>
+      <c r="C65" s="231"/>
+      <c r="D65" s="231"/>
+      <c r="E65" s="231"/>
+      <c r="F65" s="231"/>
+      <c r="G65" s="231"/>
+      <c r="H65" s="231"/>
+      <c r="I65" s="231"/>
+      <c r="J65" s="231"/>
+      <c r="K65" s="231"/>
     </row>
     <row r="66" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="175"/>
-      <c r="C66" s="175"/>
-      <c r="D66" s="175"/>
-      <c r="E66" s="175"/>
-      <c r="F66" s="175"/>
-      <c r="G66" s="175"/>
-      <c r="H66" s="175"/>
-      <c r="I66" s="175"/>
-      <c r="J66" s="175"/>
-      <c r="K66" s="175"/>
+      <c r="B66" s="231"/>
+      <c r="C66" s="231"/>
+      <c r="D66" s="231"/>
+      <c r="E66" s="231"/>
+      <c r="F66" s="231"/>
+      <c r="G66" s="231"/>
+      <c r="H66" s="231"/>
+      <c r="I66" s="231"/>
+      <c r="J66" s="231"/>
+      <c r="K66" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E61:F61"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E60:F60"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E26:K26"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="A39:C39"/>
     <mergeCell ref="B64:K66"/>
     <mergeCell ref="A62:K62"/>
     <mergeCell ref="A25:K25"/>
@@ -3484,73 +3565,12 @@
     <mergeCell ref="A54:K54"/>
     <mergeCell ref="J57:K57"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E26:K26"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E61:F61"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E60:F60"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="H53:J53"/>
   </mergeCells>
+  <conditionalFormatting sqref="G28:G33">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>G28=TRUNC(G28)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="82" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -3564,8 +3584,8 @@
   </sheetPr>
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70:K70"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30:G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3584,1111 +3604,1194 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="241" t="s">
+      <c r="A1" s="151" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="241"/>
-      <c r="C1" s="241"/>
-      <c r="D1" s="241"/>
-      <c r="E1" s="241"/>
-      <c r="F1" s="241"/>
-      <c r="G1" s="241"/>
-      <c r="H1" s="241"/>
-      <c r="I1" s="241"/>
-      <c r="J1" s="241"/>
-      <c r="K1" s="241"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="224" t="s">
+      <c r="A3" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="231" t="s">
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="242" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="243"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="233" t="s">
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="143" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="227"/>
-      <c r="B4" s="200"/>
-      <c r="C4" s="200"/>
-      <c r="D4" s="228"/>
-      <c r="E4" s="232"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="117" t="s">
+      <c r="A4" s="135"/>
+      <c r="B4" s="136"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="117" t="s">
+      <c r="H4" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="117" t="s">
+      <c r="I4" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="117" t="s">
+      <c r="J4" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="234"/>
+      <c r="K4" s="144"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="237"/>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="83" t="s">
+      <c r="A5" s="153"/>
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="67" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="215"/>
-      <c r="B6" s="216"/>
-      <c r="C6" s="216"/>
-      <c r="D6" s="217"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="74"/>
-      <c r="H6" s="74"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="74"/>
-      <c r="K6" s="73"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="215"/>
-      <c r="B7" s="216"/>
-      <c r="C7" s="216"/>
-      <c r="D7" s="217"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="74"/>
-      <c r="K7" s="73"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="146"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="221" t="s">
+      <c r="A8" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="221"/>
-      <c r="C8" s="221"/>
-      <c r="D8" s="221"/>
-      <c r="E8" s="221"/>
-      <c r="F8" s="221"/>
-      <c r="G8" s="221"/>
-      <c r="H8" s="221"/>
-      <c r="I8" s="221"/>
-      <c r="J8" s="221"/>
-      <c r="K8" s="76" t="s">
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="60" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="240" t="s">
+      <c r="A9" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="240"/>
-      <c r="C9" s="240"/>
-      <c r="D9" s="240"/>
-      <c r="E9" s="240"/>
-      <c r="F9" s="240"/>
-      <c r="G9" s="240"/>
-      <c r="H9" s="240"/>
-      <c r="I9" s="240"/>
-      <c r="J9" s="240"/>
-      <c r="K9" s="240"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="224" t="s">
+      <c r="A10" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="225"/>
-      <c r="C10" s="225"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="231" t="s">
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="116"/>
-      <c r="G10" s="242" t="s">
+      <c r="F10" s="80"/>
+      <c r="G10" s="140" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="243"/>
-      <c r="I10" s="243"/>
-      <c r="J10" s="244"/>
-      <c r="K10" s="233" t="s">
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="143" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="227"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="228"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="117" t="s">
+      <c r="A11" s="135"/>
+      <c r="B11" s="136"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="I11" s="117" t="s">
+      <c r="I11" s="81" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="117" t="s">
+      <c r="J11" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="234"/>
+      <c r="K11" s="144"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="215"/>
-      <c r="B12" s="216"/>
-      <c r="C12" s="216"/>
-      <c r="D12" s="217"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="74"/>
-      <c r="K12" s="83" t="s">
+      <c r="A12" s="145"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="67" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="215"/>
-      <c r="B13" s="216"/>
-      <c r="C13" s="216"/>
-      <c r="D13" s="217"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="73"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="58"/>
+      <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="215"/>
-      <c r="B14" s="216"/>
-      <c r="C14" s="216"/>
-      <c r="D14" s="217"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="73"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="147"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="57"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="221" t="s">
+      <c r="A15" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="221"/>
-      <c r="C15" s="221"/>
-      <c r="D15" s="221"/>
-      <c r="E15" s="221"/>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="84" t="s">
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="246" t="s">
+      <c r="A17" s="150" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="246"/>
-      <c r="C17" s="246"/>
-      <c r="D17" s="246"/>
-      <c r="E17" s="246"/>
-      <c r="F17" s="246"/>
-      <c r="G17" s="246"/>
-      <c r="H17" s="246"/>
-      <c r="I17" s="246"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="246"/>
+      <c r="B17" s="150"/>
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
+      <c r="H17" s="150"/>
+      <c r="I17" s="150"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="150"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="222" t="s">
+      <c r="A18" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="222"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="222"/>
-      <c r="E18" s="222"/>
-      <c r="F18" s="222"/>
-      <c r="G18" s="222"/>
-      <c r="H18" s="222"/>
-      <c r="I18" s="222"/>
-      <c r="J18" s="222"/>
-      <c r="K18" s="222"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="225"/>
-      <c r="C19" s="225"/>
-      <c r="D19" s="226"/>
-      <c r="E19" s="229" t="s">
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="225"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="231" t="s">
+      <c r="F19" s="133"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="229" t="s">
+      <c r="I19" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="226"/>
-      <c r="K19" s="233" t="s">
+      <c r="J19" s="134"/>
+      <c r="K19" s="143" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="227"/>
-      <c r="B20" s="200"/>
-      <c r="C20" s="200"/>
-      <c r="D20" s="228"/>
-      <c r="E20" s="230"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="228"/>
-      <c r="H20" s="232"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="228"/>
-      <c r="K20" s="234"/>
+      <c r="A20" s="135"/>
+      <c r="B20" s="136"/>
+      <c r="C20" s="136"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="139"/>
+      <c r="I20" s="158"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="144"/>
     </row>
     <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="215"/>
-      <c r="B21" s="216"/>
-      <c r="C21" s="216"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="149"/>
-      <c r="J21" s="148"/>
-      <c r="K21" s="83" t="s">
+      <c r="A21" s="145"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="147"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="67" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="215"/>
-      <c r="B22" s="216"/>
-      <c r="C22" s="216"/>
-      <c r="D22" s="217"/>
-      <c r="E22" s="149"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="149"/>
-      <c r="J22" s="148"/>
-      <c r="K22" s="73"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="147"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="122"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="215"/>
-      <c r="B23" s="216"/>
-      <c r="C23" s="216"/>
-      <c r="D23" s="217"/>
-      <c r="E23" s="235"/>
-      <c r="F23" s="213"/>
-      <c r="G23" s="236"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="235"/>
-      <c r="J23" s="236"/>
-      <c r="K23" s="73"/>
+      <c r="A23" s="145"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="147"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="159"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="221" t="s">
+      <c r="A24" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="221"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="221"/>
-      <c r="J24" s="221"/>
-      <c r="K24" s="84" t="s">
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="222" t="s">
+      <c r="A25" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="222"/>
-      <c r="C25" s="222"/>
-      <c r="D25" s="222"/>
-      <c r="E25" s="222"/>
-      <c r="F25" s="222"/>
-      <c r="G25" s="222"/>
-      <c r="H25" s="222"/>
-      <c r="I25" s="222"/>
-      <c r="J25" s="222"/>
-      <c r="K25" s="223"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="152"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="152"/>
+      <c r="H25" s="152"/>
+      <c r="I25" s="152"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="161"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="224" t="s">
+      <c r="A26" s="132" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="225"/>
-      <c r="C26" s="225"/>
-      <c r="D26" s="226"/>
-      <c r="E26" s="229" t="s">
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="134"/>
+      <c r="E26" s="157" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="225"/>
-      <c r="G26" s="226"/>
-      <c r="H26" s="231" t="s">
+      <c r="F26" s="133"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="229" t="s">
+      <c r="I26" s="157" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="226"/>
-      <c r="K26" s="233" t="s">
+      <c r="J26" s="134"/>
+      <c r="K26" s="143" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="227"/>
-      <c r="B27" s="200"/>
-      <c r="C27" s="200"/>
-      <c r="D27" s="228"/>
-      <c r="E27" s="230"/>
-      <c r="F27" s="200"/>
-      <c r="G27" s="228"/>
-      <c r="H27" s="232"/>
-      <c r="I27" s="230"/>
-      <c r="J27" s="228"/>
-      <c r="K27" s="234"/>
+      <c r="A27" s="135"/>
+      <c r="B27" s="136"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="158"/>
+      <c r="F27" s="136"/>
+      <c r="G27" s="137"/>
+      <c r="H27" s="139"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="144"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="215"/>
-      <c r="B28" s="216"/>
-      <c r="C28" s="216"/>
-      <c r="D28" s="217"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="208"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="148"/>
-      <c r="K28" s="83" t="s">
+      <c r="A28" s="145"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="146"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="67" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="215"/>
-      <c r="B29" s="216"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="148"/>
-      <c r="K29" s="73"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="146"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="148"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="96"/>
+      <c r="K29" s="57"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="215"/>
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="217"/>
-      <c r="E30" s="149"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="75"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="148"/>
-      <c r="K30" s="73"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="146"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="96"/>
+      <c r="K30" s="57"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="193" t="s">
+      <c r="A31" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="193"/>
-      <c r="C31" s="193"/>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="218"/>
-      <c r="K31" s="84" t="s">
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="163"/>
+      <c r="H31" s="163"/>
+      <c r="I31" s="163"/>
+      <c r="J31" s="164"/>
+      <c r="K31" s="68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="219" t="s">
+      <c r="A33" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="220"/>
-      <c r="C33" s="220"/>
-      <c r="D33" s="220"/>
-      <c r="E33" s="220"/>
-      <c r="F33" s="220"/>
-      <c r="G33" s="220"/>
-      <c r="H33" s="220"/>
-      <c r="I33" s="220"/>
-      <c r="J33" s="220"/>
-      <c r="K33" s="220"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="166"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="166"/>
     </row>
     <row r="34" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="205" t="s">
+      <c r="A34" s="162" t="s">
         <v>106</v>
       </c>
-      <c r="B34" s="205"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="205"/>
-      <c r="K34" s="205"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="162"/>
+      <c r="G34" s="162"/>
+      <c r="H34" s="162"/>
+      <c r="I34" s="162"/>
+      <c r="J34" s="162"/>
+      <c r="K34" s="162"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="205" t="s">
+      <c r="A35" s="162" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="205"/>
-      <c r="C35" s="205"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="205"/>
-      <c r="K35" s="206"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
+      <c r="F35" s="162"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="168"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="80" t="s">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="207"/>
-      <c r="E36" s="207"/>
-      <c r="F36" s="207"/>
-      <c r="G36" s="207"/>
-      <c r="H36" s="207"/>
-      <c r="I36" s="86"/>
-      <c r="J36" s="211"/>
-      <c r="K36" s="211"/>
+      <c r="D36" s="169"/>
+      <c r="E36" s="169"/>
+      <c r="F36" s="169"/>
+      <c r="G36" s="169"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="236"/>
+      <c r="K36" s="236"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="24"/>
-      <c r="C37" s="78" t="s">
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="208"/>
-      <c r="H37" s="208"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="212"/>
-      <c r="K37" s="212"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="148"/>
+      <c r="G37" s="148"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="237"/>
+      <c r="K37" s="237"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="24"/>
-      <c r="B38" s="24"/>
-      <c r="C38" s="209" t="s">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="170" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="209"/>
-      <c r="E38" s="209"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="208"/>
-      <c r="H38" s="208"/>
-      <c r="I38" s="86"/>
-      <c r="J38" s="212" t="str">
+      <c r="D38" s="170"/>
+      <c r="E38" s="170"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="237" t="str">
         <f>IF(SUM(J36:K37)=0, "", MROUND(SUM(J36:K37), 10))</f>
         <v/>
       </c>
-      <c r="K38" s="212"/>
+      <c r="K38" s="237"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="24"/>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="24"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="21"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="24"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="210" t="s">
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="171" t="s">
         <v>80</v>
       </c>
-      <c r="J40" s="203"/>
-      <c r="K40" s="24"/>
+      <c r="J40" s="172"/>
+      <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="24"/>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="79" t="s">
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="24"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
+      <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="214" t="s">
+      <c r="A42" s="173" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="214"/>
-      <c r="C42" s="214"/>
-      <c r="D42" s="214"/>
-      <c r="E42" s="214"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
-      <c r="H42" s="214"/>
-      <c r="I42" s="214"/>
-      <c r="J42" s="214"/>
-      <c r="K42" s="214"/>
-      <c r="L42" s="24"/>
+      <c r="B42" s="173"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="21"/>
     </row>
     <row r="43" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="124" t="s">
+      <c r="A43" s="119" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="119"/>
+      <c r="D43" s="119"/>
+      <c r="E43" s="119"/>
+      <c r="F43" s="119"/>
+      <c r="G43" s="119"/>
+      <c r="H43" s="119"/>
+      <c r="I43" s="119"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="124" t="s">
+      <c r="A44" s="119" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="119"/>
+      <c r="F44" s="119"/>
+      <c r="G44" s="119"/>
+      <c r="H44" s="119"/>
+      <c r="I44" s="119"/>
+      <c r="J44" s="119"/>
+      <c r="K44" s="119"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="199" t="s">
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="174" t="s">
         <v>86</v>
       </c>
-      <c r="J45" s="199"/>
-      <c r="K45" s="24"/>
+      <c r="J45" s="174"/>
+      <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="204" t="s">
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="167" t="s">
         <v>85</v>
       </c>
-      <c r="I46" s="204"/>
-      <c r="J46" s="204"/>
-      <c r="K46" s="204"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="167"/>
+      <c r="K46" s="167"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="202" t="s">
+      <c r="A47" s="176" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="202"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="72"/>
-      <c r="J47" s="72"/>
-      <c r="K47" s="24"/>
+      <c r="B47" s="176"/>
+      <c r="C47" s="176"/>
+      <c r="D47" s="176"/>
+      <c r="E47" s="176"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="56"/>
+      <c r="J47" s="56"/>
+      <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="202" t="s">
+      <c r="A48" s="176" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="202"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="202"/>
-      <c r="E48" s="202"/>
-      <c r="F48" s="24" t="s">
+      <c r="B48" s="176"/>
+      <c r="C48" s="176"/>
+      <c r="D48" s="176"/>
+      <c r="E48" s="176"/>
+      <c r="F48" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="203" t="s">
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="172" t="s">
         <v>90</v>
       </c>
-      <c r="J48" s="203"/>
-      <c r="K48" s="24"/>
+      <c r="J48" s="172"/>
+      <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="79" t="s">
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="H49" s="199"/>
-      <c r="I49" s="199"/>
-      <c r="J49" s="199"/>
-      <c r="K49" s="24"/>
+      <c r="H49" s="174"/>
+      <c r="I49" s="174"/>
+      <c r="J49" s="174"/>
+      <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="124" t="s">
+      <c r="A50" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
+      <c r="B50" s="119"/>
+      <c r="C50" s="119"/>
+      <c r="D50" s="119"/>
+      <c r="E50" s="119"/>
+      <c r="F50" s="119"/>
+      <c r="G50" s="119"/>
+      <c r="H50" s="119"/>
+      <c r="I50" s="119"/>
+      <c r="J50" s="119"/>
+      <c r="K50" s="119"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="124" t="s">
+      <c r="A51" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="124"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
+      <c r="B51" s="119"/>
+      <c r="C51" s="119"/>
+      <c r="D51" s="119"/>
+      <c r="E51" s="119"/>
+      <c r="F51" s="119"/>
+      <c r="G51" s="119"/>
+      <c r="H51" s="119"/>
+      <c r="I51" s="119"/>
+      <c r="J51" s="119"/>
+      <c r="K51" s="119"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="199" t="s">
+      <c r="A52" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="199"/>
-      <c r="C52" s="199"/>
-      <c r="D52" s="199"/>
-      <c r="E52" s="199"/>
-      <c r="F52" s="199"/>
-      <c r="G52" s="199"/>
-      <c r="H52" s="199"/>
-      <c r="I52" s="199"/>
-      <c r="J52" s="199"/>
-      <c r="K52" s="199"/>
+      <c r="B52" s="174"/>
+      <c r="C52" s="174"/>
+      <c r="D52" s="174"/>
+      <c r="E52" s="174"/>
+      <c r="F52" s="174"/>
+      <c r="G52" s="174"/>
+      <c r="H52" s="174"/>
+      <c r="I52" s="174"/>
+      <c r="J52" s="174"/>
+      <c r="K52" s="174"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="200" t="s">
+      <c r="A53" s="136" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="200"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27" t="s">
+      <c r="B53" s="136"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="27" t="s">
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="27"/>
-      <c r="I53" s="75" t="s">
+      <c r="H53" s="24"/>
+      <c r="I53" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="J53" s="24"/>
-      <c r="K53" s="82" t="s">
+      <c r="J53" s="21"/>
+      <c r="K53" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="M53" s="201"/>
-      <c r="N53" s="201"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="201"/>
-      <c r="S53" s="201"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="81"/>
+      <c r="M53" s="175"/>
+      <c r="N53" s="175"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="175"/>
+      <c r="S53" s="175"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="21"/>
+      <c r="X53" s="21"/>
+      <c r="Y53" s="65"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="146"/>
-      <c r="B54" s="146"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="24" t="s">
+      <c r="A54" s="185"/>
+      <c r="B54" s="185"/>
+      <c r="C54" s="238"/>
+      <c r="D54" s="239"/>
+      <c r="E54" s="240"/>
+      <c r="F54" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="102"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="104"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="102"/>
+      <c r="G54" s="241"/>
+      <c r="H54" s="242"/>
+      <c r="I54" s="243"/>
+      <c r="J54" s="238"/>
+      <c r="K54" s="241"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="198"/>
-      <c r="B55" s="198"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="101"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="103"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="102"/>
+      <c r="A55" s="244"/>
+      <c r="B55" s="244"/>
+      <c r="C55" s="238"/>
+      <c r="D55" s="245"/>
+      <c r="E55" s="240"/>
+      <c r="F55" s="238"/>
+      <c r="G55" s="241"/>
+      <c r="H55" s="242"/>
+      <c r="I55" s="246"/>
+      <c r="J55" s="238"/>
+      <c r="K55" s="241"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="198"/>
-      <c r="B56" s="198"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="102"/>
+      <c r="A56" s="244"/>
+      <c r="B56" s="244"/>
+      <c r="C56" s="238"/>
+      <c r="D56" s="247"/>
+      <c r="E56" s="240"/>
+      <c r="F56" s="238"/>
+      <c r="G56" s="241"/>
+      <c r="H56" s="242"/>
+      <c r="I56" s="243"/>
+      <c r="J56" s="238"/>
+      <c r="K56" s="241"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="198"/>
-      <c r="B57" s="198"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="102"/>
+      <c r="A57" s="244"/>
+      <c r="B57" s="244"/>
+      <c r="C57" s="238"/>
+      <c r="D57" s="247"/>
+      <c r="E57" s="240"/>
+      <c r="F57" s="238"/>
+      <c r="G57" s="241"/>
+      <c r="H57" s="242"/>
+      <c r="I57" s="246"/>
+      <c r="J57" s="238"/>
+      <c r="K57" s="241"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="E58" s="111" t="s">
+      <c r="E58" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="105" t="str">
+      <c r="G58" s="248" t="str">
         <f>IF(SUM(G54:G57)=0, "", MROUND(SUM(G54:G57), 10))</f>
         <v/>
       </c>
-      <c r="H58" s="124"/>
-      <c r="I58" s="124"/>
-      <c r="J58" s="112" t="s">
+      <c r="H58" s="119"/>
+      <c r="I58" s="119"/>
+      <c r="J58" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="105" t="str">
+      <c r="K58" s="248" t="str">
         <f>IF(SUM(K54:K57)=0, "", MROUND(SUM(K54:K57), 10))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="195" t="s">
+      <c r="A59" s="177" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="195"/>
-      <c r="C59" s="195"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="193"/>
-      <c r="F59" s="193"/>
-      <c r="G59" s="193"/>
-      <c r="H59" s="193"/>
-      <c r="I59" s="193"/>
-      <c r="J59" s="193"/>
-      <c r="K59" s="193"/>
+      <c r="B59" s="177"/>
+      <c r="C59" s="177"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="163"/>
+      <c r="F59" s="163"/>
+      <c r="G59" s="163"/>
+      <c r="H59" s="163"/>
+      <c r="I59" s="163"/>
+      <c r="J59" s="163"/>
+      <c r="K59" s="163"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="125" t="s">
+      <c r="A60" s="110" t="s">
         <v>100</v>
       </c>
-      <c r="B60" s="125"/>
-      <c r="C60" s="125"/>
-      <c r="H60" s="151" t="s">
+      <c r="B60" s="110"/>
+      <c r="C60" s="110"/>
+      <c r="H60" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="I60" s="196"/>
+      <c r="I60" s="178"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="197"/>
-      <c r="B61" s="197"/>
-      <c r="C61" s="197"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="197"/>
-      <c r="J61" s="197"/>
-      <c r="K61" s="24"/>
+      <c r="A61" s="179"/>
+      <c r="B61" s="179"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="21"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="179"/>
+      <c r="J61" s="179"/>
+      <c r="K61" s="21"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="191" t="s">
+      <c r="A62" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="B62" s="192"/>
-      <c r="C62" s="192"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="191" t="s">
+      <c r="B62" s="181"/>
+      <c r="C62" s="181"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="21"/>
+      <c r="H62" s="21"/>
+      <c r="I62" s="180" t="s">
         <v>101</v>
       </c>
-      <c r="J62" s="192"/>
-      <c r="K62" s="24"/>
+      <c r="J62" s="181"/>
+      <c r="K62" s="21"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="24"/>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="113" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="21"/>
+      <c r="H63" s="77" t="s">
         <v>102</v>
       </c>
-      <c r="I63" s="193"/>
-      <c r="J63" s="193"/>
-      <c r="K63" s="24"/>
+      <c r="I63" s="163"/>
+      <c r="J63" s="163"/>
+      <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A64" s="24"/>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="24"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="191" t="s">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="180" t="s">
         <v>103</v>
       </c>
-      <c r="J64" s="191"/>
-      <c r="K64" s="24"/>
+      <c r="J64" s="180"/>
+      <c r="K64" s="21"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="24"/>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="113" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="21"/>
+      <c r="H65" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="I65" s="194"/>
-      <c r="J65" s="194"/>
-      <c r="K65" s="24"/>
+      <c r="I65" s="182"/>
+      <c r="J65" s="182"/>
+      <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="24"/>
-      <c r="B66" s="24"/>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="114" t="s">
+      <c r="A67" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="24"/>
-      <c r="D67" s="75"/>
-      <c r="E67" s="245"/>
-      <c r="F67" s="245"/>
-      <c r="G67" s="245"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="75"/>
-      <c r="J67" s="114" t="s">
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="183"/>
+      <c r="F67" s="183"/>
+      <c r="G67" s="183"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
+      <c r="J67" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="K67" s="24"/>
+      <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="114" t="s">
+      <c r="A68" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="213"/>
-      <c r="C68" s="213"/>
-      <c r="D68" s="213"/>
-      <c r="E68" s="213"/>
-      <c r="F68" s="213"/>
-      <c r="G68" s="213"/>
-      <c r="H68" s="114" t="s">
+      <c r="B68" s="131"/>
+      <c r="C68" s="131"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="I68" s="114"/>
-      <c r="J68" s="114"/>
-      <c r="K68" s="114"/>
+      <c r="I68" s="78"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="78"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="120" t="s">
+      <c r="A69" s="84" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="118"/>
-      <c r="C69" s="119" t="s">
+      <c r="B69" s="249"/>
+      <c r="C69" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="D69" s="118"/>
-      <c r="E69" s="245"/>
-      <c r="F69" s="245"/>
-      <c r="G69" s="245"/>
-      <c r="H69" s="245"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
+      <c r="D69" s="82"/>
+      <c r="E69" s="183"/>
+      <c r="F69" s="183"/>
+      <c r="G69" s="183"/>
+      <c r="H69" s="183"/>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="114" t="s">
+      <c r="A70" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="B70" s="114"/>
-      <c r="C70" s="114"/>
-      <c r="D70" s="114"/>
-      <c r="E70" s="121"/>
-      <c r="G70" s="114" t="s">
+      <c r="B70" s="78"/>
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="251"/>
+      <c r="G70" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="H70" s="121"/>
-      <c r="I70" s="115" t="s">
+      <c r="H70" s="251"/>
+      <c r="I70" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="J70" s="247" t="str">
+      <c r="J70" s="250" t="str">
         <f>IF(SUM(E70)=0, "", MROUND(SUM(H70), 10))</f>
         <v/>
       </c>
-      <c r="K70" s="247"/>
+      <c r="K70" s="250"/>
     </row>
   </sheetData>
   <mergeCells count="99">
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:K59"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="E37:H37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A31:J31"/>
+    <mergeCell ref="A33:K33"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A25:K25"/>
+    <mergeCell ref="A26:D27"/>
+    <mergeCell ref="E26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="E19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:K4"/>
     <mergeCell ref="J70:K70"/>
     <mergeCell ref="E69:H69"/>
     <mergeCell ref="E67:G67"/>
@@ -4705,89 +4808,6 @@
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A18:K18"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="E19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A25:K25"/>
-    <mergeCell ref="A26:D27"/>
-    <mergeCell ref="E26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="A33:K33"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="D36:H36"/>
-    <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A48:E48"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:K59"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backend/python/templates/UNIRRIG_Template.xlsx
+++ b/backend/python/templates/UNIRRIG_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Videos\FAAS SYSTEM\backend\python\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4183806C-160D-471B-ACFB-3ABA17EB42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25ADBB9-D12B-4034-8FDD-840512ACA474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{09F85F88-7F48-4E0A-B303-28052CF036CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{09F85F88-7F48-4E0A-B303-28052CF036CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -312,9 +312,6 @@
     <t xml:space="preserve">         person taking oath presentinf Residence Certificate No. ___________________  issued on   _________________________</t>
   </si>
   <si>
-    <t>Subscribed and sworn to before me this __________ day of _______________________ 20 ______ the ___________</t>
-  </si>
-  <si>
     <t xml:space="preserve">         20 _________ at ____________________________________</t>
   </si>
   <si>
@@ -421,18 +418,20 @@
   </si>
   <si>
     <t xml:space="preserve">     IMPROVEMENT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          Subscribed and sworn to before me this __________ day of _______________________ 20 ______ the ___________</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$₱-3409]#,##0"/>
     <numFmt numFmtId="165" formatCode="[$₱-464]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$₱-3409]#,##0.00"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -1020,7 +1019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1216,6 +1215,106 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1236,15 +1335,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1259,12 +1375,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1278,6 +1397,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1291,6 +1414,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1306,21 +1436,38 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1328,10 +1475,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1446,8 +1605,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1456,9 +1618,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1474,157 +1642,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2159,8 +2192,8 @@
   </sheetPr>
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A45" zoomScale="115" zoomScaleNormal="160" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="J33" sqref="J28:K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2181,32 +2214,32 @@
     <row r="1" spans="1:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="109" t="s">
+      <c r="H3" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="110"/>
-      <c r="J3" s="183"/>
-      <c r="K3" s="184"/>
+      <c r="I3" s="158"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="160"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="114" t="s">
+      <c r="A4" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="110"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="163" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="184"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
+      <c r="E5" s="160"/>
+      <c r="F5" s="160"/>
+      <c r="G5" s="160"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
@@ -2216,159 +2249,159 @@
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="232"/>
-      <c r="C7" s="116" t="s">
+      <c r="A7" s="108"/>
+      <c r="C7" s="169" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
+      <c r="D7" s="158"/>
+      <c r="E7" s="158"/>
+      <c r="F7" s="158"/>
+      <c r="G7" s="158"/>
+      <c r="H7" s="158"/>
+      <c r="I7" s="158"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="117" t="s">
+      <c r="A8" s="170" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
+      <c r="B8" s="158"/>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
+      <c r="G8" s="158"/>
+      <c r="H8" s="158"/>
+      <c r="I8" s="158"/>
+      <c r="J8" s="158"/>
+      <c r="K8" s="158"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="183"/>
-      <c r="C11" s="184"/>
-      <c r="D11" s="184"/>
-      <c r="E11" s="184"/>
-      <c r="F11" s="184"/>
-      <c r="G11" s="184"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="184"/>
-      <c r="K11" s="184"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="160"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="173" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="110"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="110"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="158"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="158"/>
+      <c r="J12" s="158"/>
+      <c r="K12" s="158"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="183"/>
-      <c r="C13" s="184"/>
-      <c r="D13" s="184"/>
-      <c r="E13" s="184"/>
-      <c r="F13" s="184"/>
-      <c r="G13" s="184"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="184"/>
-      <c r="J13" s="184"/>
-      <c r="K13" s="184"/>
+      <c r="B13" s="159"/>
+      <c r="C13" s="160"/>
+      <c r="D13" s="160"/>
+      <c r="E13" s="160"/>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="160"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="160"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="171" t="s">
         <v>51</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="110"/>
-      <c r="J14" s="110"/>
-      <c r="K14" s="110"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="158"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="158"/>
+      <c r="J14" s="158"/>
+      <c r="K14" s="158"/>
     </row>
     <row r="16" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="115" t="s">
+      <c r="A16" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="110"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="158"/>
+      <c r="D16" s="158"/>
+      <c r="E16" s="158"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="158"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="158"/>
+      <c r="J16" s="158"/>
+      <c r="K16" s="158"/>
     </row>
     <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.25">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="185"/>
-      <c r="D17" s="184"/>
-      <c r="E17" s="184"/>
+      <c r="B17" s="158"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="184"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="184"/>
-      <c r="K17" s="184"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="160"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="110"/>
-      <c r="E18" s="110"/>
+      <c r="D18" s="158"/>
+      <c r="E18" s="158"/>
       <c r="F18" s="21"/>
-      <c r="G18" s="111" t="s">
+      <c r="G18" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="110"/>
-      <c r="I18" s="111" t="s">
+      <c r="H18" s="158"/>
+      <c r="I18" s="161" t="s">
         <v>25</v>
       </c>
-      <c r="J18" s="110"/>
-      <c r="K18" s="110"/>
+      <c r="J18" s="158"/>
+      <c r="K18" s="158"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="183"/>
-      <c r="D19" s="184"/>
-      <c r="E19" s="184"/>
+      <c r="B19" s="158"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
       <c r="F19" s="19"/>
       <c r="G19" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="185"/>
-      <c r="I19" s="185"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="168"/>
       <c r="J19" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="186"/>
+      <c r="K19" s="85"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
@@ -2385,101 +2418,101 @@
       <c r="J20" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="187"/>
+      <c r="K20" s="86"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="183"/>
-      <c r="C21" s="184"/>
-      <c r="D21" s="184"/>
-      <c r="E21" s="184"/>
-      <c r="F21" s="184"/>
-      <c r="G21" s="184"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
       <c r="H21" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I21" s="183"/>
-      <c r="J21" s="184"/>
-      <c r="K21" s="184"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="160"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="189"/>
-      <c r="C22" s="188"/>
-      <c r="D22" s="188"/>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
       <c r="H22" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="189"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="188"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="110"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="110"/>
-      <c r="I23" s="110"/>
-      <c r="J23" s="110"/>
-      <c r="K23" s="110"/>
+      <c r="B23" s="158"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="158"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="158"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="112"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
+      <c r="A24" s="162"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="124"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="124"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="124"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="124"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="88" t="s">
+      <c r="A25" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="89"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
+      <c r="B25" s="127"/>
+      <c r="C25" s="127"/>
+      <c r="D25" s="127"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="127"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="91"/>
-      <c r="C26" s="92"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="26"/>
-      <c r="E26" s="122" t="s">
+      <c r="E26" s="179" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="129"/>
+      <c r="K26" s="129"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="27" t="s">
@@ -2492,10 +2525,10 @@
         <v>8</v>
       </c>
       <c r="D27" s="48"/>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="92"/>
+      <c r="F27" s="130"/>
       <c r="G27" s="49" t="s">
         <v>7</v>
       </c>
@@ -2505,21 +2538,21 @@
       <c r="I27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="J27" s="121" t="s">
+      <c r="J27" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="K27" s="92"/>
+      <c r="K27" s="130"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="28"/>
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="26"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="194"/>
-      <c r="G28" s="198"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="200" t="str">
+      <c r="E28" s="136"/>
+      <c r="F28" s="137"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="90" t="str">
         <f t="array" ref="I28">_xlfn.IFS(
     E28="COMMERCIAL", _xlfn.IFS(H28="C-1",1400, H28="C-2",1030, H28="C-3",850, H28="C-4",720, TRUE, ""),
     E28="RESIDENTIAL", _xlfn.IFS(H28="R-1",760, H28="R-2",610, H28="R-3",470, H28="R-4",280, H28="R-5",200, TRUE, ""),
@@ -2536,22 +2569,19 @@
 )</f>
         <v/>
       </c>
-      <c r="J28" s="201" t="str">
-        <f>IFERROR(IF(MROUND(G28*I28,10)=0, "", MROUND(G28*I28,10)), "")</f>
-        <v/>
-      </c>
-      <c r="K28" s="191"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="134"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="26"/>
-      <c r="E29" s="202"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="198"/>
-      <c r="H29" s="204"/>
-      <c r="I29" s="200" t="str">
+      <c r="E29" s="138"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="90" t="str">
         <f t="array" ref="I29">_xlfn.IFS(
     E29="COMMERCIAL", _xlfn.IFS(H29="C-1",1400, H29="C-2",1030, H29="C-3",850, H29="C-4",720, TRUE, ""),
     E29="RESIDENTIAL", _xlfn.IFS(H29="R-1",760, H29="R-2",610, H29="R-3",470, H29="R-4",280, H29="R-5",200, TRUE, ""),
@@ -2568,22 +2598,19 @@
 )</f>
         <v/>
       </c>
-      <c r="J29" s="201" t="str">
-        <f t="shared" ref="J29:J31" si="0">IFERROR(IF(MROUND(G29*I29,10)=0, "", MROUND(G29*I29,10)), "")</f>
-        <v/>
-      </c>
-      <c r="K29" s="191"/>
+      <c r="J29" s="133"/>
+      <c r="K29" s="134"/>
     </row>
     <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="28"/>
       <c r="B30" s="28"/>
       <c r="C30" s="28"/>
       <c r="D30" s="26"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="206"/>
-      <c r="G30" s="198"/>
-      <c r="H30" s="207"/>
-      <c r="I30" s="200" t="str">
+      <c r="E30" s="140"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="88"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="90" t="str">
         <f t="array" ref="I30">_xlfn.IFS(
     E30="COMMERCIAL", _xlfn.IFS(H30="C-1",1400, H30="C-2",1030, H30="C-3",850, H30="C-4",720, TRUE, ""),
     E30="RESIDENTIAL", _xlfn.IFS(H30="R-1",760, H30="R-2",610, H30="R-3",470, H30="R-4",280, H30="R-5",200, TRUE, ""),
@@ -2600,40 +2627,34 @@
 )</f>
         <v/>
       </c>
-      <c r="J30" s="201" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K30" s="191"/>
+      <c r="J30" s="133"/>
+      <c r="K30" s="134"/>
     </row>
     <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="28"/>
       <c r="B31" s="28"/>
       <c r="C31" s="28"/>
       <c r="D31" s="26"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="194"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="208"/>
-      <c r="I31" s="200"/>
-      <c r="J31" s="201" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="K31" s="191"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="88"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="90"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="134"/>
     </row>
     <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="28"/>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="26"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="194"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="208" t="s">
+      <c r="E32" s="142"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="200" t="str">
+      <c r="I32" s="90" t="str">
         <f t="array" ref="I32">_xlfn.IFS(
     E32="COMMERCIAL", _xlfn.IFS(H32="C-1",1400, H32="C-2",1030, H32="C-3",850, H32="C-4",720, TRUE, ""),
     E32="RESIDENTIAL", _xlfn.IFS(H32="R-1",760, H32="R-2",610, H32="R-3",470, H32="R-4",280, H32="R-5",200, TRUE, ""),
@@ -2650,24 +2671,21 @@
 )</f>
         <v/>
       </c>
-      <c r="J32" s="209" t="str">
-        <f t="shared" ref="J32:J34" si="1">IFERROR(MROUND(G32*I32,10),"")</f>
-        <v/>
-      </c>
-      <c r="K32" s="194"/>
+      <c r="J32" s="151"/>
+      <c r="K32" s="137"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
       <c r="D33" s="26"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="194"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="208" t="s">
+      <c r="E33" s="142"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="200" t="str">
+      <c r="I33" s="90" t="str">
         <f t="array" ref="I33">_xlfn.IFS(
     E33="COMMERCIAL", _xlfn.IFS(H33="C-1",1400, H33="C-2",1030, H33="C-3",850, H33="C-4",720, TRUE, ""),
     E33="RESIDENTIAL", _xlfn.IFS(H33="R-1",760, H33="R-2",610, H33="R-3",470, H33="R-4",280, H33="R-5",200, TRUE, ""),
@@ -2684,19 +2702,16 @@
 )</f>
         <v/>
       </c>
-      <c r="J33" s="209" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K33" s="194"/>
+      <c r="J33" s="151"/>
+      <c r="K33" s="137"/>
     </row>
     <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="28"/>
       <c r="B34" s="28"/>
       <c r="C34" s="28"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="92"/>
+      <c r="E34" s="178"/>
+      <c r="F34" s="130"/>
       <c r="G34" s="74"/>
       <c r="H34" s="30" t="s">
         <v>18</v>
@@ -2718,29 +2733,26 @@
 )</f>
         <v/>
       </c>
-      <c r="J34" s="104" t="str">
-        <f t="shared" si="1"/>
+      <c r="J34" s="153" t="str">
+        <f t="shared" ref="J34" si="0">IFERROR(MROUND(G34*I34,10),"")</f>
         <v/>
       </c>
-      <c r="K34" s="92"/>
+      <c r="K34" s="130"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="28"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="105" t="s">
+      <c r="E35" s="152" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="92"/>
+      <c r="F35" s="130"/>
       <c r="G35" s="29"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
-      <c r="J35" s="234" t="str">
-        <f>IF(SUM(J28:K34)=0, "", MROUND(SUM(J28:K34), 10))</f>
-        <v/>
-      </c>
-      <c r="K35" s="233"/>
+      <c r="J35" s="174"/>
+      <c r="K35" s="175"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
@@ -2751,73 +2763,76 @@
         <v>13</v>
       </c>
       <c r="D36" s="26"/>
-      <c r="E36" s="105" t="s">
+      <c r="E36" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="92"/>
-      <c r="J36" s="196"/>
-      <c r="K36" s="195"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="129"/>
+      <c r="H36" s="129"/>
+      <c r="I36" s="130"/>
+      <c r="J36" s="151" t="str">
+        <f>IF(SUM(J28:K34)=0, "", MROUND(SUM(J28:K34), 10))</f>
+        <v/>
+      </c>
+      <c r="K36" s="137"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="172" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="110"/>
-      <c r="C37" s="110"/>
-      <c r="D37" s="110"/>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
-      <c r="G37" s="110"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="110"/>
-      <c r="J37" s="110"/>
-      <c r="K37" s="110"/>
+      <c r="B37" s="158"/>
+      <c r="C37" s="158"/>
+      <c r="D37" s="158"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="158"/>
+      <c r="G37" s="158"/>
+      <c r="H37" s="158"/>
+      <c r="I37" s="158"/>
+      <c r="J37" s="158"/>
+      <c r="K37" s="158"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="124" t="s">
+      <c r="A38" s="182" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="110"/>
-      <c r="C38" s="110"/>
-      <c r="D38" s="110"/>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
-      <c r="G38" s="110"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="110"/>
-      <c r="J38" s="110"/>
-      <c r="K38" s="110"/>
+      <c r="B38" s="158"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="158"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="158"/>
+      <c r="H38" s="158"/>
+      <c r="I38" s="158"/>
+      <c r="J38" s="158"/>
+      <c r="K38" s="158"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="108" t="s">
+      <c r="A39" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="91"/>
-      <c r="C39" s="92"/>
+      <c r="B39" s="129"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="35"/>
       <c r="E39" s="31" t="s">
         <v>58</v>
       </c>
       <c r="F39" s="50"/>
       <c r="G39" s="51"/>
-      <c r="H39" s="90" t="s">
+      <c r="H39" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="92"/>
+      <c r="I39" s="129"/>
+      <c r="J39" s="129"/>
+      <c r="K39" s="130"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="129" t="s">
+      <c r="A40" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="129" t="s">
+      <c r="B40" s="192" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="101" t="s">
+      <c r="C40" s="148" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="26"/>
@@ -2826,33 +2841,33 @@
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="38"/>
-      <c r="H40" s="107" t="s">
+      <c r="H40" s="155" t="s">
+        <v>107</v>
+      </c>
+      <c r="I40" s="155" t="s">
+        <v>21</v>
+      </c>
+      <c r="J40" s="155" t="s">
         <v>108</v>
       </c>
-      <c r="I40" s="107" t="s">
-        <v>21</v>
-      </c>
-      <c r="J40" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="K40" s="107" t="s">
+      <c r="K40" s="155" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="102"/>
-      <c r="B41" s="102"/>
-      <c r="C41" s="102"/>
+      <c r="A41" s="149"/>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
       <c r="D41" s="26"/>
       <c r="E41" s="37" t="s">
         <v>37</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="52"/>
-      <c r="H41" s="102"/>
-      <c r="I41" s="102"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="102"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="191"/>
+      <c r="K41" s="149"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="39"/>
@@ -2864,9 +2879,9 @@
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="38"/>
-      <c r="H42" s="217"/>
-      <c r="I42" s="218"/>
-      <c r="J42" s="217" t="str" cm="1">
+      <c r="H42" s="98"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="98" t="str" cm="1">
         <f t="array" ref="J42">_xlfn.IFS(
     H42="COCO BRG.-1", 480,
     H42="COCO BRG.-2", 420,
@@ -2895,34 +2910,8 @@
 )</f>
         <v/>
       </c>
-      <c r="K42" s="219" t="str" cm="1">
-        <f t="array" ref="K42">IF(ISNUMBER(I42), _xlfn.IFS(
-    H42="COCO BRG.-1", 480,
-    H42="COCO BRG.-2", 420,
-    H42="COCO BRG.-3", 330,
-    H42="AVOCADO", 310,
-    H42="BANANA", 200,
-    H42="CACAO", 300,
-    H42="CALAMANSI", 360,
-    H42="CAMANSI", 420,
-    H42="CHICO", 630,
-    H42="COFFEE", 250,
-    H42="JACKFRUIT", 840,
-    H42="LANZONES", 460,
-    H42="MABOLO", 350,
-    H42="MANGO", 1750,
-    H42="ORANGE", 460,
-    H42="RAMBUTAN", 360,
-    H42="SANTOL", 620,
-    H42="SINEGUELAS", 310,
-    H42="STAR APPLE", 790,
-    H42="TAMARIND", 350,
-    H42="BAMBOO", 460,
-    H42="BURI", 410,
-    H42="NIPA", 240,
-    TRUE, ""
-) * I42, "")</f>
-        <v/>
+      <c r="K42" s="100">
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2935,9 +2924,9 @@
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="38"/>
-      <c r="H43" s="220"/>
-      <c r="I43" s="221"/>
-      <c r="J43" s="217" t="str" cm="1">
+      <c r="H43" s="101"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="98" t="str" cm="1">
         <f t="array" ref="J43">_xlfn.IFS(
     H43="COCO BRG.-1", 480,
     H43="COCO BRG.-2", 420,
@@ -2966,35 +2955,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K43" s="219" t="str" cm="1">
-        <f t="array" ref="K43">IF(ISNUMBER(I43), _xlfn.IFS(
-    H43="COCO BRG.-1", 480,
-    H43="COCO BRG.-2", 420,
-    H43="COCO BRG.-3", 330,
-    H43="AVOCADO", 310,
-    H43="BANANA", 200,
-    H43="CACAO", 300,
-    H43="CALAMANSI", 360,
-    H43="CAMANSI", 420,
-    H43="CHICO", 630,
-    H43="COFFEE", 250,
-    H43="JACKFRUIT", 840,
-    H43="LANZONES", 460,
-    H43="MABOLO", 350,
-    H43="MANGO", 1750,
-    H43="ORANGE", 460,
-    H43="RAMBUTAN", 360,
-    H43="SANTOL", 620,
-    H43="SINEGUELAS", 310,
-    H43="STAR APPLE", 790,
-    H43="TAMARIND", 350,
-    H43="BAMBOO", 460,
-    H43="BURI", 410,
-    H43="NIPA", 240,
-    TRUE, ""
-) * I43, "")</f>
-        <v/>
-      </c>
+      <c r="K43" s="100"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41"/>
@@ -3005,10 +2966,10 @@
         <v>39</v>
       </c>
       <c r="F44" s="42"/>
-      <c r="G44" s="222"/>
-      <c r="H44" s="208"/>
-      <c r="I44" s="208"/>
-      <c r="J44" s="217" t="str" cm="1">
+      <c r="G44" s="103"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="98" t="str" cm="1">
         <f t="array" ref="J44">_xlfn.IFS(
     H44="COCO BRG.-1", 480,
     H44="COCO BRG.-2", 420,
@@ -3037,7 +2998,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K44" s="219" t="str" cm="1">
+      <c r="K44" s="100" t="str" cm="1">
         <f t="array" ref="K44">IF(ISNUMBER(I44), _xlfn.IFS(
     H44="COCO BRG.-1", 480,
     H44="COCO BRG.-2", 420,
@@ -3072,14 +3033,14 @@
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
       <c r="D45" s="26"/>
-      <c r="E45" s="127" t="s">
+      <c r="E45" s="187" t="s">
         <v>18</v>
       </c>
-      <c r="F45" s="110"/>
-      <c r="G45" s="128"/>
-      <c r="H45" s="210"/>
-      <c r="I45" s="211"/>
-      <c r="J45" s="217" t="str" cm="1">
+      <c r="F45" s="158"/>
+      <c r="G45" s="188"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="98" t="str" cm="1">
         <f t="array" ref="J45">_xlfn.IFS(
     H45="COCO BRG.-1", 480,
     H45="COCO BRG.-2", 420,
@@ -3108,7 +3069,7 @@
 )</f>
         <v/>
       </c>
-      <c r="K45" s="219" t="str" cm="1">
+      <c r="K45" s="100" t="str" cm="1">
         <f t="array" ref="K45">IF(ISNUMBER(I45), _xlfn.IFS(
     H45="COCO BRG.-1", 480,
     H45="COCO BRG.-2", 420,
@@ -3150,10 +3111,10 @@
       <c r="G46" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H46" s="208"/>
-      <c r="I46" s="208"/>
-      <c r="J46" s="212"/>
-      <c r="K46" s="213"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="93"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="100"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="44"/>
@@ -3164,11 +3125,11 @@
         <v>43</v>
       </c>
       <c r="F47" s="42"/>
-      <c r="G47" s="222"/>
-      <c r="H47" s="208"/>
-      <c r="I47" s="208"/>
-      <c r="J47" s="212"/>
-      <c r="K47" s="213"/>
+      <c r="G47" s="103"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="100"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41"/>
@@ -3182,10 +3143,10 @@
       <c r="G48" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="H48" s="208"/>
-      <c r="I48" s="208"/>
-      <c r="J48" s="212"/>
-      <c r="K48" s="213"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="93"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="100"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
@@ -3196,11 +3157,11 @@
         <v>46</v>
       </c>
       <c r="F49" s="45"/>
-      <c r="G49" s="222"/>
-      <c r="H49" s="214"/>
-      <c r="I49" s="208"/>
-      <c r="J49" s="212"/>
-      <c r="K49" s="213"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="87"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="96"/>
+      <c r="K49" s="100"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="44"/>
@@ -3211,24 +3172,24 @@
         <v>47</v>
       </c>
       <c r="F50" s="45"/>
-      <c r="G50" s="222"/>
-      <c r="H50" s="208"/>
-      <c r="I50" s="208"/>
-      <c r="J50" s="212"/>
-      <c r="K50" s="213"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="96"/>
+      <c r="K50" s="100"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="15"/>
       <c r="C51" s="15"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="86"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="210"/>
-      <c r="I51" s="210"/>
-      <c r="J51" s="215"/>
-      <c r="K51" s="216"/>
+      <c r="E51" s="123"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="94"/>
+      <c r="I51" s="94"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="100"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
@@ -3241,14 +3202,11 @@
         <v>15</v>
       </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="222"/>
+      <c r="G52" s="103"/>
       <c r="H52" s="73"/>
       <c r="I52" s="73"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="235" t="str">
-        <f>IF(SUM(K42:K51)=0, "", MROUND(SUM(K42:K51), 10))</f>
-        <v/>
-      </c>
+      <c r="K52" s="100"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -3264,58 +3222,58 @@
       </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="130"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="235" t="str">
+      <c r="H53" s="193"/>
+      <c r="I53" s="129"/>
+      <c r="J53" s="130"/>
+      <c r="K53" s="100">
         <f>IF(SUM(K42:K51)=0, "", MROUND(SUM(K42:K51), 10))</f>
-        <v/>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="98"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
+      <c r="A54" s="145"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="129"/>
+      <c r="D54" s="129"/>
+      <c r="E54" s="129"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="129"/>
+      <c r="H54" s="129"/>
+      <c r="I54" s="129"/>
+      <c r="J54" s="129"/>
+      <c r="K54" s="129"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" s="106" t="s">
+      <c r="A55" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="86"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
+      <c r="B55" s="124"/>
+      <c r="C55" s="124"/>
+      <c r="D55" s="124"/>
+      <c r="E55" s="124"/>
+      <c r="F55" s="124"/>
+      <c r="G55" s="124"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="124"/>
+      <c r="K55" s="124"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="93" t="s">
+      <c r="A56" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="91"/>
-      <c r="C56" s="92"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="130"/>
       <c r="D56" s="53"/>
-      <c r="E56" s="94" t="s">
+      <c r="E56" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="F56" s="91"/>
-      <c r="G56" s="91"/>
-      <c r="H56" s="91"/>
-      <c r="I56" s="91"/>
-      <c r="J56" s="91"/>
-      <c r="K56" s="91"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="129"/>
+      <c r="H56" s="129"/>
+      <c r="I56" s="129"/>
+      <c r="J56" s="129"/>
+      <c r="K56" s="129"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3341,46 +3299,46 @@
       <c r="I57" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J57" s="99" t="s">
+      <c r="J57" s="146" t="s">
         <v>19</v>
       </c>
-      <c r="K57" s="100"/>
+      <c r="K57" s="147"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="208"/>
-      <c r="B58" s="214"/>
-      <c r="C58" s="208"/>
-      <c r="D58" s="223"/>
-      <c r="E58" s="224"/>
-      <c r="F58" s="190"/>
-      <c r="G58" s="225"/>
-      <c r="H58" s="207"/>
-      <c r="I58" s="207"/>
-      <c r="J58" s="205"/>
-      <c r="K58" s="194"/>
+      <c r="A58" s="93"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="93"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="143"/>
+      <c r="F58" s="144"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="183"/>
+      <c r="K58" s="134"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="208"/>
-      <c r="B59" s="208"/>
-      <c r="C59" s="208"/>
-      <c r="D59" s="223"/>
-      <c r="E59" s="224"/>
-      <c r="F59" s="192"/>
-      <c r="G59" s="225"/>
-      <c r="H59" s="225"/>
-      <c r="I59" s="212" t="s">
+      <c r="A59" s="93"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="190"/>
+      <c r="F59" s="141"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="J59" s="226"/>
-      <c r="K59" s="227"/>
+      <c r="J59" s="184"/>
+      <c r="K59" s="185"/>
     </row>
     <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
       <c r="D60" s="17"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
+      <c r="E60" s="189"/>
+      <c r="F60" s="189"/>
       <c r="G60" s="18" t="s">
         <v>18</v>
       </c>
@@ -3390,47 +3348,47 @@
       <c r="I60" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J60" s="103"/>
-      <c r="K60" s="92"/>
+      <c r="J60" s="150"/>
+      <c r="K60" s="130"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B61" s="12"/>
-      <c r="C61" s="229" t="s">
+      <c r="C61" s="107" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="17"/>
-      <c r="E61" s="126" t="s">
+      <c r="E61" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="92"/>
-      <c r="G61" s="228"/>
+      <c r="F61" s="130"/>
+      <c r="G61" s="106"/>
       <c r="H61" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="212" t="s">
+      <c r="I61" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="J61" s="230" t="str">
+      <c r="J61" s="181" t="str">
         <f>IF(SUM(J58:K59)=0, "", MROUND(SUM(J58:K59), 10))</f>
         <v/>
       </c>
-      <c r="K61" s="194"/>
+      <c r="K61" s="137"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="85"/>
-      <c r="B62" s="86"/>
-      <c r="C62" s="86"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="86"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86"/>
-      <c r="K62" s="87"/>
+      <c r="A62" s="123"/>
+      <c r="B62" s="124"/>
+      <c r="C62" s="124"/>
+      <c r="D62" s="124"/>
+      <c r="E62" s="124"/>
+      <c r="F62" s="124"/>
+      <c r="G62" s="124"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="124"/>
+      <c r="J62" s="124"/>
+      <c r="K62" s="125"/>
     </row>
     <row r="63" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="54"/>
@@ -3444,42 +3402,42 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="231"/>
-      <c r="C64" s="231"/>
-      <c r="D64" s="231"/>
-      <c r="E64" s="231"/>
-      <c r="F64" s="231"/>
-      <c r="G64" s="231"/>
-      <c r="H64" s="231"/>
-      <c r="I64" s="231"/>
-      <c r="J64" s="231"/>
-      <c r="K64" s="231"/>
+        <v>109</v>
+      </c>
+      <c r="B64" s="122"/>
+      <c r="C64" s="122"/>
+      <c r="D64" s="122"/>
+      <c r="E64" s="122"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
+      <c r="I64" s="122"/>
+      <c r="J64" s="122"/>
+      <c r="K64" s="122"/>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" s="231"/>
-      <c r="C65" s="231"/>
-      <c r="D65" s="231"/>
-      <c r="E65" s="231"/>
-      <c r="F65" s="231"/>
-      <c r="G65" s="231"/>
-      <c r="H65" s="231"/>
-      <c r="I65" s="231"/>
-      <c r="J65" s="231"/>
-      <c r="K65" s="231"/>
+      <c r="B65" s="122"/>
+      <c r="C65" s="122"/>
+      <c r="D65" s="122"/>
+      <c r="E65" s="122"/>
+      <c r="F65" s="122"/>
+      <c r="G65" s="122"/>
+      <c r="H65" s="122"/>
+      <c r="I65" s="122"/>
+      <c r="J65" s="122"/>
+      <c r="K65" s="122"/>
     </row>
     <row r="66" spans="2:11" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="231"/>
-      <c r="C66" s="231"/>
-      <c r="D66" s="231"/>
-      <c r="E66" s="231"/>
-      <c r="F66" s="231"/>
-      <c r="G66" s="231"/>
-      <c r="H66" s="231"/>
-      <c r="I66" s="231"/>
-      <c r="J66" s="231"/>
-      <c r="K66" s="231"/>
+      <c r="B66" s="122"/>
+      <c r="C66" s="122"/>
+      <c r="D66" s="122"/>
+      <c r="E66" s="122"/>
+      <c r="F66" s="122"/>
+      <c r="G66" s="122"/>
+      <c r="H66" s="122"/>
+      <c r="I66" s="122"/>
+      <c r="J66" s="122"/>
+      <c r="K66" s="122"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -3584,8 +3542,8 @@
   </sheetPr>
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30:G30"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3604,62 +3562,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="215" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
+      <c r="B1" s="215"/>
+      <c r="C1" s="215"/>
+      <c r="D1" s="215"/>
+      <c r="E1" s="215"/>
+      <c r="F1" s="215"/>
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="215"/>
+      <c r="K1" s="215"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="152"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="216"/>
+      <c r="K2" s="216"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="138" t="s">
-        <v>107</v>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="202" t="s">
+        <v>106</v>
       </c>
       <c r="F3" s="80"/>
-      <c r="G3" s="140" t="s">
+      <c r="G3" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="143" t="s">
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="207" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="137"/>
-      <c r="E4" s="139"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="203"/>
       <c r="F4" s="28"/>
       <c r="G4" s="81" t="s">
         <v>65</v>
@@ -3673,13 +3631,13 @@
       <c r="J4" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="144"/>
+      <c r="K4" s="208"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="153"/>
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155"/>
+      <c r="A5" s="217"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="218"/>
+      <c r="D5" s="219"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -3691,10 +3649,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="145"/>
-      <c r="B6" s="146"/>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
+      <c r="A6" s="209"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="211"/>
       <c r="E6" s="58"/>
       <c r="F6" s="58"/>
       <c r="G6" s="58"/>
@@ -3704,10 +3662,10 @@
       <c r="K6" s="57"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="145"/>
-      <c r="B7" s="146"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="147"/>
+      <c r="A7" s="209"/>
+      <c r="B7" s="210"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="211"/>
       <c r="E7" s="58"/>
       <c r="F7" s="58"/>
       <c r="G7" s="58"/>
@@ -3717,64 +3675,64 @@
       <c r="K7" s="57"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="149" t="s">
+      <c r="A8" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B8" s="149"/>
-      <c r="C8" s="149"/>
-      <c r="D8" s="149"/>
-      <c r="E8" s="149"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="149"/>
-      <c r="I8" s="149"/>
-      <c r="J8" s="149"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="213"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
+      <c r="J8" s="213"/>
       <c r="K8" s="60" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="220" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="156"/>
-      <c r="C9" s="156"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
-      <c r="K9" s="156"/>
+      <c r="B9" s="220"/>
+      <c r="C9" s="220"/>
+      <c r="D9" s="220"/>
+      <c r="E9" s="220"/>
+      <c r="F9" s="220"/>
+      <c r="G9" s="220"/>
+      <c r="H9" s="220"/>
+      <c r="I9" s="220"/>
+      <c r="J9" s="220"/>
+      <c r="K9" s="220"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="138" t="s">
-        <v>107</v>
+      <c r="B10" s="197"/>
+      <c r="C10" s="197"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="202" t="s">
+        <v>106</v>
       </c>
       <c r="F10" s="80"/>
-      <c r="G10" s="140" t="s">
+      <c r="G10" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="141"/>
-      <c r="I10" s="141"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="143" t="s">
+      <c r="H10" s="205"/>
+      <c r="I10" s="205"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="207" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="135"/>
-      <c r="B11" s="136"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="139"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="200"/>
+      <c r="C11" s="200"/>
+      <c r="D11" s="201"/>
+      <c r="E11" s="203"/>
       <c r="F11" s="28"/>
       <c r="G11" s="81" t="s">
         <v>65</v>
@@ -3788,13 +3746,13 @@
       <c r="J11" s="81" t="s">
         <v>68</v>
       </c>
-      <c r="K11" s="144"/>
+      <c r="K11" s="208"/>
     </row>
     <row r="12" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145"/>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147"/>
+      <c r="A12" s="209"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="210"/>
+      <c r="D12" s="211"/>
       <c r="E12" s="58"/>
       <c r="F12" s="58"/>
       <c r="G12" s="58"/>
@@ -3806,10 +3764,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="145"/>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
+      <c r="A13" s="209"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="210"/>
+      <c r="D13" s="211"/>
       <c r="E13" s="58"/>
       <c r="F13" s="58"/>
       <c r="G13" s="58"/>
@@ -3819,10 +3777,10 @@
       <c r="K13" s="57"/>
     </row>
     <row r="14" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="145"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147"/>
+      <c r="A14" s="209"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="210"/>
+      <c r="D14" s="211"/>
       <c r="E14" s="58"/>
       <c r="F14" s="58"/>
       <c r="G14" s="58"/>
@@ -3832,18 +3790,18 @@
       <c r="K14" s="57"/>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
-      <c r="F15" s="149"/>
-      <c r="G15" s="149"/>
-      <c r="H15" s="149"/>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
+      <c r="B15" s="213"/>
+      <c r="C15" s="213"/>
+      <c r="D15" s="213"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="213"/>
+      <c r="G15" s="213"/>
+      <c r="H15" s="213"/>
+      <c r="I15" s="213"/>
+      <c r="J15" s="213"/>
       <c r="K15" s="68" t="s">
         <v>13</v>
       </c>
@@ -3862,234 +3820,234 @@
       <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="214" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="150"/>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="150"/>
-      <c r="F17" s="150"/>
-      <c r="G17" s="150"/>
-      <c r="H17" s="150"/>
-      <c r="I17" s="150"/>
-      <c r="J17" s="150"/>
-      <c r="K17" s="150"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="214"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="152" t="s">
+      <c r="A18" s="216" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="152"/>
-      <c r="H18" s="152"/>
-      <c r="I18" s="152"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="152"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="216"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="132" t="s">
+      <c r="A19" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="133"/>
-      <c r="C19" s="133"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="157" t="s">
+      <c r="B19" s="197"/>
+      <c r="C19" s="197"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="F19" s="133"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="138" t="s">
+      <c r="F19" s="197"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="I19" s="157" t="s">
+      <c r="I19" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="J19" s="134"/>
-      <c r="K19" s="143" t="s">
+      <c r="J19" s="198"/>
+      <c r="K19" s="207" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="135"/>
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="158"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="158"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="144"/>
+      <c r="A20" s="199"/>
+      <c r="B20" s="200"/>
+      <c r="C20" s="200"/>
+      <c r="D20" s="201"/>
+      <c r="E20" s="222"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="201"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="222"/>
+      <c r="J20" s="201"/>
+      <c r="K20" s="208"/>
     </row>
     <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="145"/>
-      <c r="B21" s="146"/>
-      <c r="C21" s="146"/>
-      <c r="D21" s="147"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="96"/>
+      <c r="A21" s="209"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="210"/>
+      <c r="D21" s="211"/>
+      <c r="E21" s="179"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="178"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="96"/>
+      <c r="I21" s="179"/>
+      <c r="J21" s="178"/>
       <c r="K21" s="67" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="145"/>
-      <c r="B22" s="146"/>
-      <c r="C22" s="146"/>
-      <c r="D22" s="147"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="148"/>
-      <c r="G22" s="96"/>
+      <c r="A22" s="209"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="210"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="179"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="178"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="96"/>
+      <c r="I22" s="179"/>
+      <c r="J22" s="178"/>
       <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="145"/>
-      <c r="B23" s="146"/>
-      <c r="C23" s="146"/>
-      <c r="D23" s="147"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="160"/>
+      <c r="A23" s="209"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="211"/>
+      <c r="E23" s="223"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="224"/>
       <c r="H23" s="21"/>
-      <c r="I23" s="159"/>
-      <c r="J23" s="160"/>
+      <c r="I23" s="223"/>
+      <c r="J23" s="224"/>
       <c r="K23" s="57"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="149" t="s">
+      <c r="A24" s="213" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="149"/>
-      <c r="C24" s="149"/>
-      <c r="D24" s="149"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="149"/>
-      <c r="G24" s="149"/>
-      <c r="H24" s="149"/>
-      <c r="I24" s="149"/>
-      <c r="J24" s="149"/>
+      <c r="B24" s="213"/>
+      <c r="C24" s="213"/>
+      <c r="D24" s="213"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="213"/>
+      <c r="G24" s="213"/>
+      <c r="H24" s="213"/>
+      <c r="I24" s="213"/>
+      <c r="J24" s="213"/>
       <c r="K24" s="68" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="152" t="s">
+      <c r="A25" s="216" t="s">
         <v>75</v>
       </c>
-      <c r="B25" s="152"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="152"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="152"/>
-      <c r="H25" s="152"/>
-      <c r="I25" s="152"/>
-      <c r="J25" s="152"/>
-      <c r="K25" s="161"/>
+      <c r="B25" s="216"/>
+      <c r="C25" s="216"/>
+      <c r="D25" s="216"/>
+      <c r="E25" s="216"/>
+      <c r="F25" s="216"/>
+      <c r="G25" s="216"/>
+      <c r="H25" s="216"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="225"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="132" t="s">
+      <c r="A26" s="196" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="133"/>
-      <c r="C26" s="133"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="157" t="s">
+      <c r="B26" s="197"/>
+      <c r="C26" s="197"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="133"/>
-      <c r="G26" s="134"/>
-      <c r="H26" s="138" t="s">
+      <c r="F26" s="197"/>
+      <c r="G26" s="198"/>
+      <c r="H26" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="I26" s="157" t="s">
+      <c r="I26" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="J26" s="134"/>
-      <c r="K26" s="143" t="s">
+      <c r="J26" s="198"/>
+      <c r="K26" s="207" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="135"/>
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="158"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="158"/>
-      <c r="J27" s="137"/>
-      <c r="K27" s="144"/>
+      <c r="A27" s="199"/>
+      <c r="B27" s="200"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="201"/>
+      <c r="E27" s="222"/>
+      <c r="F27" s="200"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="222"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="208"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="96"/>
+      <c r="A28" s="209"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="210"/>
+      <c r="D28" s="211"/>
+      <c r="E28" s="179"/>
+      <c r="F28" s="212"/>
+      <c r="G28" s="178"/>
       <c r="H28" s="50"/>
-      <c r="I28" s="122"/>
-      <c r="J28" s="96"/>
+      <c r="I28" s="179"/>
+      <c r="J28" s="178"/>
       <c r="K28" s="67" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
-      <c r="B29" s="146"/>
-      <c r="C29" s="146"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="96"/>
+      <c r="A29" s="209"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="211"/>
+      <c r="E29" s="179"/>
+      <c r="F29" s="212"/>
+      <c r="G29" s="178"/>
       <c r="H29" s="60"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="96"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="178"/>
       <c r="K29" s="57"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="145"/>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="96"/>
+      <c r="A30" s="209"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="210"/>
+      <c r="D30" s="211"/>
+      <c r="E30" s="179"/>
+      <c r="F30" s="212"/>
+      <c r="G30" s="178"/>
       <c r="H30" s="59"/>
-      <c r="I30" s="122"/>
-      <c r="J30" s="96"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="178"/>
       <c r="K30" s="57"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="163" t="s">
+      <c r="A31" s="227" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="163"/>
-      <c r="C31" s="163"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="164"/>
+      <c r="B31" s="227"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="227"/>
+      <c r="E31" s="227"/>
+      <c r="F31" s="227"/>
+      <c r="G31" s="227"/>
+      <c r="H31" s="227"/>
+      <c r="I31" s="227"/>
+      <c r="J31" s="228"/>
       <c r="K31" s="68" t="s">
         <v>13</v>
       </c>
@@ -4108,49 +4066,49 @@
       <c r="K32" s="21"/>
     </row>
     <row r="33" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="165" t="s">
+      <c r="A33" s="229" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="166"/>
-      <c r="C33" s="166"/>
-      <c r="D33" s="166"/>
-      <c r="E33" s="166"/>
-      <c r="F33" s="166"/>
-      <c r="G33" s="166"/>
-      <c r="H33" s="166"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="166"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="230"/>
+      <c r="D33" s="230"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="230"/>
+      <c r="H33" s="230"/>
+      <c r="I33" s="230"/>
+      <c r="J33" s="230"/>
+      <c r="K33" s="230"/>
     </row>
     <row r="34" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="162" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="162"/>
-      <c r="C34" s="162"/>
-      <c r="D34" s="162"/>
-      <c r="E34" s="162"/>
-      <c r="F34" s="162"/>
-      <c r="G34" s="162"/>
-      <c r="H34" s="162"/>
-      <c r="I34" s="162"/>
-      <c r="J34" s="162"/>
-      <c r="K34" s="162"/>
+      <c r="A34" s="226" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="226"/>
+      <c r="C34" s="226"/>
+      <c r="D34" s="226"/>
+      <c r="E34" s="226"/>
+      <c r="F34" s="226"/>
+      <c r="G34" s="226"/>
+      <c r="H34" s="226"/>
+      <c r="I34" s="226"/>
+      <c r="J34" s="226"/>
+      <c r="K34" s="226"/>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="162" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="162"/>
-      <c r="C35" s="162"/>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
-      <c r="F35" s="162"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
-      <c r="K35" s="168"/>
+      <c r="A35" s="226" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="226"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="226"/>
+      <c r="E35" s="226"/>
+      <c r="F35" s="226"/>
+      <c r="G35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="226"/>
+      <c r="K35" s="232"/>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="21"/>
@@ -4158,14 +4116,14 @@
       <c r="C36" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
+      <c r="D36" s="233"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="233"/>
+      <c r="G36" s="233"/>
+      <c r="H36" s="233"/>
       <c r="I36" s="69"/>
-      <c r="J36" s="236"/>
-      <c r="K36" s="236"/>
+      <c r="J36" s="237"/>
+      <c r="K36" s="237"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="21"/>
@@ -4174,31 +4132,31 @@
         <v>78</v>
       </c>
       <c r="D37" s="21"/>
-      <c r="E37" s="148"/>
-      <c r="F37" s="148"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="148"/>
+      <c r="E37" s="212"/>
+      <c r="F37" s="212"/>
+      <c r="G37" s="212"/>
+      <c r="H37" s="212"/>
       <c r="I37" s="61"/>
-      <c r="J37" s="237"/>
-      <c r="K37" s="237"/>
+      <c r="J37" s="238"/>
+      <c r="K37" s="238"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="21"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="170" t="s">
+      <c r="C38" s="234" t="s">
         <v>79</v>
       </c>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
+      <c r="D38" s="234"/>
+      <c r="E38" s="234"/>
       <c r="F38" s="21"/>
-      <c r="G38" s="148"/>
-      <c r="H38" s="148"/>
+      <c r="G38" s="212"/>
+      <c r="H38" s="212"/>
       <c r="I38" s="69"/>
-      <c r="J38" s="237" t="str">
+      <c r="J38" s="238" t="str">
         <f>IF(SUM(J36:K37)=0, "", MROUND(SUM(J36:K37), 10))</f>
         <v/>
       </c>
-      <c r="K38" s="237"/>
+      <c r="K38" s="238"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="21"/>
@@ -4222,10 +4180,10 @@
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
-      <c r="I40" s="171" t="s">
+      <c r="I40" s="235" t="s">
         <v>80</v>
       </c>
-      <c r="J40" s="172"/>
+      <c r="J40" s="236"/>
       <c r="K40" s="21"/>
     </row>
     <row r="41" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -4238,56 +4196,56 @@
       <c r="G41" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="H41" s="131"/>
-      <c r="I41" s="131"/>
-      <c r="J41" s="131"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
       <c r="K41" s="21"/>
     </row>
     <row r="42" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="173" t="s">
+      <c r="A42" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="250"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="252"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="21"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="251" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="251"/>
+      <c r="C43" s="251"/>
+      <c r="D43" s="251"/>
+      <c r="E43" s="251"/>
+      <c r="F43" s="251"/>
+      <c r="G43" s="253"/>
+      <c r="H43" s="254"/>
+      <c r="I43" s="254"/>
+      <c r="J43" s="254"/>
+      <c r="K43" s="251"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="251" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="173"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="173"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="21"/>
-    </row>
-    <row r="43" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="119" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="119"/>
-      <c r="C43" s="119"/>
-      <c r="D43" s="119"/>
-      <c r="E43" s="119"/>
-      <c r="F43" s="119"/>
-      <c r="G43" s="119"/>
-      <c r="H43" s="119"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="119"/>
-      <c r="K43" s="119"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="119" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="119"/>
-      <c r="C44" s="119"/>
-      <c r="D44" s="119"/>
-      <c r="E44" s="119"/>
-      <c r="F44" s="119"/>
-      <c r="G44" s="119"/>
-      <c r="H44" s="119"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="119"/>
-      <c r="K44" s="119"/>
+      <c r="B44" s="255"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="251"/>
+      <c r="G44" s="251"/>
+      <c r="H44" s="251"/>
+      <c r="I44" s="251"/>
+      <c r="J44" s="251"/>
+      <c r="K44" s="251"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="21"/>
@@ -4298,10 +4256,10 @@
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
       <c r="H45" s="21"/>
-      <c r="I45" s="174" t="s">
-        <v>86</v>
-      </c>
-      <c r="J45" s="174"/>
+      <c r="I45" s="239" t="s">
+        <v>85</v>
+      </c>
+      <c r="J45" s="239"/>
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
@@ -4312,21 +4270,21 @@
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
-      <c r="H46" s="167" t="s">
-        <v>85</v>
-      </c>
-      <c r="I46" s="167"/>
-      <c r="J46" s="167"/>
-      <c r="K46" s="167"/>
+      <c r="H46" s="231" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="231"/>
+      <c r="J46" s="231"/>
+      <c r="K46" s="231"/>
     </row>
     <row r="47" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="176" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="176"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="176"/>
-      <c r="E47" s="176"/>
+      <c r="A47" s="241" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="241"/>
+      <c r="C47" s="241"/>
+      <c r="D47" s="241"/>
+      <c r="E47" s="241"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
       <c r="H47" s="25"/>
@@ -4335,22 +4293,22 @@
       <c r="K47" s="21"/>
     </row>
     <row r="48" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="176" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="176"/>
-      <c r="C48" s="176"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="176"/>
+      <c r="A48" s="241" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48" s="241"/>
+      <c r="C48" s="241"/>
+      <c r="D48" s="241"/>
+      <c r="E48" s="241"/>
       <c r="F48" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G48" s="21"/>
       <c r="H48" s="21"/>
-      <c r="I48" s="172" t="s">
-        <v>90</v>
-      </c>
-      <c r="J48" s="172"/>
+      <c r="I48" s="236" t="s">
+        <v>89</v>
+      </c>
+      <c r="J48" s="236"/>
       <c r="K48" s="21"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.25">
@@ -4363,64 +4321,64 @@
       <c r="G49" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="H49" s="174"/>
-      <c r="I49" s="174"/>
-      <c r="J49" s="174"/>
+      <c r="H49" s="239"/>
+      <c r="I49" s="239"/>
+      <c r="J49" s="239"/>
       <c r="K49" s="21"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="119" t="s">
+      <c r="A50" s="172" t="s">
+        <v>90</v>
+      </c>
+      <c r="B50" s="172"/>
+      <c r="C50" s="172"/>
+      <c r="D50" s="172"/>
+      <c r="E50" s="172"/>
+      <c r="F50" s="172"/>
+      <c r="G50" s="172"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="172"/>
+      <c r="K50" s="172"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="172" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="119"/>
-      <c r="C50" s="119"/>
-      <c r="D50" s="119"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="119"/>
-      <c r="G50" s="119"/>
-      <c r="H50" s="119"/>
-      <c r="I50" s="119"/>
-      <c r="J50" s="119"/>
-      <c r="K50" s="119"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="119" t="s">
+      <c r="B51" s="172"/>
+      <c r="C51" s="172"/>
+      <c r="D51" s="172"/>
+      <c r="E51" s="172"/>
+      <c r="F51" s="172"/>
+      <c r="G51" s="172"/>
+      <c r="H51" s="172"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="172"/>
+      <c r="K51" s="172"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="239" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="119"/>
-      <c r="C51" s="119"/>
-      <c r="D51" s="119"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="119"/>
-      <c r="G51" s="119"/>
-      <c r="H51" s="119"/>
-      <c r="I51" s="119"/>
-      <c r="J51" s="119"/>
-      <c r="K51" s="119"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="174" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="174"/>
-      <c r="C52" s="174"/>
-      <c r="D52" s="174"/>
-      <c r="E52" s="174"/>
-      <c r="F52" s="174"/>
-      <c r="G52" s="174"/>
-      <c r="H52" s="174"/>
-      <c r="I52" s="174"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="174"/>
+      <c r="B52" s="239"/>
+      <c r="C52" s="239"/>
+      <c r="D52" s="239"/>
+      <c r="E52" s="239"/>
+      <c r="F52" s="239"/>
+      <c r="G52" s="239"/>
+      <c r="H52" s="239"/>
+      <c r="I52" s="239"/>
+      <c r="J52" s="239"/>
+      <c r="K52" s="239"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="136" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="136"/>
+      <c r="A53" s="200" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="200"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
@@ -4429,19 +4387,19 @@
       </c>
       <c r="H53" s="24"/>
       <c r="I53" s="59" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J53" s="21"/>
       <c r="K53" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="M53" s="175"/>
-      <c r="N53" s="175"/>
+        <v>96</v>
+      </c>
+      <c r="M53" s="240"/>
+      <c r="N53" s="240"/>
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="21"/>
-      <c r="R53" s="175"/>
-      <c r="S53" s="175"/>
+      <c r="R53" s="240"/>
+      <c r="S53" s="240"/>
       <c r="T53" s="21"/>
       <c r="U53" s="21"/>
       <c r="V53" s="21"/>
@@ -4450,131 +4408,131 @@
       <c r="Y53" s="65"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="185"/>
-      <c r="B54" s="185"/>
-      <c r="C54" s="238"/>
-      <c r="D54" s="239"/>
-      <c r="E54" s="240"/>
-      <c r="F54" s="238" t="s">
+      <c r="A54" s="168"/>
+      <c r="B54" s="168"/>
+      <c r="C54" s="110"/>
+      <c r="D54" s="112"/>
+      <c r="E54" s="110"/>
+      <c r="F54" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="G54" s="241"/>
-      <c r="H54" s="242"/>
-      <c r="I54" s="243"/>
-      <c r="J54" s="238"/>
-      <c r="K54" s="241"/>
+      <c r="G54" s="114"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="109"/>
+      <c r="K54" s="114"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="244"/>
-      <c r="B55" s="244"/>
-      <c r="C55" s="238"/>
-      <c r="D55" s="245"/>
-      <c r="E55" s="240"/>
-      <c r="F55" s="238"/>
-      <c r="G55" s="241"/>
-      <c r="H55" s="242"/>
-      <c r="I55" s="246"/>
-      <c r="J55" s="238"/>
-      <c r="K55" s="241"/>
+      <c r="A55" s="242"/>
+      <c r="B55" s="242"/>
+      <c r="C55" s="110"/>
+      <c r="D55" s="119"/>
+      <c r="E55" s="110"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="114"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="114"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="244"/>
-      <c r="B56" s="244"/>
-      <c r="C56" s="238"/>
-      <c r="D56" s="247"/>
-      <c r="E56" s="240"/>
-      <c r="F56" s="238"/>
-      <c r="G56" s="241"/>
-      <c r="H56" s="242"/>
-      <c r="I56" s="243"/>
-      <c r="J56" s="238"/>
-      <c r="K56" s="241"/>
+      <c r="A56" s="242"/>
+      <c r="B56" s="242"/>
+      <c r="C56" s="110"/>
+      <c r="D56" s="120"/>
+      <c r="E56" s="110"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="114"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="117"/>
+      <c r="J56" s="109"/>
+      <c r="K56" s="114"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="244"/>
-      <c r="B57" s="244"/>
-      <c r="C57" s="238"/>
-      <c r="D57" s="247"/>
-      <c r="E57" s="240"/>
-      <c r="F57" s="238"/>
-      <c r="G57" s="241"/>
-      <c r="H57" s="242"/>
-      <c r="I57" s="246"/>
-      <c r="J57" s="238"/>
-      <c r="K57" s="241"/>
+      <c r="A57" s="242"/>
+      <c r="B57" s="242"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="120"/>
+      <c r="E57" s="110"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="114"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="114"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="E58" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="G58" s="248" t="str">
+      <c r="G58" s="115" t="str">
         <f>IF(SUM(G54:G57)=0, "", MROUND(SUM(G54:G57), 10))</f>
         <v/>
       </c>
-      <c r="H58" s="119"/>
-      <c r="I58" s="119"/>
+      <c r="H58" s="172"/>
+      <c r="I58" s="172"/>
       <c r="J58" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="K58" s="248" t="str">
+      <c r="K58" s="116" t="str">
         <f>IF(SUM(K54:K57)=0, "", MROUND(SUM(K54:K57), 10))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="177" t="s">
+      <c r="A59" s="243" t="s">
+        <v>97</v>
+      </c>
+      <c r="B59" s="243"/>
+      <c r="C59" s="243"/>
+      <c r="D59" s="244"/>
+      <c r="E59" s="244"/>
+      <c r="F59" s="244"/>
+      <c r="G59" s="244"/>
+      <c r="H59" s="244"/>
+      <c r="I59" s="244"/>
+      <c r="J59" s="244"/>
+      <c r="K59" s="244"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A60" s="158" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60" s="158"/>
+      <c r="C60" s="158"/>
+      <c r="H60" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="177"/>
-      <c r="C59" s="177"/>
-      <c r="D59" s="163"/>
-      <c r="E59" s="163"/>
-      <c r="F59" s="163"/>
-      <c r="G59" s="163"/>
-      <c r="H59" s="163"/>
-      <c r="I59" s="163"/>
-      <c r="J59" s="163"/>
-      <c r="K59" s="163"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A60" s="110" t="s">
-        <v>100</v>
-      </c>
-      <c r="B60" s="110"/>
-      <c r="C60" s="110"/>
-      <c r="H60" s="111" t="s">
-        <v>99</v>
-      </c>
-      <c r="I60" s="178"/>
+      <c r="I60" s="245"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="179"/>
-      <c r="B61" s="179"/>
-      <c r="C61" s="179"/>
+      <c r="A61" s="246"/>
+      <c r="B61" s="246"/>
+      <c r="C61" s="246"/>
       <c r="D61" s="21"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
       <c r="H61" s="21"/>
-      <c r="I61" s="179"/>
-      <c r="J61" s="179"/>
+      <c r="I61" s="246"/>
+      <c r="J61" s="246"/>
       <c r="K61" s="21"/>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A62" s="180" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="181"/>
-      <c r="C62" s="181"/>
+      <c r="A62" s="247" t="s">
+        <v>100</v>
+      </c>
+      <c r="B62" s="248"/>
+      <c r="C62" s="248"/>
       <c r="D62" s="21"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
       <c r="H62" s="21"/>
-      <c r="I62" s="180" t="s">
-        <v>101</v>
-      </c>
-      <c r="J62" s="181"/>
+      <c r="I62" s="247" t="s">
+        <v>100</v>
+      </c>
+      <c r="J62" s="248"/>
       <c r="K62" s="21"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4586,10 +4544,10 @@
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
       <c r="H63" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="I63" s="163"/>
-      <c r="J63" s="163"/>
+        <v>101</v>
+      </c>
+      <c r="I63" s="227"/>
+      <c r="J63" s="227"/>
       <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.25">
@@ -4601,10 +4559,10 @@
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
-      <c r="I64" s="180" t="s">
-        <v>103</v>
-      </c>
-      <c r="J64" s="180"/>
+      <c r="I64" s="247" t="s">
+        <v>102</v>
+      </c>
+      <c r="J64" s="247"/>
       <c r="K64" s="21"/>
     </row>
     <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4616,10 +4574,10 @@
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
       <c r="H65" s="77" t="s">
-        <v>104</v>
-      </c>
-      <c r="I65" s="182"/>
-      <c r="J65" s="182"/>
+        <v>103</v>
+      </c>
+      <c r="I65" s="249"/>
+      <c r="J65" s="249"/>
       <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
@@ -4637,33 +4595,33 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B67" s="21"/>
       <c r="C67" s="21"/>
       <c r="D67" s="59"/>
-      <c r="E67" s="183"/>
-      <c r="F67" s="183"/>
-      <c r="G67" s="183"/>
+      <c r="E67" s="159"/>
+      <c r="F67" s="159"/>
+      <c r="G67" s="159"/>
       <c r="H67" s="59"/>
       <c r="I67" s="59"/>
       <c r="J67" s="78" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="131"/>
-      <c r="C68" s="131"/>
-      <c r="D68" s="131"/>
-      <c r="E68" s="131"/>
-      <c r="F68" s="131"/>
-      <c r="G68" s="131"/>
+        <v>113</v>
+      </c>
+      <c r="B68" s="195"/>
+      <c r="C68" s="195"/>
+      <c r="D68" s="195"/>
+      <c r="E68" s="195"/>
+      <c r="F68" s="195"/>
+      <c r="G68" s="195"/>
       <c r="H68" s="78" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I68" s="78"/>
       <c r="J68" s="78"/>
@@ -4671,44 +4629,45 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="113"/>
+      <c r="C69" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="249"/>
-      <c r="C69" s="83" t="s">
-        <v>116</v>
-      </c>
       <c r="D69" s="82"/>
-      <c r="E69" s="183"/>
-      <c r="F69" s="183"/>
-      <c r="G69" s="183"/>
-      <c r="H69" s="183"/>
+      <c r="E69" s="159"/>
+      <c r="F69" s="159"/>
+      <c r="G69" s="159"/>
+      <c r="H69" s="159"/>
       <c r="I69" s="21"/>
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="78" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B70" s="78"/>
       <c r="C70" s="78"/>
       <c r="D70" s="78"/>
-      <c r="E70" s="251"/>
+      <c r="E70" s="121"/>
       <c r="G70" s="78" t="s">
-        <v>119</v>
-      </c>
-      <c r="H70" s="251"/>
+        <v>118</v>
+      </c>
+      <c r="H70" s="121"/>
       <c r="I70" s="79" t="s">
-        <v>117</v>
-      </c>
-      <c r="J70" s="250" t="str">
+        <v>116</v>
+      </c>
+      <c r="J70" s="194" t="str">
         <f>IF(SUM(E70)=0, "", MROUND(SUM(H70), 10))</f>
         <v/>
       </c>
-      <c r="K70" s="250"/>
+      <c r="K70" s="194"/>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="98">
+    <mergeCell ref="C44:E44"/>
     <mergeCell ref="A62:C62"/>
     <mergeCell ref="I62:J62"/>
     <mergeCell ref="I63:J63"/>
@@ -4746,10 +4705,8 @@
     <mergeCell ref="J37:K37"/>
     <mergeCell ref="J38:K38"/>
     <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A44:K44"/>
     <mergeCell ref="I45:J45"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="E28:G28"/>
